--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30620" yWindow="460" windowWidth="36460" windowHeight="20140"/>
+    <workbookView xWindow="39180" yWindow="3100" windowWidth="28800" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="explanations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1283">
   <si>
     <t>Key</t>
   </si>
@@ -3835,6 +3836,39 @@
   </si>
   <si>
     <t>Great tit</t>
+  </si>
+  <si>
+    <t>No sufficient repeatabilities reported / analysed</t>
+  </si>
+  <si>
+    <t>Data is there (Paper 3 in R script) Not yet analysed</t>
+  </si>
+  <si>
+    <t>To be figured out</t>
+  </si>
+  <si>
+    <t>To be analysed or with open questions (data is there in R script)</t>
+  </si>
+  <si>
+    <t>Meta Table constructed in R with data available</t>
+  </si>
+  <si>
+    <t>Meta Table constructed in R without info from paper</t>
+  </si>
+  <si>
+    <t>Only one repeatability reported / no data</t>
+  </si>
+  <si>
+    <t>No repeatability reported</t>
+  </si>
+  <si>
+    <t>Strange way of reporting, things are a bit unclear.</t>
+  </si>
+  <si>
+    <t>Only one repeatability reported / no data / only short term and 3 measurements</t>
+  </si>
+  <si>
+    <t>10 measurements but only one repeatability reported</t>
   </si>
 </sst>
 </file>
@@ -3858,7 +3892,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3901,6 +3935,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3914,7 +3960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3926,6 +3972,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4271,9 +4321,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB7" sqref="AB7"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB54" sqref="AB54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7053,58 +7103,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="10">
         <v>2015</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="10">
         <v>108</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="10" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="9">
         <v>2017</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="9">
         <v>86</v>
       </c>
     </row>
@@ -7137,29 +7187,29 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>2017</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="5">
         <v>20</v>
       </c>
     </row>
@@ -7192,215 +7242,230 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="10">
         <v>2017</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="10">
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>2018</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="AB48" s="2" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>2012</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="AB49" s="2" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="12">
         <v>2004</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>2017</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="AB51" s="5" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="12">
         <v>2013</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="12">
         <v>182</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="AB52" s="12" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="12">
         <v>2013</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="6">
         <v>2016</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="6">
         <v>6</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -7432,30 +7497,33 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="6">
         <v>2017</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="6">
         <v>123</v>
+      </c>
+      <c r="AB56" s="2" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
@@ -12551,4 +12619,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="11" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="3100" windowWidth="28800" windowHeight="16520"/>
+    <workbookView xWindow="33700" yWindow="1800" windowWidth="28800" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="1292">
   <si>
     <t>Key</t>
   </si>
@@ -3869,6 +3869,33 @@
   </si>
   <si>
     <t>10 measurements but only one repeatability reported</t>
+  </si>
+  <si>
+    <t>Measurements over two years, but only one repeatability</t>
+  </si>
+  <si>
+    <t>MEasurements before and after mating, but only one repeatability</t>
+  </si>
+  <si>
+    <t>Waiting for authors response, ready in principal</t>
+  </si>
+  <si>
+    <t>Probably data from the study one up, no repeated repeatabilities reported</t>
+  </si>
+  <si>
+    <t>Over two years but only one repeatability</t>
+  </si>
+  <si>
+    <t>Data availability statement says it should be there but isn't. Anyway, questionable whether social isolation is a behavioural trait.</t>
+  </si>
+  <si>
+    <t>No repeatability across time (rather two conditions but without possibility to disentangle the direction)</t>
+  </si>
+  <si>
+    <t>No repeatability across time (rather three conditions but without possibility to disentangle the direction)</t>
+  </si>
+  <si>
+    <t>No repeatability calculated</t>
   </si>
 </sst>
 </file>
@@ -4321,9 +4348,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB54" sqref="AB54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7552,270 +7579,297 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="6">
         <v>2017</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="6">
         <v>123</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="AB58" s="6" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="6">
         <v>2009</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="AB59" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="5">
         <v>2017</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="5">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="AB60" s="5" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="12">
         <v>2014</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="12">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="6">
         <v>2015</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="AB62" s="6" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="6">
         <v>2014</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="AB63" s="6" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="6">
         <v>2017</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="AB64" s="6" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="6">
         <v>2016</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="6">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="AB65" s="6" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="6">
         <v>1999</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="6">
         <v>57</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="AB66" s="6" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="6">
         <v>2003</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB67" s="6" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -7841,7 +7895,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>212</v>
       </c>
@@ -7867,7 +7921,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -7890,7 +7944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>222</v>
       </c>
@@ -7916,7 +7970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>228</v>
       </c>
@@ -7942,7 +7996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>234</v>
       </c>
@@ -7971,7 +8025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>241</v>
       </c>
@@ -7997,7 +8051,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>246</v>
       </c>
@@ -8023,7 +8077,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>251</v>
       </c>
@@ -8049,7 +8103,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>256</v>
       </c>
@@ -8075,7 +8129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>262</v>
       </c>
@@ -8101,7 +8155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>268</v>
       </c>
@@ -8127,7 +8181,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>273</v>
       </c>
@@ -12626,7 +12680,7 @@
   <dimension ref="C7:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33700" yWindow="1800" windowWidth="28800" windowHeight="16520"/>
+    <workbookView xWindow="30480" yWindow="980" windowWidth="34000" windowHeight="19240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="1292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1294">
   <si>
     <t>Key</t>
   </si>
@@ -3896,6 +3896,12 @@
   </si>
   <si>
     <t>No repeatability calculated</t>
+  </si>
+  <si>
+    <t>Only over few days and only one (or no) repeatability</t>
+  </si>
+  <si>
+    <t>Only one repeatability</t>
   </si>
 </sst>
 </file>
@@ -3987,7 +3993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3999,6 +4005,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4349,8 +4356,8 @@
   <dimension ref="A1:AB253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D67" sqref="D67"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A71" sqref="A71:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7130,58 +7137,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="11">
         <v>2015</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="11">
         <v>108</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="11" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="10">
         <v>2017</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="10">
         <v>86</v>
       </c>
     </row>
@@ -7269,29 +7276,29 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="11">
         <v>2017</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="11">
         <v>189</v>
       </c>
     </row>
@@ -7356,29 +7363,29 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="13">
         <v>2004</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="13">
         <v>57</v>
       </c>
     </row>
@@ -7411,58 +7418,58 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="13">
         <v>2013</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="13">
         <v>182</v>
       </c>
-      <c r="AB52" s="12" t="s">
+      <c r="AB52" s="13" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="13">
         <v>2013</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="13">
         <v>150</v>
       </c>
     </row>
@@ -7637,58 +7644,58 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="9">
         <v>2017</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="9">
         <v>123</v>
       </c>
-      <c r="AB60" s="5" t="s">
+      <c r="AB60" s="9" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="13">
         <v>2014</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="I61" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="13">
         <v>68</v>
       </c>
     </row>
@@ -7869,78 +7876,84 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="6">
         <v>2009</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="6">
         <v>118</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="AB68" s="6" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="6">
         <v>2016</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="6">
         <v>56</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="AB69" s="6" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="9">
         <v>2018</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="9">
         <v>72</v>
       </c>
     </row>
@@ -12706,15 +12719,15 @@
       <c r="C8" s="7"/>
       <c r="F8" s="6"/>
       <c r="J8" s="5"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30480" yWindow="980" windowWidth="34000" windowHeight="19240"/>
+    <workbookView xWindow="31740" yWindow="460" windowWidth="34000" windowHeight="19240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4357,7 +4357,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A71" sqref="A71:D71"/>
+      <selection pane="topRight" activeCell="A72" sqref="A72:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7957,29 +7957,29 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="9">
         <v>2013</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="9">
         <v>16</v>
       </c>
     </row>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31740" yWindow="460" windowWidth="34000" windowHeight="19240"/>
+    <workbookView xWindow="31800" yWindow="860" windowWidth="28800" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="1300">
   <si>
     <t>Key</t>
   </si>
@@ -3902,6 +3902,24 @@
   </si>
   <si>
     <t>Only one repeatability</t>
+  </si>
+  <si>
+    <t>Only one repeatability also measured over several weeks!!</t>
+  </si>
+  <si>
+    <t>No SEs given, check with Holger whether to simulated, meta_table is in R script</t>
+  </si>
+  <si>
+    <t>Only one repeatability reported</t>
+  </si>
+  <si>
+    <t>Different treatments and only one repeatability per treatment</t>
+  </si>
+  <si>
+    <t>Uncear whether truly longitudinal, maybe ask Holger? -- see script</t>
+  </si>
+  <si>
+    <t>Potentially useful, but no repeatabilities reported, only spearman correlations</t>
   </si>
 </sst>
 </file>
@@ -3925,7 +3943,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3980,6 +3998,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3993,7 +4017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4010,6 +4034,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4355,9 +4380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A72" sqref="A72:D72"/>
+      <selection pane="topRight" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7983,400 +8008,430 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="9">
         <v>2017</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="9">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>1999</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="AB73" s="2" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>2012</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="AB74" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>2018</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="AB75" s="2" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>2002</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="5">
         <v>2004</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="AB77" s="5" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>1991</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="AB78" s="2" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="9">
         <v>2012</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="9">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="9">
         <v>1999</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="9">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="9">
         <v>2015</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="9">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>2002</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="AB82" s="2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>2012</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="AB83" s="2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>2011</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="AB84" s="2" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="14">
         <v>2010</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="14">
         <v>23</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="AB85" s="14" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>2014</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB86" s="2" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>310</v>
       </c>
@@ -8402,7 +8457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>315</v>
       </c>
@@ -8428,7 +8483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>320</v>
       </c>
@@ -8454,7 +8509,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>325</v>
       </c>
@@ -8480,7 +8535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>331</v>
       </c>
@@ -8503,7 +8558,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>335</v>
       </c>
@@ -8526,7 +8581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>340</v>
       </c>
@@ -8552,7 +8607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>346</v>
       </c>
@@ -8578,7 +8633,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>351</v>
       </c>
@@ -8604,7 +8659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>356</v>
       </c>
@@ -12693,7 +12748,7 @@
   <dimension ref="C7:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="860" windowWidth="28800" windowHeight="16520"/>
+    <workbookView xWindow="33640" yWindow="460" windowWidth="27760" windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="1309">
   <si>
     <t>Key</t>
   </si>
@@ -3920,6 +3920,33 @@
   </si>
   <si>
     <t>Potentially useful, but no repeatabilities reported, only spearman correlations</t>
+  </si>
+  <si>
+    <t>Only spearman correlations, no SE and not the same individuals measured short / long-term</t>
+  </si>
+  <si>
+    <t>No repeatability</t>
+  </si>
+  <si>
+    <t>Data is there but no good codebook, to be figured out</t>
+  </si>
+  <si>
+    <t>Only two measurements of each test</t>
+  </si>
+  <si>
+    <t>Figure out with Holger</t>
+  </si>
+  <si>
+    <t>Only one repeatability / Handling stress behaviour?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most data in table and R script but time of measurements to be discussed with Holger // </t>
+  </si>
+  <si>
+    <t>Only one repeatability reported although useful data collected</t>
+  </si>
+  <si>
+    <t>Data is there, needs to be analyses</t>
   </si>
 </sst>
 </file>
@@ -3943,7 +3970,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3977,12 +4004,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4028,13 +4049,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4380,9 +4401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A87" sqref="A87"/>
+      <selection pane="topRight" activeCell="V113" sqref="V113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7162,58 +7183,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>2015</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="10">
         <v>108</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>2017</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>86</v>
       </c>
     </row>
@@ -7301,29 +7322,29 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>2017</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="10">
         <v>189</v>
       </c>
     </row>
@@ -7388,29 +7409,29 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+    <row r="50" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <v>2004</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="12">
         <v>57</v>
       </c>
     </row>
@@ -7443,58 +7464,58 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+    <row r="52" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="12">
         <v>2013</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="12">
         <v>182</v>
       </c>
-      <c r="AB52" s="13" t="s">
+      <c r="AB52" s="12" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+    <row r="53" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="12">
         <v>2013</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="12">
         <v>150</v>
       </c>
     </row>
@@ -7669,58 +7690,58 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>2017</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I60" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="8">
         <v>123</v>
       </c>
-      <c r="AB60" s="9" t="s">
+      <c r="AB60" s="8" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="61" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+    <row r="61" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="12">
         <v>2014</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="I61" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="12">
         <v>68</v>
       </c>
     </row>
@@ -7959,78 +7980,78 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
+    <row r="70" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>2018</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J70" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>2013</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I71" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="J71" s="9">
+      <c r="J71" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>2017</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I72" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J72" s="8">
         <v>95</v>
       </c>
     </row>
@@ -8208,81 +8229,81 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="79" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>2012</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="8">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+    <row r="80" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>1999</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="J80" s="9">
+      <c r="J80" s="8">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>2015</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J81" s="8">
         <v>109</v>
       </c>
     </row>
@@ -8373,32 +8394,32 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="85" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
+    <row r="85" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C85" s="14">
+      <c r="C85" s="13">
         <v>2010</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="I85" s="14" t="s">
+      <c r="I85" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J85" s="13">
         <v>23</v>
       </c>
-      <c r="AB85" s="14" t="s">
+      <c r="AB85" s="13" t="s">
         <v>1298</v>
       </c>
     </row>
@@ -8431,30 +8452,33 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="8">
         <v>1997</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="8">
         <v>54</v>
+      </c>
+      <c r="AB87" s="8" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
@@ -8509,313 +8533,343 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>2007</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
+      <c r="AB90" s="2" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="5">
         <v>2015</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="H91" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="J91" s="8">
+      <c r="J91" s="5">
         <v>282</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="AB91" s="5" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="6">
         <v>2018</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="AB92" s="6" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="13">
         <v>2014</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="13">
         <v>25</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="AB93" s="13" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="14">
         <v>2009</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="14">
         <v>115</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="AB94" s="14" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="8">
         <v>2010</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="96" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="13">
         <v>2015</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="13">
         <v>69</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="AB96" s="13" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>2015</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="AB97" s="2" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <v>2009</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="AB98" s="2" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <v>2011</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="2">
         <v>131</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="AB99" s="2" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="8">
         <v>2014</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="8">
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="5">
         <v>2017</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB101" s="5" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>384</v>
       </c>
@@ -8838,7 +8892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>392</v>
       </c>
@@ -8864,7 +8918,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>397</v>
       </c>
@@ -8887,7 +8941,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>403</v>
       </c>
@@ -8913,7 +8967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>408</v>
       </c>
@@ -8942,7 +8996,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>415</v>
       </c>
@@ -8968,7 +9022,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>420</v>
       </c>
@@ -8994,7 +9048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>425</v>
       </c>
@@ -9020,7 +9074,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>431</v>
       </c>
@@ -9046,7 +9100,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>436</v>
       </c>
@@ -9072,7 +9126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>441</v>
       </c>
@@ -12774,15 +12828,15 @@
       <c r="C8" s="7"/>
       <c r="F8" s="6"/>
       <c r="J8" s="5"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C11" s="11"/>
+      <c r="C11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -1213,9 +1213,6 @@
     <t>6GYLQSZ7</t>
   </si>
   <si>
-    <t>Grace, Jacquelyn K.; Anderson, David J.; Greggor, Alison L.; Jolles, Jolle W.; Thornton, Alex; Clayton, Nicola S.</t>
-  </si>
-  <si>
     <t>seasonal changes in neophobia and its consistency in rooks: the effect of novelty type and dominance position</t>
   </si>
   <si>
@@ -3947,6 +3944,9 @@
   </si>
   <si>
     <t>Data is there, needs to be analyses</t>
+  </si>
+  <si>
+    <t>Greggor, Alison L.; Jolles, Jolle W.; Thornton, Alex; Clayton, Nicola S.</t>
   </si>
 </sst>
 </file>
@@ -4401,9 +4401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V113" sqref="V113"/>
+      <selection pane="topRight" activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4456,10 +4456,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -4559,7 +4559,7 @@
         <v>134</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L3" s="2">
         <v>22</v>
@@ -4574,15 +4574,15 @@
         <v>0</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -4603,7 +4603,7 @@
         <v>281</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L4" s="2">
         <v>69</v>
@@ -4612,7 +4612,7 @@
         <v>2</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4641,10 +4641,10 @@
         <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -4699,7 +4699,7 @@
         <v>123</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L7" s="3">
         <v>96</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="O7" s="3">
         <v>1</v>
@@ -4717,25 +4717,25 @@
         <v>2</v>
       </c>
       <c r="Q7" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>1194</v>
-      </c>
       <c r="T7" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>1223</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>1224</v>
       </c>
       <c r="Y7" s="3">
         <v>844</v>
@@ -4747,7 +4747,7 @@
         <v>190</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4776,7 +4776,7 @@
         <v>123</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L8" s="3">
         <v>48</v>
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -4794,23 +4794,23 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>1226</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>1227</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>1228</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>1229</v>
       </c>
       <c r="Y8" s="3">
         <v>1034</v>
@@ -4848,7 +4848,7 @@
         <v>123</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L9" s="3">
         <v>48</v>
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="O9" s="3">
         <v>1</v>
@@ -4866,22 +4866,22 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T9" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>1231</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>1232</v>
       </c>
       <c r="Y9" s="3">
         <v>844</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L10" s="3">
         <v>48</v>
@@ -4928,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
@@ -4937,22 +4937,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>1233</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>1234</v>
       </c>
       <c r="Y10" s="3">
         <v>1034</v>
@@ -4990,7 +4990,7 @@
         <v>123</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L11" s="3">
         <v>48</v>
@@ -4999,7 +4999,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
@@ -5008,22 +5008,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Y11" s="3">
         <v>844</v>
@@ -5061,7 +5061,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L12" s="3">
         <v>96</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O12" s="3">
         <v>1</v>
@@ -5079,25 +5079,25 @@
         <v>2</v>
       </c>
       <c r="Q12" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>1194</v>
-      </c>
       <c r="T12" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>1220</v>
-      </c>
       <c r="W12" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Y12" s="3">
         <v>844</v>
@@ -5135,7 +5135,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L13" s="3">
         <v>48</v>
@@ -5144,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O13" s="3">
         <v>1</v>
@@ -5153,22 +5153,22 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T13" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>1237</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>1238</v>
       </c>
       <c r="Y13" s="3">
         <v>1034</v>
@@ -5206,7 +5206,7 @@
         <v>123</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L14" s="3">
         <v>48</v>
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
@@ -5224,22 +5224,22 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T14" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>1240</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>1241</v>
       </c>
       <c r="Y14" s="3">
         <v>844</v>
@@ -5277,7 +5277,7 @@
         <v>123</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L15" s="3">
         <v>48</v>
@@ -5286,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O15" s="3">
         <v>1</v>
@@ -5295,22 +5295,22 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T15" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>1233</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>1234</v>
       </c>
       <c r="Y15" s="3">
         <v>1034</v>
@@ -5348,7 +5348,7 @@
         <v>123</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L16" s="3">
         <v>48</v>
@@ -5357,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O16" s="3">
         <v>1</v>
@@ -5366,22 +5366,22 @@
         <v>0</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T16" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="V16" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>1240</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>1241</v>
       </c>
       <c r="Y16" s="3">
         <v>844</v>
@@ -5419,7 +5419,7 @@
         <v>123</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L17" s="3">
         <v>96</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="O17" s="3">
         <v>1</v>
@@ -5437,25 +5437,25 @@
         <v>2</v>
       </c>
       <c r="Q17" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>1194</v>
-      </c>
       <c r="T17" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>1215</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>1216</v>
       </c>
       <c r="Y17" s="3">
         <v>844</v>
@@ -5493,7 +5493,7 @@
         <v>123</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L18" s="3">
         <v>48</v>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="O18" s="3">
         <v>1</v>
@@ -5511,22 +5511,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T18" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>1243</v>
-      </c>
       <c r="W18" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="Y18" s="3">
         <v>1034</v>
@@ -5564,7 +5564,7 @@
         <v>123</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L19" s="3">
         <v>48</v>
@@ -5573,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="O19" s="3">
         <v>1</v>
@@ -5582,22 +5582,22 @@
         <v>0</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T19" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>1245</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>1246</v>
       </c>
       <c r="Y19" s="3">
         <v>844</v>
@@ -5635,7 +5635,7 @@
         <v>123</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L20" s="3">
         <v>48</v>
@@ -5644,7 +5644,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="O20" s="3">
         <v>1</v>
@@ -5653,22 +5653,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="Y20" s="3">
         <v>1034</v>
@@ -5706,7 +5706,7 @@
         <v>123</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L21" s="3">
         <v>48</v>
@@ -5715,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="O21" s="3">
         <v>1</v>
@@ -5724,22 +5724,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="V21" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>1248</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>1249</v>
       </c>
       <c r="Y21" s="3">
         <v>844</v>
@@ -5777,7 +5777,7 @@
         <v>123</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L22" s="3">
         <v>96</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="O22" s="3">
         <v>1</v>
@@ -5795,25 +5795,25 @@
         <v>2</v>
       </c>
       <c r="Q22" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>1194</v>
-      </c>
       <c r="T22" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="V22" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>1210</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>1211</v>
       </c>
       <c r="Y22" s="3">
         <v>844</v>
@@ -5851,7 +5851,7 @@
         <v>123</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L23" s="3">
         <v>48</v>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="O23" s="3">
         <v>1</v>
@@ -5869,22 +5869,22 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Y23" s="3">
         <v>1034</v>
@@ -5922,7 +5922,7 @@
         <v>123</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L24" s="3">
         <v>48</v>
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="O24" s="3">
         <v>1</v>
@@ -5940,22 +5940,22 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="Y24" s="3">
         <v>844</v>
@@ -5993,7 +5993,7 @@
         <v>123</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L25" s="3">
         <v>48</v>
@@ -6002,7 +6002,7 @@
         <v>2</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="O25" s="3">
         <v>1</v>
@@ -6011,22 +6011,22 @@
         <v>0</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Y25" s="3">
         <v>1034</v>
@@ -6064,7 +6064,7 @@
         <v>123</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L26" s="3">
         <v>48</v>
@@ -6073,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="O26" s="3">
         <v>1</v>
@@ -6082,22 +6082,22 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T26" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="Y26" s="3">
         <v>844</v>
@@ -6135,7 +6135,7 @@
         <v>123</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L27" s="3">
         <v>96</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="O27" s="3">
         <v>1</v>
@@ -6153,25 +6153,25 @@
         <v>2</v>
       </c>
       <c r="Q27" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S27" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>1194</v>
-      </c>
       <c r="T27" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V27" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="W27" s="3" t="s">
         <v>1206</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>1207</v>
       </c>
       <c r="Y27" s="3">
         <v>844</v>
@@ -6209,7 +6209,7 @@
         <v>123</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L28" s="3">
         <v>48</v>
@@ -6218,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="O28" s="3">
         <v>1</v>
@@ -6227,22 +6227,22 @@
         <v>0</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Y28" s="3">
         <v>1034</v>
@@ -6280,7 +6280,7 @@
         <v>123</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L29" s="3">
         <v>48</v>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="O29" s="3">
         <v>1</v>
@@ -6298,22 +6298,22 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="V29" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>1256</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>1257</v>
       </c>
       <c r="Y29" s="3">
         <v>844</v>
@@ -6351,7 +6351,7 @@
         <v>123</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L30" s="3">
         <v>48</v>
@@ -6360,7 +6360,7 @@
         <v>2</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="O30" s="3">
         <v>1</v>
@@ -6369,22 +6369,22 @@
         <v>0</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Y30" s="3">
         <v>1034</v>
@@ -6422,7 +6422,7 @@
         <v>123</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L31" s="3">
         <v>48</v>
@@ -6431,7 +6431,7 @@
         <v>2</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="O31" s="3">
         <v>1</v>
@@ -6440,22 +6440,22 @@
         <v>0</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Y31" s="3">
         <v>844</v>
@@ -6493,7 +6493,7 @@
         <v>123</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L32" s="3">
         <v>96</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="O32" s="3">
         <v>1</v>
@@ -6511,25 +6511,25 @@
         <v>2</v>
       </c>
       <c r="Q32" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>1194</v>
-      </c>
       <c r="T32" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>1204</v>
-      </c>
-      <c r="V32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>1202</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>1203</v>
       </c>
       <c r="Y32" s="3">
         <v>844</v>
@@ -6567,7 +6567,7 @@
         <v>123</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L33" s="3">
         <v>48</v>
@@ -6576,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="O33" s="3">
         <v>1</v>
@@ -6585,22 +6585,22 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T33" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="V33" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>1260</v>
-      </c>
       <c r="W33" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="Y33" s="3">
         <v>1034</v>
@@ -6638,7 +6638,7 @@
         <v>123</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L34" s="3">
         <v>48</v>
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="O34" s="3">
         <v>1</v>
@@ -6656,22 +6656,22 @@
         <v>0</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Y34" s="3">
         <v>844</v>
@@ -6709,7 +6709,7 @@
         <v>123</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L35" s="3">
         <v>48</v>
@@ -6718,7 +6718,7 @@
         <v>2</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="O35" s="3">
         <v>1</v>
@@ -6727,22 +6727,22 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="V35" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>1227</v>
-      </c>
       <c r="W35" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Y35" s="3">
         <v>1034</v>
@@ -6780,7 +6780,7 @@
         <v>123</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L36" s="3">
         <v>48</v>
@@ -6789,7 +6789,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="O36" s="3">
         <v>1</v>
@@ -6798,22 +6798,22 @@
         <v>0</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Y36" s="3">
         <v>844</v>
@@ -6851,7 +6851,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L37" s="3">
         <v>96</v>
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O37" s="3">
         <v>1</v>
@@ -6869,25 +6869,25 @@
         <v>2</v>
       </c>
       <c r="Q37" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S37" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="R37" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>1194</v>
-      </c>
       <c r="T37" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="V37" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="U37" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="V37" s="3" t="s">
+      <c r="W37" s="3" t="s">
         <v>1197</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>1198</v>
       </c>
       <c r="Y37" s="3">
         <v>844</v>
@@ -6925,7 +6925,7 @@
         <v>123</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L38" s="3">
         <v>48</v>
@@ -6934,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O38" s="3">
         <v>1</v>
@@ -6943,22 +6943,22 @@
         <v>0</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="V38" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="W38" s="3" t="s">
         <v>1263</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>1264</v>
       </c>
       <c r="Y38" s="3">
         <v>1034</v>
@@ -6996,7 +6996,7 @@
         <v>123</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L39" s="3">
         <v>48</v>
@@ -7005,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O39" s="3">
         <v>1</v>
@@ -7014,22 +7014,22 @@
         <v>0</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Y39" s="3">
         <v>844</v>
@@ -7067,7 +7067,7 @@
         <v>123</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L40" s="3">
         <v>48</v>
@@ -7076,7 +7076,7 @@
         <v>2</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O40" s="3">
         <v>1</v>
@@ -7085,22 +7085,22 @@
         <v>0</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="Y40" s="3">
         <v>1034</v>
@@ -7138,7 +7138,7 @@
         <v>123</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L41" s="3">
         <v>48</v>
@@ -7147,7 +7147,7 @@
         <v>2</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O41" s="3">
         <v>1</v>
@@ -7156,22 +7156,22 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Y41" s="3">
         <v>844</v>
@@ -7209,7 +7209,7 @@
         <v>108</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7264,7 +7264,7 @@
         <v>65</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
         <v>8</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -7374,7 +7374,7 @@
         <v>136</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7406,7 +7406,7 @@
         <v>105</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7461,7 +7461,7 @@
         <v>8</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7490,7 +7490,7 @@
         <v>182</v>
       </c>
       <c r="AB52" s="12" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="53" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7545,7 +7545,7 @@
         <v>6</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -7574,7 +7574,7 @@
         <v>279</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7603,7 +7603,7 @@
         <v>123</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
@@ -7658,7 +7658,7 @@
         <v>123</v>
       </c>
       <c r="AB58" s="6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="59" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7687,7 +7687,7 @@
         <v>34</v>
       </c>
       <c r="AB59" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="60" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -7716,7 +7716,7 @@
         <v>123</v>
       </c>
       <c r="AB60" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7771,7 +7771,7 @@
         <v>5</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="63" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7800,7 +7800,7 @@
         <v>35</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="64" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7829,7 +7829,7 @@
         <v>7</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="65" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7858,7 +7858,7 @@
         <v>62</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="66" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7890,7 +7890,7 @@
         <v>57</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="67" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7919,7 +7919,7 @@
         <v>48</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="68" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7948,7 +7948,7 @@
         <v>118</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="69" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7977,7 +7977,7 @@
         <v>56</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="70" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8084,7 +8084,7 @@
         <v>18</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="74" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8113,7 +8113,7 @@
         <v>83</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="75" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8142,7 +8142,7 @@
         <v>135</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="76" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8197,7 +8197,7 @@
         <v>30</v>
       </c>
       <c r="AB77" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="78" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8226,7 +8226,7 @@
         <v>23</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8333,7 +8333,7 @@
         <v>64</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="83" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8362,7 +8362,7 @@
         <v>37</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8391,7 +8391,7 @@
         <v>79</v>
       </c>
       <c r="AB84" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="85" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8420,7 +8420,7 @@
         <v>23</v>
       </c>
       <c r="AB85" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="86" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8449,7 +8449,7 @@
         <v>157</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="87" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8478,7 +8478,7 @@
         <v>54</v>
       </c>
       <c r="AB87" s="8" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
@@ -8559,7 +8559,7 @@
         <v>21</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="91" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -8585,7 +8585,7 @@
         <v>282</v>
       </c>
       <c r="AB91" s="5" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="92" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8611,7 +8611,7 @@
         <v>13</v>
       </c>
       <c r="AB92" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="93" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8640,7 +8640,7 @@
         <v>25</v>
       </c>
       <c r="AB93" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="94" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -8669,7 +8669,7 @@
         <v>115</v>
       </c>
       <c r="AB94" s="14" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="95" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8727,7 +8727,7 @@
         <v>69</v>
       </c>
       <c r="AB96" s="13" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="97" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8756,7 +8756,7 @@
         <v>152</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="98" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8785,7 +8785,7 @@
         <v>116</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="99" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8814,7 +8814,7 @@
         <v>131</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="100" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8866,7 +8866,7 @@
         <v>12</v>
       </c>
       <c r="AB101" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
@@ -8892,76 +8892,79 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="103" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="8">
         <v>2014</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="8">
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="104" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C104" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="B104" t="s">
-        <v>396</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E104" t="s">
+      <c r="H104" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="I104" t="s">
-        <v>401</v>
-      </c>
-      <c r="J104">
+      <c r="J104" s="8">
         <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B105" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C105">
         <v>2013</v>
       </c>
       <c r="D105" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E105" t="s">
         <v>342</v>
       </c>
       <c r="H105" t="s">
+        <v>404</v>
+      </c>
+      <c r="I105" t="s">
         <v>405</v>
-      </c>
-      <c r="I105" t="s">
-        <v>406</v>
       </c>
       <c r="J105">
         <v>24</v>
@@ -8969,28 +8972,28 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B106" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C106">
         <v>2018</v>
       </c>
       <c r="D106" t="s">
+        <v>408</v>
+      </c>
+      <c r="E106" t="s">
         <v>409</v>
       </c>
-      <c r="E106" t="s">
+      <c r="G106" t="s">
         <v>410</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>411</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>412</v>
-      </c>
-      <c r="I106" t="s">
-        <v>413</v>
       </c>
       <c r="J106">
         <v>103</v>
@@ -8998,25 +9001,25 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C107">
         <v>2016</v>
       </c>
       <c r="D107" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E107" t="s">
         <v>126</v>
       </c>
       <c r="H107" t="s">
+        <v>416</v>
+      </c>
+      <c r="I107" t="s">
         <v>417</v>
-      </c>
-      <c r="I107" t="s">
-        <v>418</v>
       </c>
       <c r="J107">
         <v>153</v>
@@ -9024,25 +9027,25 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B108" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C108">
         <v>2013</v>
       </c>
       <c r="D108" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E108" t="s">
         <v>264</v>
       </c>
       <c r="H108" t="s">
+        <v>421</v>
+      </c>
+      <c r="I108" t="s">
         <v>422</v>
-      </c>
-      <c r="I108" t="s">
-        <v>423</v>
       </c>
       <c r="J108">
         <v>100</v>
@@ -9050,25 +9053,25 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B109" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C109">
         <v>2001</v>
       </c>
       <c r="D109" t="s">
+        <v>425</v>
+      </c>
+      <c r="E109" t="s">
         <v>426</v>
       </c>
-      <c r="E109" t="s">
+      <c r="H109" t="s">
         <v>427</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>428</v>
-      </c>
-      <c r="I109" t="s">
-        <v>429</v>
       </c>
       <c r="J109">
         <v>224</v>
@@ -9076,25 +9079,25 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B110" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C110">
         <v>2012</v>
       </c>
       <c r="D110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E110" t="s">
         <v>126</v>
       </c>
       <c r="H110" t="s">
+        <v>432</v>
+      </c>
+      <c r="I110" t="s">
         <v>433</v>
-      </c>
-      <c r="I110" t="s">
-        <v>434</v>
       </c>
       <c r="J110">
         <v>149</v>
@@ -9102,25 +9105,25 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B111" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C111">
         <v>2015</v>
       </c>
       <c r="D111" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E111" t="s">
         <v>342</v>
       </c>
       <c r="H111" t="s">
+        <v>437</v>
+      </c>
+      <c r="I111" t="s">
         <v>438</v>
-      </c>
-      <c r="I111" t="s">
-        <v>439</v>
       </c>
       <c r="J111">
         <v>26</v>
@@ -9128,25 +9131,25 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C112">
         <v>2012</v>
       </c>
       <c r="D112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E112" t="s">
         <v>45</v>
       </c>
       <c r="H112" t="s">
+        <v>442</v>
+      </c>
+      <c r="I112" t="s">
         <v>443</v>
-      </c>
-      <c r="I112" t="s">
-        <v>444</v>
       </c>
       <c r="J112">
         <v>66</v>
@@ -9154,25 +9157,25 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C113">
         <v>2010</v>
       </c>
       <c r="D113" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E113" t="s">
         <v>63</v>
       </c>
       <c r="H113" t="s">
+        <v>447</v>
+      </c>
+      <c r="I113" t="s">
         <v>448</v>
-      </c>
-      <c r="I113" t="s">
-        <v>449</v>
       </c>
       <c r="J113">
         <v>79</v>
@@ -9180,22 +9183,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B114" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C114">
         <v>2013</v>
       </c>
       <c r="D114" t="s">
+        <v>451</v>
+      </c>
+      <c r="E114" t="s">
         <v>452</v>
       </c>
-      <c r="E114" t="s">
+      <c r="H114" t="s">
         <v>453</v>
-      </c>
-      <c r="H114" t="s">
-        <v>454</v>
       </c>
       <c r="J114">
         <v>13</v>
@@ -9203,25 +9206,25 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B115" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C115">
         <v>2017</v>
       </c>
       <c r="D115" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E115" t="s">
         <v>342</v>
       </c>
       <c r="H115" t="s">
+        <v>457</v>
+      </c>
+      <c r="I115" t="s">
         <v>458</v>
-      </c>
-      <c r="I115" t="s">
-        <v>459</v>
       </c>
       <c r="J115">
         <v>28</v>
@@ -9229,22 +9232,22 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B116" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C116">
         <v>2017</v>
       </c>
       <c r="D116" t="s">
+        <v>461</v>
+      </c>
+      <c r="E116" t="s">
         <v>462</v>
       </c>
-      <c r="E116" t="s">
+      <c r="H116" t="s">
         <v>463</v>
-      </c>
-      <c r="H116" t="s">
-        <v>464</v>
       </c>
       <c r="J116">
         <v>8</v>
@@ -9252,25 +9255,25 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C117">
         <v>2017</v>
       </c>
       <c r="D117" t="s">
+        <v>466</v>
+      </c>
+      <c r="E117" t="s">
         <v>467</v>
       </c>
-      <c r="E117" t="s">
+      <c r="H117" t="s">
         <v>468</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>469</v>
-      </c>
-      <c r="I117" t="s">
-        <v>470</v>
       </c>
       <c r="J117">
         <v>35</v>
@@ -9278,22 +9281,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B118" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C118">
         <v>2014</v>
       </c>
       <c r="D118" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E118" t="s">
         <v>337</v>
       </c>
       <c r="H118" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J118">
         <v>9</v>
@@ -9301,25 +9304,25 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C119">
         <v>2013</v>
       </c>
       <c r="D119" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E119" t="s">
         <v>35</v>
       </c>
       <c r="H119" t="s">
+        <v>477</v>
+      </c>
+      <c r="I119" t="s">
         <v>478</v>
-      </c>
-      <c r="I119" t="s">
-        <v>479</v>
       </c>
       <c r="J119">
         <v>146</v>
@@ -9327,22 +9330,22 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B120" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C120">
         <v>2017</v>
       </c>
       <c r="D120" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E120" t="s">
         <v>138</v>
       </c>
       <c r="H120" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J120">
         <v>284</v>
@@ -9350,25 +9353,25 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B121" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C121">
         <v>2018</v>
       </c>
       <c r="D121" t="s">
+        <v>485</v>
+      </c>
+      <c r="E121" t="s">
         <v>486</v>
       </c>
-      <c r="E121" t="s">
+      <c r="H121" t="s">
         <v>487</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>488</v>
-      </c>
-      <c r="I121" t="s">
-        <v>489</v>
       </c>
       <c r="J121">
         <v>329</v>
@@ -9376,22 +9379,22 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B122" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C122">
         <v>2009</v>
       </c>
       <c r="D122" t="s">
+        <v>491</v>
+      </c>
+      <c r="E122" t="s">
         <v>492</v>
       </c>
-      <c r="E122" t="s">
+      <c r="I122" t="s">
         <v>493</v>
-      </c>
-      <c r="I122" t="s">
-        <v>494</v>
       </c>
       <c r="J122">
         <v>57</v>
@@ -9399,22 +9402,22 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B123" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C123">
         <v>2017</v>
       </c>
       <c r="D123" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E123" t="s">
         <v>337</v>
       </c>
       <c r="H123" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J123">
         <v>12</v>
@@ -9422,22 +9425,22 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B124" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C124">
         <v>2015</v>
       </c>
       <c r="D124" t="s">
+        <v>500</v>
+      </c>
+      <c r="E124" t="s">
         <v>501</v>
       </c>
-      <c r="E124" t="s">
+      <c r="H124" t="s">
         <v>502</v>
-      </c>
-      <c r="H124" t="s">
-        <v>503</v>
       </c>
       <c r="J124">
         <v>12</v>
@@ -9445,22 +9448,22 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B125" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C125">
         <v>2017</v>
       </c>
       <c r="D125" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E125" t="s">
         <v>45</v>
       </c>
       <c r="H125" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J125">
         <v>71</v>
@@ -9468,25 +9471,25 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B126" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C126">
         <v>2003</v>
       </c>
       <c r="D126" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E126" t="s">
         <v>35</v>
       </c>
       <c r="H126" t="s">
+        <v>510</v>
+      </c>
+      <c r="I126" t="s">
         <v>511</v>
-      </c>
-      <c r="I126" t="s">
-        <v>512</v>
       </c>
       <c r="J126">
         <v>82</v>
@@ -9494,25 +9497,25 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B127" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C127">
         <v>2003</v>
       </c>
       <c r="D127" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E127" t="s">
         <v>35</v>
       </c>
       <c r="H127" t="s">
+        <v>515</v>
+      </c>
+      <c r="I127" t="s">
         <v>516</v>
-      </c>
-      <c r="I127" t="s">
-        <v>517</v>
       </c>
       <c r="J127">
         <v>81</v>
@@ -9520,25 +9523,25 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B128" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C128">
         <v>2013</v>
       </c>
       <c r="D128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E128" t="s">
         <v>63</v>
       </c>
       <c r="H128" t="s">
+        <v>520</v>
+      </c>
+      <c r="I128" t="s">
         <v>521</v>
-      </c>
-      <c r="I128" t="s">
-        <v>522</v>
       </c>
       <c r="J128">
         <v>86</v>
@@ -9546,25 +9549,25 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B129" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C129">
         <v>2018</v>
       </c>
       <c r="D129" t="s">
+        <v>524</v>
+      </c>
+      <c r="E129" t="s">
         <v>525</v>
       </c>
-      <c r="E129" t="s">
+      <c r="H129" t="s">
         <v>526</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>527</v>
-      </c>
-      <c r="I129" t="s">
-        <v>528</v>
       </c>
       <c r="J129">
         <v>27</v>
@@ -9572,25 +9575,25 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B130" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C130">
         <v>2016</v>
       </c>
       <c r="D130" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E130" t="s">
         <v>35</v>
       </c>
       <c r="H130" t="s">
+        <v>531</v>
+      </c>
+      <c r="I130" t="s">
         <v>532</v>
-      </c>
-      <c r="I130" t="s">
-        <v>533</v>
       </c>
       <c r="J130">
         <v>174</v>
@@ -9598,25 +9601,25 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B131" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C131">
         <v>2006</v>
       </c>
       <c r="D131" t="s">
+        <v>535</v>
+      </c>
+      <c r="E131" t="s">
         <v>536</v>
       </c>
-      <c r="E131" t="s">
+      <c r="H131" t="s">
         <v>537</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>538</v>
-      </c>
-      <c r="I131" t="s">
-        <v>539</v>
       </c>
       <c r="J131">
         <v>57</v>
@@ -9624,25 +9627,25 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B132" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C132">
         <v>2014</v>
       </c>
       <c r="D132" t="s">
+        <v>541</v>
+      </c>
+      <c r="E132" t="s">
         <v>542</v>
       </c>
-      <c r="E132" t="s">
+      <c r="H132" t="s">
         <v>543</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>544</v>
-      </c>
-      <c r="I132" t="s">
-        <v>545</v>
       </c>
       <c r="J132">
         <v>49</v>
@@ -9650,22 +9653,22 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B133" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C133">
         <v>2017</v>
       </c>
       <c r="D133" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E133" t="s">
         <v>138</v>
       </c>
       <c r="H133" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J133">
         <v>284</v>
@@ -9673,25 +9676,25 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B134" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C134">
         <v>2012</v>
       </c>
       <c r="D134" t="s">
+        <v>551</v>
+      </c>
+      <c r="E134" t="s">
         <v>552</v>
       </c>
-      <c r="E134" t="s">
+      <c r="H134" t="s">
         <v>553</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>554</v>
-      </c>
-      <c r="I134" t="s">
-        <v>555</v>
       </c>
       <c r="J134">
         <v>114</v>
@@ -9699,25 +9702,25 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B135" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C135">
         <v>1998</v>
       </c>
       <c r="D135" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E135" t="s">
         <v>35</v>
       </c>
       <c r="H135" t="s">
+        <v>558</v>
+      </c>
+      <c r="I135" t="s">
         <v>559</v>
-      </c>
-      <c r="I135" t="s">
-        <v>560</v>
       </c>
       <c r="J135">
         <v>57</v>
@@ -9725,25 +9728,25 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B136" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C136">
         <v>2018</v>
       </c>
       <c r="D136" t="s">
+        <v>562</v>
+      </c>
+      <c r="E136" t="s">
         <v>563</v>
       </c>
-      <c r="E136" t="s">
+      <c r="H136" t="s">
         <v>564</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>565</v>
-      </c>
-      <c r="I136" t="s">
-        <v>566</v>
       </c>
       <c r="J136">
         <v>31</v>
@@ -9751,25 +9754,25 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B137" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C137">
         <v>2012</v>
       </c>
       <c r="D137" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E137" t="s">
         <v>63</v>
       </c>
       <c r="H137" t="s">
+        <v>569</v>
+      </c>
+      <c r="I137" t="s">
         <v>570</v>
-      </c>
-      <c r="I137" t="s">
-        <v>571</v>
       </c>
       <c r="J137">
         <v>84</v>
@@ -9777,25 +9780,25 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B138" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C138">
         <v>2013</v>
       </c>
       <c r="D138" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E138" t="s">
         <v>342</v>
       </c>
       <c r="H138" t="s">
+        <v>574</v>
+      </c>
+      <c r="I138" t="s">
         <v>575</v>
-      </c>
-      <c r="I138" t="s">
-        <v>576</v>
       </c>
       <c r="J138">
         <v>24</v>
@@ -9803,16 +9806,16 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B139" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C139">
         <v>2013</v>
       </c>
       <c r="D139" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E139" t="s">
         <v>358</v>
@@ -9821,10 +9824,10 @@
         <v>359</v>
       </c>
       <c r="H139" t="s">
+        <v>579</v>
+      </c>
+      <c r="I139" t="s">
         <v>580</v>
-      </c>
-      <c r="I139" t="s">
-        <v>581</v>
       </c>
       <c r="J139">
         <v>68</v>
@@ -9832,28 +9835,28 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B140" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C140">
         <v>2012</v>
       </c>
       <c r="D140" t="s">
+        <v>583</v>
+      </c>
+      <c r="E140" t="s">
         <v>584</v>
       </c>
-      <c r="E140" t="s">
+      <c r="G140" t="s">
         <v>585</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>586</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>587</v>
-      </c>
-      <c r="I140" t="s">
-        <v>588</v>
       </c>
       <c r="J140">
         <v>139</v>
@@ -9861,25 +9864,25 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B141" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C141">
         <v>2011</v>
       </c>
       <c r="D141" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E141" t="s">
         <v>51</v>
       </c>
       <c r="H141" t="s">
+        <v>591</v>
+      </c>
+      <c r="I141" t="s">
         <v>592</v>
-      </c>
-      <c r="I141" t="s">
-        <v>593</v>
       </c>
       <c r="J141">
         <v>165</v>
@@ -9887,25 +9890,25 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B142" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C142">
         <v>2014</v>
       </c>
       <c r="D142" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E142" t="s">
         <v>45</v>
       </c>
       <c r="H142" t="s">
+        <v>596</v>
+      </c>
+      <c r="I142" t="s">
         <v>597</v>
-      </c>
-      <c r="I142" t="s">
-        <v>598</v>
       </c>
       <c r="J142">
         <v>68</v>
@@ -9913,25 +9916,25 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B143" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C143">
         <v>2011</v>
       </c>
       <c r="D143" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E143" t="s">
         <v>45</v>
       </c>
       <c r="H143" t="s">
+        <v>601</v>
+      </c>
+      <c r="I143" t="s">
         <v>602</v>
-      </c>
-      <c r="I143" t="s">
-        <v>603</v>
       </c>
       <c r="J143">
         <v>65</v>
@@ -9939,25 +9942,25 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B144" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C144">
         <v>2016</v>
       </c>
       <c r="D144" t="s">
+        <v>605</v>
+      </c>
+      <c r="E144" t="s">
         <v>606</v>
       </c>
-      <c r="E144" t="s">
+      <c r="G144" t="s">
         <v>607</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>608</v>
-      </c>
-      <c r="H144" t="s">
-        <v>609</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -9965,25 +9968,25 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B145" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C145">
         <v>1996</v>
       </c>
       <c r="D145" t="s">
+        <v>611</v>
+      </c>
+      <c r="E145" t="s">
         <v>612</v>
       </c>
-      <c r="E145" t="s">
+      <c r="H145" t="s">
         <v>613</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>614</v>
-      </c>
-      <c r="I145" t="s">
-        <v>615</v>
       </c>
       <c r="J145">
         <v>27</v>
@@ -9991,25 +9994,25 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B146" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C146">
         <v>2015</v>
       </c>
       <c r="D146" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E146" t="s">
         <v>342</v>
       </c>
       <c r="H146" t="s">
+        <v>618</v>
+      </c>
+      <c r="I146" t="s">
         <v>619</v>
-      </c>
-      <c r="I146" t="s">
-        <v>620</v>
       </c>
       <c r="J146">
         <v>26</v>
@@ -10017,25 +10020,25 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B147" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C147">
         <v>2016</v>
       </c>
       <c r="D147" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E147" t="s">
         <v>51</v>
       </c>
       <c r="H147" t="s">
+        <v>623</v>
+      </c>
+      <c r="I147" t="s">
         <v>624</v>
-      </c>
-      <c r="I147" t="s">
-        <v>625</v>
       </c>
       <c r="J147">
         <v>180</v>
@@ -10043,25 +10046,25 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B148" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C148">
         <v>2017</v>
       </c>
       <c r="D148" t="s">
+        <v>627</v>
+      </c>
+      <c r="E148" t="s">
         <v>628</v>
       </c>
-      <c r="E148" t="s">
+      <c r="H148" t="s">
         <v>629</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>630</v>
-      </c>
-      <c r="I148" t="s">
-        <v>631</v>
       </c>
       <c r="J148">
         <v>220</v>
@@ -10069,25 +10072,25 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B149" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C149">
         <v>2012</v>
       </c>
       <c r="D149" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E149" t="s">
         <v>342</v>
       </c>
       <c r="H149" t="s">
+        <v>634</v>
+      </c>
+      <c r="I149" t="s">
         <v>635</v>
-      </c>
-      <c r="I149" t="s">
-        <v>636</v>
       </c>
       <c r="J149">
         <v>23</v>
@@ -10095,25 +10098,25 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B150" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C150">
         <v>2013</v>
       </c>
       <c r="D150" t="s">
+        <v>638</v>
+      </c>
+      <c r="E150" t="s">
         <v>639</v>
       </c>
-      <c r="E150" t="s">
+      <c r="H150" t="s">
         <v>640</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>641</v>
-      </c>
-      <c r="I150" t="s">
-        <v>642</v>
       </c>
       <c r="J150">
         <v>91</v>
@@ -10121,25 +10124,25 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B151" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C151">
         <v>2005</v>
       </c>
       <c r="D151" t="s">
+        <v>644</v>
+      </c>
+      <c r="E151" t="s">
         <v>645</v>
       </c>
-      <c r="E151" t="s">
+      <c r="H151" t="s">
         <v>646</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>647</v>
-      </c>
-      <c r="I151" t="s">
-        <v>648</v>
       </c>
       <c r="J151">
         <v>36</v>
@@ -10147,25 +10150,25 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B152" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C152">
         <v>2011</v>
       </c>
       <c r="D152" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E152" t="s">
         <v>35</v>
       </c>
       <c r="H152" t="s">
+        <v>651</v>
+      </c>
+      <c r="I152" t="s">
         <v>652</v>
-      </c>
-      <c r="I152" t="s">
-        <v>653</v>
       </c>
       <c r="J152">
         <v>133</v>
@@ -10173,28 +10176,28 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B153" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C153">
         <v>2018</v>
       </c>
       <c r="D153" t="s">
+        <v>655</v>
+      </c>
+      <c r="E153" t="s">
         <v>656</v>
       </c>
-      <c r="E153" t="s">
+      <c r="G153" t="s">
         <v>657</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>658</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>659</v>
-      </c>
-      <c r="I153" t="s">
-        <v>660</v>
       </c>
       <c r="J153">
         <v>157</v>
@@ -10202,25 +10205,25 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B154" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C154">
         <v>2013</v>
       </c>
       <c r="D154" t="s">
+        <v>662</v>
+      </c>
+      <c r="E154" t="s">
         <v>663</v>
       </c>
-      <c r="E154" t="s">
+      <c r="H154" t="s">
         <v>664</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>665</v>
-      </c>
-      <c r="I154" t="s">
-        <v>666</v>
       </c>
       <c r="J154">
         <v>75</v>
@@ -10228,48 +10231,48 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B155" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C155">
         <v>2018</v>
       </c>
       <c r="D155" t="s">
+        <v>668</v>
+      </c>
+      <c r="E155" t="s">
         <v>669</v>
       </c>
-      <c r="E155" t="s">
+      <c r="H155" t="s">
         <v>670</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>671</v>
-      </c>
-      <c r="I155" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B156" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C156">
         <v>2010</v>
       </c>
       <c r="D156" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E156" t="s">
         <v>63</v>
       </c>
       <c r="H156" t="s">
+        <v>675</v>
+      </c>
+      <c r="I156" t="s">
         <v>676</v>
-      </c>
-      <c r="I156" t="s">
-        <v>677</v>
       </c>
       <c r="J156">
         <v>79</v>
@@ -10277,25 +10280,25 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B157" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C157">
         <v>2017</v>
       </c>
       <c r="D157" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E157" t="s">
         <v>63</v>
       </c>
       <c r="H157" t="s">
+        <v>680</v>
+      </c>
+      <c r="I157" t="s">
         <v>681</v>
-      </c>
-      <c r="I157" t="s">
-        <v>682</v>
       </c>
       <c r="J157">
         <v>126</v>
@@ -10303,25 +10306,25 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B158" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C158">
         <v>2017</v>
       </c>
       <c r="D158" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E158" t="s">
         <v>69</v>
       </c>
       <c r="H158" t="s">
+        <v>685</v>
+      </c>
+      <c r="I158" t="s">
         <v>686</v>
-      </c>
-      <c r="I158" t="s">
-        <v>687</v>
       </c>
       <c r="J158">
         <v>86</v>
@@ -10329,25 +10332,25 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B159" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C159">
         <v>2013</v>
       </c>
       <c r="D159" t="s">
+        <v>689</v>
+      </c>
+      <c r="E159" t="s">
         <v>690</v>
       </c>
-      <c r="E159" t="s">
+      <c r="H159" t="s">
         <v>691</v>
       </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
         <v>692</v>
-      </c>
-      <c r="I159" t="s">
-        <v>693</v>
       </c>
       <c r="J159">
         <v>19</v>
@@ -10355,22 +10358,22 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B160" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C160">
         <v>2016</v>
       </c>
       <c r="D160" t="s">
+        <v>695</v>
+      </c>
+      <c r="E160" t="s">
         <v>696</v>
       </c>
-      <c r="E160" t="s">
+      <c r="H160" t="s">
         <v>697</v>
-      </c>
-      <c r="H160" t="s">
-        <v>698</v>
       </c>
       <c r="J160">
         <v>3</v>
@@ -10378,28 +10381,28 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B161" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C161">
         <v>2005</v>
       </c>
       <c r="D161" t="s">
+        <v>700</v>
+      </c>
+      <c r="E161" t="s">
         <v>701</v>
       </c>
-      <c r="E161" t="s">
+      <c r="G161" t="s">
         <v>702</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>703</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
         <v>704</v>
-      </c>
-      <c r="I161" t="s">
-        <v>705</v>
       </c>
       <c r="J161">
         <v>142</v>
@@ -10407,25 +10410,25 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B162" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C162">
         <v>2014</v>
       </c>
       <c r="D162" t="s">
+        <v>707</v>
+      </c>
+      <c r="E162" t="s">
         <v>708</v>
       </c>
-      <c r="E162" t="s">
+      <c r="H162" t="s">
         <v>709</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
         <v>710</v>
-      </c>
-      <c r="I162" t="s">
-        <v>711</v>
       </c>
       <c r="J162">
         <v>60</v>
@@ -10433,25 +10436,25 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B163" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C163">
         <v>2016</v>
       </c>
       <c r="D163" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E163" t="s">
         <v>264</v>
       </c>
       <c r="H163" t="s">
+        <v>714</v>
+      </c>
+      <c r="I163" t="s">
         <v>715</v>
-      </c>
-      <c r="I163" t="s">
-        <v>716</v>
       </c>
       <c r="J163">
         <v>132</v>
@@ -10459,22 +10462,22 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B164" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C164">
         <v>2017</v>
       </c>
       <c r="D164" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E164" t="s">
         <v>337</v>
       </c>
       <c r="H164" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J164">
         <v>12</v>
@@ -10482,16 +10485,16 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B165" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C165">
         <v>1994</v>
       </c>
       <c r="D165" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E165" t="s">
         <v>196</v>
@@ -10500,10 +10503,10 @@
         <v>197</v>
       </c>
       <c r="H165" t="s">
+        <v>723</v>
+      </c>
+      <c r="I165" t="s">
         <v>724</v>
-      </c>
-      <c r="I165" t="s">
-        <v>725</v>
       </c>
       <c r="J165">
         <v>47</v>
@@ -10511,25 +10514,25 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B166" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C166">
         <v>2010</v>
       </c>
       <c r="D166" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E166" t="s">
         <v>63</v>
       </c>
       <c r="H166" t="s">
+        <v>728</v>
+      </c>
+      <c r="I166" t="s">
         <v>729</v>
-      </c>
-      <c r="I166" t="s">
-        <v>730</v>
       </c>
       <c r="J166">
         <v>80</v>
@@ -10537,16 +10540,16 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B167" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C167">
         <v>2008</v>
       </c>
       <c r="D167" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E167" t="s">
         <v>196</v>
@@ -10555,10 +10558,10 @@
         <v>197</v>
       </c>
       <c r="H167" t="s">
+        <v>733</v>
+      </c>
+      <c r="I167" t="s">
         <v>734</v>
-      </c>
-      <c r="I167" t="s">
-        <v>735</v>
       </c>
       <c r="J167">
         <v>75</v>
@@ -10566,25 +10569,25 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B168" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C168">
         <v>2018</v>
       </c>
       <c r="D168" t="s">
+        <v>737</v>
+      </c>
+      <c r="E168" t="s">
+        <v>467</v>
+      </c>
+      <c r="H168" t="s">
         <v>738</v>
       </c>
-      <c r="E168" t="s">
-        <v>468</v>
-      </c>
-      <c r="H168" t="s">
+      <c r="I168" t="s">
         <v>739</v>
-      </c>
-      <c r="I168" t="s">
-        <v>740</v>
       </c>
       <c r="J168">
         <v>36</v>
@@ -10592,25 +10595,25 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B169" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C169">
         <v>2010</v>
       </c>
       <c r="D169" t="s">
+        <v>742</v>
+      </c>
+      <c r="E169" t="s">
         <v>743</v>
       </c>
-      <c r="E169" t="s">
+      <c r="H169" t="s">
         <v>744</v>
       </c>
-      <c r="H169" t="s">
+      <c r="I169" t="s">
         <v>745</v>
-      </c>
-      <c r="I169" t="s">
-        <v>746</v>
       </c>
       <c r="J169">
         <v>52</v>
@@ -10618,25 +10621,25 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B170" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C170">
         <v>2016</v>
       </c>
       <c r="D170" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E170" t="s">
         <v>342</v>
       </c>
       <c r="H170" t="s">
+        <v>749</v>
+      </c>
+      <c r="I170" t="s">
         <v>750</v>
-      </c>
-      <c r="I170" t="s">
-        <v>751</v>
       </c>
       <c r="J170">
         <v>27</v>
@@ -10644,25 +10647,25 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B171" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C171">
         <v>2016</v>
       </c>
       <c r="D171" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E171" t="s">
         <v>45</v>
       </c>
       <c r="H171" t="s">
+        <v>754</v>
+      </c>
+      <c r="I171" t="s">
         <v>755</v>
-      </c>
-      <c r="I171" t="s">
-        <v>756</v>
       </c>
       <c r="J171">
         <v>70</v>
@@ -10670,25 +10673,25 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B172" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C172">
         <v>2008</v>
       </c>
       <c r="D172" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E172" t="s">
         <v>57</v>
       </c>
       <c r="H172" t="s">
+        <v>759</v>
+      </c>
+      <c r="I172" t="s">
         <v>760</v>
-      </c>
-      <c r="I172" t="s">
-        <v>761</v>
       </c>
       <c r="J172">
         <v>114</v>
@@ -10696,28 +10699,28 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B173" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C173">
         <v>2007</v>
       </c>
       <c r="D173" t="s">
+        <v>763</v>
+      </c>
+      <c r="E173" t="s">
         <v>764</v>
       </c>
-      <c r="E173" t="s">
+      <c r="G173" t="s">
         <v>765</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H173" t="s">
         <v>766</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
         <v>767</v>
-      </c>
-      <c r="I173" t="s">
-        <v>768</v>
       </c>
       <c r="J173">
         <v>85</v>
@@ -10725,28 +10728,28 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B174" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C174">
         <v>2012</v>
       </c>
       <c r="D174" t="s">
+        <v>770</v>
+      </c>
+      <c r="E174" t="s">
         <v>771</v>
       </c>
-      <c r="E174" t="s">
+      <c r="G174" t="s">
         <v>772</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>773</v>
       </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
         <v>774</v>
-      </c>
-      <c r="I174" t="s">
-        <v>775</v>
       </c>
       <c r="J174">
         <v>26</v>
@@ -10754,25 +10757,25 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B175" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C175">
         <v>2013</v>
       </c>
       <c r="D175" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E175" t="s">
         <v>57</v>
       </c>
       <c r="H175" t="s">
+        <v>778</v>
+      </c>
+      <c r="I175" t="s">
         <v>779</v>
-      </c>
-      <c r="I175" t="s">
-        <v>780</v>
       </c>
       <c r="J175">
         <v>119</v>
@@ -10780,25 +10783,25 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B176" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C176">
         <v>2007</v>
       </c>
       <c r="D176" t="s">
+        <v>782</v>
+      </c>
+      <c r="E176" t="s">
         <v>783</v>
       </c>
-      <c r="E176" t="s">
+      <c r="H176" t="s">
         <v>784</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>785</v>
-      </c>
-      <c r="I176" t="s">
-        <v>786</v>
       </c>
       <c r="J176">
         <v>124</v>
@@ -10806,25 +10809,25 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B177" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C177">
         <v>2012</v>
       </c>
       <c r="D177" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E177" t="s">
         <v>132</v>
       </c>
       <c r="H177" t="s">
+        <v>789</v>
+      </c>
+      <c r="I177" t="s">
         <v>790</v>
-      </c>
-      <c r="I177" t="s">
-        <v>791</v>
       </c>
       <c r="J177">
         <v>2</v>
@@ -10832,28 +10835,28 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B178" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C178">
         <v>2017</v>
       </c>
       <c r="D178" t="s">
+        <v>793</v>
+      </c>
+      <c r="E178" t="s">
         <v>794</v>
       </c>
-      <c r="E178" t="s">
+      <c r="G178" t="s">
         <v>795</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>796</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>797</v>
-      </c>
-      <c r="I178" t="s">
-        <v>798</v>
       </c>
       <c r="J178">
         <v>585</v>
@@ -10861,25 +10864,25 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B179" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C179">
         <v>2017</v>
       </c>
       <c r="D179" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E179" t="s">
         <v>63</v>
       </c>
       <c r="H179" t="s">
+        <v>801</v>
+      </c>
+      <c r="I179" t="s">
         <v>802</v>
-      </c>
-      <c r="I179" t="s">
-        <v>803</v>
       </c>
       <c r="J179">
         <v>123</v>
@@ -10887,28 +10890,28 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B180" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C180">
         <v>2009</v>
       </c>
       <c r="D180" t="s">
+        <v>805</v>
+      </c>
+      <c r="E180" t="s">
+        <v>771</v>
+      </c>
+      <c r="G180" t="s">
+        <v>772</v>
+      </c>
+      <c r="H180" t="s">
         <v>806</v>
       </c>
-      <c r="E180" t="s">
-        <v>772</v>
-      </c>
-      <c r="G180" t="s">
-        <v>773</v>
-      </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
         <v>807</v>
-      </c>
-      <c r="I180" t="s">
-        <v>808</v>
       </c>
       <c r="J180">
         <v>23</v>
@@ -10916,28 +10919,28 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B181" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C181">
         <v>2012</v>
       </c>
       <c r="D181" t="s">
+        <v>810</v>
+      </c>
+      <c r="E181" t="s">
         <v>811</v>
       </c>
-      <c r="E181" t="s">
+      <c r="G181" t="s">
         <v>812</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>813</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>814</v>
-      </c>
-      <c r="I181" t="s">
-        <v>815</v>
       </c>
       <c r="J181">
         <v>85</v>
@@ -10945,25 +10948,25 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B182" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C182">
         <v>2013</v>
       </c>
       <c r="D182" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E182" t="s">
         <v>132</v>
       </c>
       <c r="H182" t="s">
+        <v>818</v>
+      </c>
+      <c r="I182" t="s">
         <v>819</v>
-      </c>
-      <c r="I182" t="s">
-        <v>820</v>
       </c>
       <c r="J182">
         <v>3</v>
@@ -10971,25 +10974,25 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B183" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C183">
         <v>2014</v>
       </c>
       <c r="D183" t="s">
+        <v>822</v>
+      </c>
+      <c r="E183" t="s">
         <v>823</v>
       </c>
-      <c r="E183" t="s">
+      <c r="H183" t="s">
         <v>824</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>825</v>
-      </c>
-      <c r="I183" t="s">
-        <v>826</v>
       </c>
       <c r="J183">
         <v>123</v>
@@ -10997,25 +11000,25 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B184" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C184">
         <v>2015</v>
       </c>
       <c r="D184" t="s">
+        <v>828</v>
+      </c>
+      <c r="E184" t="s">
         <v>829</v>
       </c>
-      <c r="E184" t="s">
+      <c r="H184" t="s">
         <v>830</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>831</v>
-      </c>
-      <c r="I184" t="s">
-        <v>832</v>
       </c>
       <c r="J184">
         <v>46</v>
@@ -11023,25 +11026,25 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B185" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C185">
         <v>2016</v>
       </c>
       <c r="D185" t="s">
+        <v>834</v>
+      </c>
+      <c r="E185" t="s">
+        <v>783</v>
+      </c>
+      <c r="H185" t="s">
         <v>835</v>
       </c>
-      <c r="E185" t="s">
-        <v>784</v>
-      </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>836</v>
-      </c>
-      <c r="I185" t="s">
-        <v>837</v>
       </c>
       <c r="J185">
         <v>133</v>
@@ -11049,25 +11052,25 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B186" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C186">
         <v>2013</v>
       </c>
       <c r="D186" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E186" t="s">
         <v>63</v>
       </c>
       <c r="H186" t="s">
+        <v>840</v>
+      </c>
+      <c r="I186" t="s">
         <v>841</v>
-      </c>
-      <c r="I186" t="s">
-        <v>842</v>
       </c>
       <c r="J186">
         <v>86</v>
@@ -11075,25 +11078,25 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B187" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C187">
         <v>2010</v>
       </c>
       <c r="D187" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E187" t="s">
         <v>35</v>
       </c>
       <c r="H187" t="s">
+        <v>845</v>
+      </c>
+      <c r="I187" t="s">
         <v>846</v>
-      </c>
-      <c r="I187" t="s">
-        <v>847</v>
       </c>
       <c r="J187">
         <v>126</v>
@@ -11101,25 +11104,25 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B188" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C188">
         <v>2016</v>
       </c>
       <c r="D188" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E188" t="s">
         <v>45</v>
       </c>
       <c r="H188" t="s">
+        <v>850</v>
+      </c>
+      <c r="I188" t="s">
         <v>851</v>
-      </c>
-      <c r="I188" t="s">
-        <v>852</v>
       </c>
       <c r="J188">
         <v>70</v>
@@ -11127,25 +11130,25 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B189" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C189">
         <v>1994</v>
       </c>
       <c r="D189" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E189" t="s">
         <v>342</v>
       </c>
       <c r="H189" t="s">
+        <v>855</v>
+      </c>
+      <c r="I189" t="s">
         <v>856</v>
-      </c>
-      <c r="I189" t="s">
-        <v>857</v>
       </c>
       <c r="J189">
         <v>5</v>
@@ -11153,16 +11156,16 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B190" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C190">
         <v>2015</v>
       </c>
       <c r="D190" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E190" t="s">
         <v>358</v>
@@ -11171,10 +11174,10 @@
         <v>359</v>
       </c>
       <c r="H190" t="s">
+        <v>860</v>
+      </c>
+      <c r="I190" t="s">
         <v>861</v>
-      </c>
-      <c r="I190" t="s">
-        <v>862</v>
       </c>
       <c r="J190">
         <v>69</v>
@@ -11182,28 +11185,28 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B191" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C191">
         <v>2009</v>
       </c>
       <c r="D191" t="s">
+        <v>864</v>
+      </c>
+      <c r="E191" t="s">
         <v>865</v>
       </c>
-      <c r="E191" t="s">
+      <c r="G191" t="s">
         <v>866</v>
       </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>867</v>
       </c>
-      <c r="H191" t="s">
+      <c r="I191" t="s">
         <v>868</v>
-      </c>
-      <c r="I191" t="s">
-        <v>869</v>
       </c>
       <c r="J191">
         <v>121</v>
@@ -11211,45 +11214,45 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B192" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C192">
         <v>2018</v>
       </c>
       <c r="D192" t="s">
+        <v>871</v>
+      </c>
+      <c r="E192" t="s">
         <v>872</v>
       </c>
-      <c r="E192" t="s">
+      <c r="H192" t="s">
         <v>873</v>
-      </c>
-      <c r="H192" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B193" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C193">
         <v>2016</v>
       </c>
       <c r="D193" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E193" t="s">
         <v>57</v>
       </c>
       <c r="H193" t="s">
+        <v>877</v>
+      </c>
+      <c r="I193" t="s">
         <v>878</v>
-      </c>
-      <c r="I193" t="s">
-        <v>879</v>
       </c>
       <c r="J193">
         <v>122</v>
@@ -11257,22 +11260,22 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B194" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C194">
         <v>2017</v>
       </c>
       <c r="D194" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E194" t="s">
         <v>389</v>
       </c>
       <c r="H194" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J194">
         <v>4</v>
@@ -11280,25 +11283,25 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B195" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C195">
         <v>2012</v>
       </c>
       <c r="D195" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E195" t="s">
         <v>342</v>
       </c>
       <c r="H195" t="s">
+        <v>886</v>
+      </c>
+      <c r="I195" t="s">
         <v>887</v>
-      </c>
-      <c r="I195" t="s">
-        <v>888</v>
       </c>
       <c r="J195">
         <v>23</v>
@@ -11306,25 +11309,25 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B196" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C196">
         <v>2011</v>
       </c>
       <c r="D196" t="s">
+        <v>890</v>
+      </c>
+      <c r="E196" t="s">
         <v>891</v>
       </c>
-      <c r="E196" t="s">
+      <c r="H196" t="s">
         <v>892</v>
       </c>
-      <c r="H196" t="s">
+      <c r="I196" t="s">
         <v>893</v>
-      </c>
-      <c r="I196" t="s">
-        <v>894</v>
       </c>
       <c r="J196">
         <v>89</v>
@@ -11332,51 +11335,51 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B197" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C197">
         <v>2018</v>
       </c>
       <c r="D197" t="s">
+        <v>896</v>
+      </c>
+      <c r="E197" t="s">
         <v>897</v>
       </c>
-      <c r="E197" t="s">
+      <c r="G197" t="s">
         <v>898</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>899</v>
-      </c>
-      <c r="H197" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B198" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C198">
         <v>2017</v>
       </c>
       <c r="D198" t="s">
+        <v>902</v>
+      </c>
+      <c r="E198" t="s">
         <v>903</v>
       </c>
-      <c r="E198" t="s">
+      <c r="G198" t="s">
         <v>904</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>905</v>
       </c>
-      <c r="H198" t="s">
+      <c r="I198" t="s">
         <v>906</v>
-      </c>
-      <c r="I198" t="s">
-        <v>907</v>
       </c>
       <c r="J198">
         <v>28</v>
@@ -11384,22 +11387,22 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B199" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C199">
         <v>2018</v>
       </c>
       <c r="D199" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E199" t="s">
         <v>45</v>
       </c>
       <c r="H199" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J199">
         <v>72</v>
@@ -11407,25 +11410,25 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B200" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C200">
         <v>2008</v>
       </c>
       <c r="D200" t="s">
+        <v>913</v>
+      </c>
+      <c r="E200" t="s">
         <v>914</v>
       </c>
-      <c r="E200" t="s">
+      <c r="H200" t="s">
         <v>915</v>
       </c>
-      <c r="H200" t="s">
+      <c r="I200" t="s">
         <v>916</v>
-      </c>
-      <c r="I200" t="s">
-        <v>917</v>
       </c>
       <c r="J200">
         <v>18</v>
@@ -11433,25 +11436,25 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B201" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C201">
         <v>2008</v>
       </c>
       <c r="D201" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E201" t="s">
         <v>63</v>
       </c>
       <c r="H201" t="s">
+        <v>920</v>
+      </c>
+      <c r="I201" t="s">
         <v>921</v>
-      </c>
-      <c r="I201" t="s">
-        <v>922</v>
       </c>
       <c r="J201">
         <v>75</v>
@@ -11459,25 +11462,25 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B202" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C202">
         <v>2018</v>
       </c>
       <c r="D202" t="s">
+        <v>924</v>
+      </c>
+      <c r="E202" t="s">
+        <v>467</v>
+      </c>
+      <c r="H202" t="s">
         <v>925</v>
       </c>
-      <c r="E202" t="s">
-        <v>468</v>
-      </c>
-      <c r="H202" t="s">
+      <c r="I202" t="s">
         <v>926</v>
-      </c>
-      <c r="I202" t="s">
-        <v>927</v>
       </c>
       <c r="J202">
         <v>36</v>
@@ -11485,25 +11488,25 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B203" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C203">
         <v>2015</v>
       </c>
       <c r="D203" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E203" t="s">
         <v>63</v>
       </c>
       <c r="H203" t="s">
+        <v>930</v>
+      </c>
+      <c r="I203" t="s">
         <v>931</v>
-      </c>
-      <c r="I203" t="s">
-        <v>932</v>
       </c>
       <c r="J203">
         <v>107</v>
@@ -11511,16 +11514,16 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B204" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C204">
         <v>2016</v>
       </c>
       <c r="D204" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E204" t="s">
         <v>103</v>
@@ -11529,10 +11532,10 @@
         <v>104</v>
       </c>
       <c r="H204" t="s">
+        <v>935</v>
+      </c>
+      <c r="I204" t="s">
         <v>936</v>
-      </c>
-      <c r="I204" t="s">
-        <v>937</v>
       </c>
       <c r="J204">
         <v>165</v>
@@ -11540,25 +11543,25 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B205" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C205">
         <v>2018</v>
       </c>
       <c r="D205" t="s">
+        <v>938</v>
+      </c>
+      <c r="E205" t="s">
         <v>939</v>
       </c>
-      <c r="E205" t="s">
+      <c r="H205" t="s">
         <v>940</v>
       </c>
-      <c r="H205" t="s">
+      <c r="I205" t="s">
         <v>941</v>
-      </c>
-      <c r="I205" t="s">
-        <v>942</v>
       </c>
       <c r="J205">
         <v>99</v>
@@ -11566,25 +11569,25 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B206" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C206">
         <v>2011</v>
       </c>
       <c r="D206" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E206" t="s">
         <v>342</v>
       </c>
       <c r="H206" t="s">
+        <v>945</v>
+      </c>
+      <c r="I206" t="s">
         <v>946</v>
-      </c>
-      <c r="I206" t="s">
-        <v>947</v>
       </c>
       <c r="J206">
         <v>22</v>
@@ -11592,22 +11595,22 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B207" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C207">
         <v>2017</v>
       </c>
       <c r="D207" t="s">
+        <v>949</v>
+      </c>
+      <c r="E207" t="s">
         <v>950</v>
       </c>
-      <c r="E207" t="s">
+      <c r="H207" t="s">
         <v>951</v>
-      </c>
-      <c r="H207" t="s">
-        <v>952</v>
       </c>
       <c r="J207">
         <v>104</v>
@@ -11615,25 +11618,25 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B208" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C208">
         <v>2003</v>
       </c>
       <c r="D208" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E208" t="s">
         <v>57</v>
       </c>
       <c r="H208" t="s">
+        <v>955</v>
+      </c>
+      <c r="I208" t="s">
         <v>956</v>
-      </c>
-      <c r="I208" t="s">
-        <v>957</v>
       </c>
       <c r="J208">
         <v>109</v>
@@ -11641,25 +11644,25 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B209" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C209">
         <v>2012</v>
       </c>
       <c r="D209" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E209" t="s">
         <v>63</v>
       </c>
       <c r="H209" t="s">
+        <v>960</v>
+      </c>
+      <c r="I209" t="s">
         <v>961</v>
-      </c>
-      <c r="I209" t="s">
-        <v>962</v>
       </c>
       <c r="J209">
         <v>84</v>
@@ -11667,28 +11670,28 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B210" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C210">
         <v>2018</v>
       </c>
       <c r="D210" t="s">
+        <v>964</v>
+      </c>
+      <c r="E210" t="s">
         <v>965</v>
       </c>
-      <c r="E210" t="s">
+      <c r="G210" t="s">
         <v>966</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>967</v>
       </c>
-      <c r="H210" t="s">
+      <c r="I210" t="s">
         <v>968</v>
-      </c>
-      <c r="I210" t="s">
-        <v>969</v>
       </c>
       <c r="J210">
         <v>124</v>
@@ -11696,22 +11699,22 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B211" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C211">
         <v>2015</v>
       </c>
       <c r="D211" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E211" t="s">
         <v>337</v>
       </c>
       <c r="H211" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J211">
         <v>10</v>
@@ -11719,25 +11722,25 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B212" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C212">
         <v>2002</v>
       </c>
       <c r="D212" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E212" t="s">
         <v>126</v>
       </c>
       <c r="H212" t="s">
+        <v>976</v>
+      </c>
+      <c r="I212" t="s">
         <v>977</v>
-      </c>
-      <c r="I212" t="s">
-        <v>978</v>
       </c>
       <c r="J212">
         <v>139</v>
@@ -11745,22 +11748,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B213" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C213">
         <v>2017</v>
       </c>
       <c r="D213" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E213" t="s">
         <v>45</v>
       </c>
       <c r="H213" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J213">
         <v>71</v>
@@ -11768,25 +11771,25 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B214" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C214">
         <v>2016</v>
       </c>
       <c r="D214" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E214" t="s">
         <v>342</v>
       </c>
       <c r="H214" t="s">
+        <v>985</v>
+      </c>
+      <c r="I214" t="s">
         <v>986</v>
-      </c>
-      <c r="I214" t="s">
-        <v>987</v>
       </c>
       <c r="J214">
         <v>27</v>
@@ -11794,22 +11797,22 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B215" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C215">
         <v>2012</v>
       </c>
       <c r="D215" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E215" t="s">
         <v>337</v>
       </c>
       <c r="H215" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J215">
         <v>7</v>
@@ -11817,25 +11820,25 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B216" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C216">
         <v>2010</v>
       </c>
       <c r="D216" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E216" t="s">
         <v>63</v>
       </c>
       <c r="H216" t="s">
+        <v>994</v>
+      </c>
+      <c r="I216" t="s">
         <v>995</v>
-      </c>
-      <c r="I216" t="s">
-        <v>996</v>
       </c>
       <c r="J216">
         <v>80</v>
@@ -11843,25 +11846,25 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B217" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C217">
         <v>2017</v>
       </c>
       <c r="D217" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E217" t="s">
         <v>57</v>
       </c>
       <c r="H217" t="s">
+        <v>999</v>
+      </c>
+      <c r="I217" t="s">
         <v>1000</v>
-      </c>
-      <c r="I217" t="s">
-        <v>1001</v>
       </c>
       <c r="J217">
         <v>123</v>
@@ -11869,25 +11872,25 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B218" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C218">
         <v>2015</v>
       </c>
       <c r="D218" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E218" t="s">
         <v>63</v>
       </c>
       <c r="H218" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I218" t="s">
         <v>1005</v>
-      </c>
-      <c r="I218" t="s">
-        <v>1006</v>
       </c>
       <c r="J218">
         <v>106</v>
@@ -11895,25 +11898,25 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B219" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C219">
         <v>2014</v>
       </c>
       <c r="D219" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E219" t="s">
         <v>63</v>
       </c>
       <c r="H219" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I219" t="s">
         <v>1010</v>
-      </c>
-      <c r="I219" t="s">
-        <v>1011</v>
       </c>
       <c r="J219">
         <v>89</v>
@@ -11921,25 +11924,25 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B220" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C220">
         <v>2005</v>
       </c>
       <c r="D220" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E220" t="s">
         <v>63</v>
       </c>
       <c r="H220" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I220" t="s">
         <v>1015</v>
-      </c>
-      <c r="I220" t="s">
-        <v>1016</v>
       </c>
       <c r="J220">
         <v>69</v>
@@ -11947,25 +11950,25 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B221" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C221">
         <v>2014</v>
       </c>
       <c r="D221" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E221" t="s">
         <v>295</v>
       </c>
       <c r="H221" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I221" t="s">
         <v>1020</v>
-      </c>
-      <c r="I221" t="s">
-        <v>1021</v>
       </c>
       <c r="J221">
         <v>84</v>
@@ -11973,25 +11976,25 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B222" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C222">
         <v>2017</v>
       </c>
       <c r="D222" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E222" t="s">
         <v>63</v>
       </c>
       <c r="H222" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I222" t="s">
         <v>1025</v>
-      </c>
-      <c r="I222" t="s">
-        <v>1026</v>
       </c>
       <c r="J222">
         <v>123</v>
@@ -11999,25 +12002,25 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B223" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C223">
         <v>2014</v>
       </c>
       <c r="D223" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E223" t="s">
         <v>45</v>
       </c>
       <c r="H223" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I223" t="s">
         <v>1030</v>
-      </c>
-      <c r="I223" t="s">
-        <v>1031</v>
       </c>
       <c r="J223">
         <v>68</v>
@@ -12025,25 +12028,25 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B224" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C224">
         <v>2013</v>
       </c>
       <c r="D224" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E224" t="s">
         <v>57</v>
       </c>
       <c r="H224" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I224" t="s">
         <v>1035</v>
-      </c>
-      <c r="I224" t="s">
-        <v>1036</v>
       </c>
       <c r="J224">
         <v>119</v>
@@ -12051,25 +12054,25 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B225" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C225">
         <v>2018</v>
       </c>
       <c r="D225" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E225" t="s">
         <v>264</v>
       </c>
       <c r="H225" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I225" t="s">
         <v>1040</v>
-      </c>
-      <c r="I225" t="s">
-        <v>1041</v>
       </c>
       <c r="J225">
         <v>153</v>
@@ -12077,25 +12080,25 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B226" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C226">
         <v>2011</v>
       </c>
       <c r="D226" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E226" t="s">
         <v>57</v>
       </c>
       <c r="H226" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I226" t="s">
         <v>1045</v>
-      </c>
-      <c r="I226" t="s">
-        <v>1046</v>
       </c>
       <c r="J226">
         <v>117</v>
@@ -12103,25 +12106,25 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B227" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C227">
         <v>2011</v>
       </c>
       <c r="D227" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E227" t="s">
+        <v>639</v>
+      </c>
+      <c r="H227" t="s">
         <v>1049</v>
       </c>
-      <c r="E227" t="s">
-        <v>640</v>
-      </c>
-      <c r="H227" t="s">
+      <c r="I227" t="s">
         <v>1050</v>
-      </c>
-      <c r="I227" t="s">
-        <v>1051</v>
       </c>
       <c r="J227">
         <v>89</v>
@@ -12129,22 +12132,22 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B228" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C228">
         <v>2012</v>
       </c>
       <c r="D228" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E228" t="s">
         <v>337</v>
       </c>
       <c r="H228" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J228">
         <v>7</v>
@@ -12152,25 +12155,25 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B229" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C229">
         <v>2018</v>
       </c>
       <c r="D229" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E229" t="s">
         <v>190</v>
       </c>
       <c r="H229" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I229" t="s">
         <v>1059</v>
-      </c>
-      <c r="I229" t="s">
-        <v>1060</v>
       </c>
       <c r="J229">
         <v>64</v>
@@ -12178,25 +12181,25 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B230" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C230">
         <v>2016</v>
       </c>
       <c r="D230" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E230" t="s">
         <v>63</v>
       </c>
       <c r="H230" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I230" t="s">
         <v>1064</v>
-      </c>
-      <c r="I230" t="s">
-        <v>1065</v>
       </c>
       <c r="J230">
         <v>113</v>
@@ -12204,25 +12207,25 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B231" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C231">
         <v>2013</v>
       </c>
       <c r="D231" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E231" t="s">
+        <v>639</v>
+      </c>
+      <c r="H231" t="s">
         <v>1068</v>
       </c>
-      <c r="E231" t="s">
-        <v>640</v>
-      </c>
-      <c r="H231" t="s">
+      <c r="I231" t="s">
         <v>1069</v>
-      </c>
-      <c r="I231" t="s">
-        <v>1070</v>
       </c>
       <c r="J231">
         <v>91</v>
@@ -12230,25 +12233,25 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B232" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C232">
         <v>2017</v>
       </c>
       <c r="D232" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E232" t="s">
         <v>63</v>
       </c>
       <c r="H232" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I232" t="s">
         <v>1074</v>
-      </c>
-      <c r="I232" t="s">
-        <v>1075</v>
       </c>
       <c r="J232">
         <v>124</v>
@@ -12256,25 +12259,25 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B233" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C233">
         <v>2015</v>
       </c>
       <c r="D233" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E233" t="s">
         <v>63</v>
       </c>
       <c r="H233" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I233" t="s">
         <v>1079</v>
-      </c>
-      <c r="I233" t="s">
-        <v>1080</v>
       </c>
       <c r="J233">
         <v>103</v>
@@ -12282,22 +12285,22 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B234" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C234">
         <v>1997</v>
       </c>
       <c r="D234" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E234" t="s">
+        <v>628</v>
+      </c>
+      <c r="I234" t="s">
         <v>1083</v>
-      </c>
-      <c r="E234" t="s">
-        <v>629</v>
-      </c>
-      <c r="I234" t="s">
-        <v>1084</v>
       </c>
       <c r="J234">
         <v>200</v>
@@ -12305,25 +12308,25 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B235" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C235">
         <v>2018</v>
       </c>
       <c r="D235" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E235" t="s">
         <v>1087</v>
       </c>
-      <c r="E235" t="s">
+      <c r="H235" t="s">
         <v>1088</v>
       </c>
-      <c r="H235" t="s">
+      <c r="I235" t="s">
         <v>1089</v>
-      </c>
-      <c r="I235" t="s">
-        <v>1090</v>
       </c>
       <c r="J235">
         <v>21</v>
@@ -12331,28 +12334,28 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B236" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C236">
         <v>2017</v>
       </c>
       <c r="D236" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E236" t="s">
         <v>1093</v>
       </c>
-      <c r="E236" t="s">
+      <c r="G236" t="s">
         <v>1094</v>
       </c>
-      <c r="G236" t="s">
+      <c r="H236" t="s">
         <v>1095</v>
       </c>
-      <c r="H236" t="s">
+      <c r="I236" t="s">
         <v>1096</v>
-      </c>
-      <c r="I236" t="s">
-        <v>1097</v>
       </c>
       <c r="J236">
         <v>4</v>
@@ -12360,25 +12363,25 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B237" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C237">
         <v>2016</v>
       </c>
       <c r="D237" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E237" t="s">
         <v>45</v>
       </c>
       <c r="H237" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I237" t="s">
         <v>1101</v>
-      </c>
-      <c r="I237" t="s">
-        <v>1102</v>
       </c>
       <c r="J237">
         <v>70</v>
@@ -12386,25 +12389,25 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B238" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C238">
         <v>2017</v>
       </c>
       <c r="D238" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E238" t="s">
         <v>264</v>
       </c>
       <c r="H238" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I238" t="s">
         <v>1106</v>
-      </c>
-      <c r="I238" t="s">
-        <v>1107</v>
       </c>
       <c r="J238">
         <v>145</v>
@@ -12412,25 +12415,25 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B239" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C239">
         <v>2017</v>
       </c>
       <c r="D239" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E239" t="s">
         <v>1110</v>
       </c>
-      <c r="E239" t="s">
+      <c r="H239" t="s">
         <v>1111</v>
       </c>
-      <c r="H239" t="s">
+      <c r="I239" t="s">
         <v>1112</v>
-      </c>
-      <c r="I239" t="s">
-        <v>1113</v>
       </c>
       <c r="J239">
         <v>42</v>
@@ -12438,22 +12441,22 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B240" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C240">
         <v>2015</v>
       </c>
       <c r="D240" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E240" t="s">
         <v>1116</v>
       </c>
-      <c r="E240" t="s">
+      <c r="H240" t="s">
         <v>1117</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1118</v>
       </c>
       <c r="J240">
         <v>3</v>
@@ -12461,25 +12464,25 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B241" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C241">
         <v>2017</v>
       </c>
       <c r="D241" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E241" t="s">
         <v>51</v>
       </c>
       <c r="H241" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I241" t="s">
         <v>1122</v>
-      </c>
-      <c r="I241" t="s">
-        <v>1123</v>
       </c>
       <c r="J241">
         <v>183</v>
@@ -12487,25 +12490,25 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B242" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C242">
         <v>2018</v>
       </c>
       <c r="D242" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E242" t="s">
         <v>1126</v>
       </c>
-      <c r="E242" t="s">
+      <c r="H242" t="s">
         <v>1127</v>
       </c>
-      <c r="H242" t="s">
+      <c r="I242" t="s">
         <v>1128</v>
-      </c>
-      <c r="I242" t="s">
-        <v>1129</v>
       </c>
       <c r="J242">
         <v>305</v>
@@ -12513,25 +12516,25 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B243" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C243">
         <v>2017</v>
       </c>
       <c r="D243" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E243" t="s">
         <v>63</v>
       </c>
       <c r="H243" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I243" t="s">
         <v>1133</v>
-      </c>
-      <c r="I243" t="s">
-        <v>1134</v>
       </c>
       <c r="J243">
         <v>133</v>
@@ -12539,25 +12542,25 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B244" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C244">
         <v>2009</v>
       </c>
       <c r="D244" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E244" t="s">
         <v>342</v>
       </c>
       <c r="H244" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I244" t="s">
         <v>1138</v>
-      </c>
-      <c r="I244" t="s">
-        <v>1139</v>
       </c>
       <c r="J244">
         <v>20</v>
@@ -12565,25 +12568,25 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B245" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C245">
         <v>2018</v>
       </c>
       <c r="D245" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E245" t="s">
         <v>301</v>
       </c>
       <c r="H245" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I245" t="s">
         <v>1143</v>
-      </c>
-      <c r="I245" t="s">
-        <v>1144</v>
       </c>
       <c r="J245">
         <v>31</v>
@@ -12591,25 +12594,25 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B246" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C246">
         <v>2018</v>
       </c>
       <c r="D246" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E246" t="s">
         <v>57</v>
       </c>
       <c r="H246" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I246" t="s">
         <v>1148</v>
-      </c>
-      <c r="I246" t="s">
-        <v>1149</v>
       </c>
       <c r="J246">
         <v>124</v>
@@ -12617,25 +12620,25 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B247" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C247">
         <v>2010</v>
       </c>
       <c r="D247" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E247" t="s">
         <v>63</v>
       </c>
       <c r="H247" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I247" t="s">
         <v>1153</v>
-      </c>
-      <c r="I247" t="s">
-        <v>1154</v>
       </c>
       <c r="J247">
         <v>80</v>
@@ -12643,22 +12646,22 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B248" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C248">
         <v>2015</v>
       </c>
       <c r="D248" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E248" t="s">
+        <v>501</v>
+      </c>
+      <c r="H248" t="s">
         <v>1157</v>
-      </c>
-      <c r="E248" t="s">
-        <v>502</v>
-      </c>
-      <c r="H248" t="s">
-        <v>1158</v>
       </c>
       <c r="J248">
         <v>12</v>
@@ -12666,25 +12669,25 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B249" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C249">
         <v>2015</v>
       </c>
       <c r="D249" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E249" t="s">
         <v>35</v>
       </c>
       <c r="H249" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I249" t="s">
         <v>1162</v>
-      </c>
-      <c r="I249" t="s">
-        <v>1163</v>
       </c>
       <c r="J249">
         <v>169</v>
@@ -12692,25 +12695,25 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B250" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C250">
         <v>2016</v>
       </c>
       <c r="D250" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E250" t="s">
         <v>1166</v>
       </c>
-      <c r="E250" t="s">
+      <c r="H250" t="s">
         <v>1167</v>
       </c>
-      <c r="H250" t="s">
+      <c r="I250" t="s">
         <v>1168</v>
-      </c>
-      <c r="I250" t="s">
-        <v>1169</v>
       </c>
       <c r="J250">
         <v>113</v>
@@ -12718,16 +12721,16 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B251" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C251">
         <v>2017</v>
       </c>
       <c r="D251" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E251" t="s">
         <v>358</v>
@@ -12736,7 +12739,7 @@
         <v>359</v>
       </c>
       <c r="H251" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J251">
         <v>71</v>
@@ -12744,25 +12747,25 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B252" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C252">
         <v>2012</v>
       </c>
       <c r="D252" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E252" t="s">
         <v>63</v>
       </c>
       <c r="H252" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I252" t="s">
         <v>1177</v>
-      </c>
-      <c r="I252" t="s">
-        <v>1178</v>
       </c>
       <c r="J252">
         <v>84</v>
@@ -12773,19 +12776,19 @@
         <v>392</v>
       </c>
       <c r="B253" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C253">
         <v>2014</v>
       </c>
       <c r="D253" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E253" t="s">
         <v>1180</v>
       </c>
-      <c r="E253" t="s">
+      <c r="I253" t="s">
         <v>1181</v>
-      </c>
-      <c r="I253" t="s">
-        <v>1182</v>
       </c>
       <c r="J253">
         <v>208</v>
@@ -12812,16 +12815,16 @@
   <sheetData>
     <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="M7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.2">
@@ -12832,7 +12835,7 @@
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C10" s="11" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.2">

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33640" yWindow="460" windowWidth="27760" windowHeight="17220"/>
+    <workbookView xWindow="35880" yWindow="1440" windowWidth="30260" windowHeight="19380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1316">
   <si>
     <t>Key</t>
   </si>
@@ -3947,6 +3947,27 @@
   </si>
   <si>
     <t>Greggor, Alison L.; Jolles, Jolle W.; Thornton, Alex; Clayton, Nicola S.</t>
+  </si>
+  <si>
+    <t>Ask Anja, short term repeatability not reported but is likely to be there</t>
+  </si>
+  <si>
+    <t>Data there, but very short term (all trials on a single day)</t>
+  </si>
+  <si>
+    <t>Only two measurements</t>
+  </si>
+  <si>
+    <t>Only p-val for repeatability and only one repatability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one repeatability </t>
+  </si>
+  <si>
+    <t>Data is there, needs to be analysed (maybe talk to Holger here)</t>
+  </si>
+  <si>
+    <t>Only one repeatability per trait</t>
   </si>
 </sst>
 </file>
@@ -3970,7 +3991,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4025,6 +4046,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4038,7 +4065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4056,6 +4083,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4401,14 +4429,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A105" sqref="A105"/>
+      <selection pane="topRight" activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
@@ -8969,137 +8997,146 @@
       <c r="J105">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="AB105" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="5">
         <v>2018</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="5">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="107" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="15">
         <v>2016</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="15">
         <v>153</v>
       </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="AB107" s="15" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="8">
         <v>2013</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <v>2001</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="AB109" s="2" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="8">
         <v>2012</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="8">
         <v>149</v>
       </c>
     </row>
@@ -9129,180 +9166,195 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="112" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="14">
         <v>2012</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="14">
         <v>66</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="AB112" s="14" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
         <v>2010</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="AB113" s="2" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="8">
         <v>2013</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="115" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
         <v>2017</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="AB115" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="8">
         <v>2017</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="117" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
         <v>2017</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="AB117" s="2" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
         <v>2014</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB118" s="2" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>475</v>
       </c>
@@ -9328,56 +9380,62 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="120" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="5">
         <v>2017</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="5">
         <v>284</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="AB120" s="5" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="2">
         <v>2018</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="2">
         <v>329</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB121" s="2" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>490</v>
       </c>
@@ -9400,7 +9458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>495</v>
       </c>
@@ -9423,7 +9481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>499</v>
       </c>
@@ -9446,7 +9504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>504</v>
       </c>
@@ -9469,7 +9527,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>508</v>
       </c>
@@ -9495,7 +9553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>513</v>
       </c>
@@ -9521,7 +9579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>518</v>
       </c>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="1440" windowWidth="30260" windowHeight="19380"/>
+    <workbookView xWindow="31820" yWindow="460" windowWidth="32180" windowHeight="20120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1318">
   <si>
     <t>Key</t>
   </si>
@@ -3968,6 +3968,12 @@
   </si>
   <si>
     <t>Only one repeatability per trait</t>
+  </si>
+  <si>
+    <t>PDF not available, probably not relevant anyway</t>
+  </si>
+  <si>
+    <t>Only one repeatability, measured over short term</t>
   </si>
 </sst>
 </file>
@@ -3991,7 +3997,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4052,6 +4058,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4065,7 +4077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4084,6 +4096,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4429,9 +4442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A122" sqref="A122"/>
+      <selection pane="topRight" activeCell="AB135" sqref="AB135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9435,122 +9448,131 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="122" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="16">
         <v>2009</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="16">
         <v>57</v>
       </c>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="AB122" s="16" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
         <v>2017</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="AB123" s="2" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="8">
         <v>2015</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="125" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="8">
         <v>2017</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="126" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="2">
         <v>2003</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="2">
         <v>82</v>
+      </c>
+      <c r="AB126" s="2" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31820" yWindow="460" windowWidth="32180" windowHeight="20120"/>
+    <workbookView xWindow="31780" yWindow="460" windowWidth="32180" windowHeight="20120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4442,9 +4442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB135" sqref="AB135"/>
+      <selection pane="topRight" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9601,29 +9601,29 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="128" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="8">
         <v>2013</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="8">
         <v>86</v>
       </c>
     </row>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31780" yWindow="460" windowWidth="32180" windowHeight="20120"/>
+    <workbookView xWindow="32360" yWindow="500" windowWidth="32180" windowHeight="20120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1323">
   <si>
     <t>Key</t>
   </si>
@@ -3974,6 +3974,21 @@
   </si>
   <si>
     <t>Only one repeatability, measured over short term</t>
+  </si>
+  <si>
+    <t>Data is there, not sure whether it's what we need</t>
+  </si>
+  <si>
+    <t>Only one repeatability measured, no longer term data</t>
+  </si>
+  <si>
+    <t>Only one repeatability reported (just long term)</t>
+  </si>
+  <si>
+    <t>Same data as before Kluen et al (2013) , only one repeatability measured</t>
+  </si>
+  <si>
+    <t>Only one repeatability measured</t>
   </si>
 </sst>
 </file>
@@ -4442,9 +4457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B129" sqref="B129"/>
+      <selection pane="topRight" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9627,59 +9642,65 @@
         <v>86</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="129" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
         <v>2018</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="AB129" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="2">
         <v>2016</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="2">
         <v>174</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB130" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>534</v>
       </c>
@@ -9705,322 +9726,352 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="132" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="2">
         <v>2014</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="AB132" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="5">
         <v>2017</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="5">
         <v>284</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="AB133" s="5" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="2">
         <v>2012</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="AB134" s="2" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="2">
         <v>1998</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="AB135" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="2">
         <v>2018</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="AB136" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="2">
         <v>2012</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="AB137" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="8">
         <v>2013</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="139" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="2">
         <v>2013</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="AB139" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="2">
         <v>2012</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="2">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="AB140" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="2">
         <v>2011</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="2">
         <v>165</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="AB141" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="2">
         <v>2014</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="AB142" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="8">
         <v>2011</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>604</v>
       </c>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32360" yWindow="500" windowWidth="32180" windowHeight="20120"/>
+    <workbookView xWindow="33760" yWindow="1600" windowWidth="26080" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="1323">
   <si>
     <t>Key</t>
   </si>
@@ -4457,9 +4457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A145" sqref="A145"/>
+      <selection pane="topRight" activeCell="K170" sqref="K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10071,215 +10071,230 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="144" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="2">
         <v>2016</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="AB144" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="2">
         <v>1996</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="AB145" s="2" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="8">
         <v>2015</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="8">
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="147" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="2">
         <v>2016</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="AB147" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="2">
         <v>2017</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="2">
         <v>220</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="AB148" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="8">
         <v>2012</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="150" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="2">
         <v>2013</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="AB150" s="2" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="8">
         <v>2005</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="8">
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>649</v>
       </c>
@@ -10305,163 +10320,178 @@
         <v>133</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="153" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="2">
         <v>2018</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="AB153" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="2">
         <v>2013</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="AB154" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="2">
         <v>2018</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="AB155" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="2">
         <v>2010</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="AB156" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="2">
         <v>2017</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="AB157" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="8">
         <v>2017</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="8">
         <v>86</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>688</v>
       </c>
@@ -10487,111 +10517,120 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="160" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="8">
         <v>2016</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="161" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="2">
         <v>2005</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="AB161" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="2">
         <v>2014</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H162" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="I162" t="s">
+      <c r="I162" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="AB162" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="2">
         <v>2016</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB163" s="2" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>717</v>
       </c>
@@ -10614,7 +10653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>721</v>
       </c>
@@ -10643,7 +10682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>726</v>
       </c>
@@ -10669,7 +10708,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>731</v>
       </c>
@@ -10698,7 +10737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>736</v>
       </c>
@@ -10724,7 +10763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>741</v>
       </c>
@@ -10750,7 +10789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>747</v>
       </c>
@@ -10776,7 +10815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>752</v>
       </c>
@@ -10802,7 +10841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>757</v>
       </c>
@@ -10828,7 +10867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>762</v>
       </c>
@@ -10857,7 +10896,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>769</v>
       </c>
@@ -10886,7 +10925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>776</v>
       </c>
@@ -10912,7 +10951,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>781</v>
       </c>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33760" yWindow="1600" windowWidth="26080" windowHeight="16020"/>
+    <workbookView xWindow="34740" yWindow="1540" windowWidth="26820" windowHeight="15640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1328">
   <si>
     <t>Key</t>
   </si>
@@ -2308,9 +2308,6 @@
     <t>9K5MKM4T</t>
   </si>
   <si>
-    <t>Nemiroff, L.; , Despl; , E.</t>
-  </si>
-  <si>
     <t>consistent individual differences in the foraging behaviour of forest tent caterpillars (malacosoma disstria)</t>
   </si>
   <si>
@@ -3989,6 +3986,24 @@
   </si>
   <si>
     <t>Only one repeatability measured</t>
+  </si>
+  <si>
+    <t>Check with Holger</t>
+  </si>
+  <si>
+    <t>Repeatability over temperature gradients, time unknown</t>
+  </si>
+  <si>
+    <t>Repeatability per treatment group, not over time</t>
+  </si>
+  <si>
+    <t>Nemiroff, L.; , Despland , E.</t>
+  </si>
+  <si>
+    <t>No repeatability effect size</t>
+  </si>
+  <si>
+    <t>Repatability across treatments, not across time</t>
   </si>
 </sst>
 </file>
@@ -4012,7 +4027,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4079,6 +4094,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4092,7 +4113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4112,6 +4133,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4457,9 +4479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K170" sqref="K170"/>
+      <selection pane="topRight" activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4512,10 +4534,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -4615,7 +4637,7 @@
         <v>134</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="L3" s="2">
         <v>22</v>
@@ -4630,15 +4652,15 @@
         <v>0</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -4659,7 +4681,7 @@
         <v>281</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L4" s="2">
         <v>69</v>
@@ -4668,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4697,10 +4719,10 @@
         <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -4755,7 +4777,7 @@
         <v>123</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L7" s="3">
         <v>96</v>
@@ -4764,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O7" s="3">
         <v>1</v>
@@ -4773,25 +4795,25 @@
         <v>2</v>
       </c>
       <c r="Q7" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>1193</v>
-      </c>
       <c r="T7" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>1222</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>1223</v>
       </c>
       <c r="Y7" s="3">
         <v>844</v>
@@ -4803,7 +4825,7 @@
         <v>190</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4832,7 +4854,7 @@
         <v>123</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L8" s="3">
         <v>48</v>
@@ -4841,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -4850,23 +4872,23 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>1225</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>1226</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>1227</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>1228</v>
       </c>
       <c r="Y8" s="3">
         <v>1034</v>
@@ -4904,7 +4926,7 @@
         <v>123</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L9" s="3">
         <v>48</v>
@@ -4913,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O9" s="3">
         <v>1</v>
@@ -4922,22 +4944,22 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T9" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>1230</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>1231</v>
       </c>
       <c r="Y9" s="3">
         <v>844</v>
@@ -4975,7 +4997,7 @@
         <v>123</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L10" s="3">
         <v>48</v>
@@ -4984,7 +5006,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
@@ -4993,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>1232</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>1233</v>
       </c>
       <c r="Y10" s="3">
         <v>1034</v>
@@ -5046,7 +5068,7 @@
         <v>123</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L11" s="3">
         <v>48</v>
@@ -5055,7 +5077,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
@@ -5064,22 +5086,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Y11" s="3">
         <v>844</v>
@@ -5117,7 +5139,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L12" s="3">
         <v>96</v>
@@ -5126,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O12" s="3">
         <v>1</v>
@@ -5135,25 +5157,25 @@
         <v>2</v>
       </c>
       <c r="Q12" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>1193</v>
-      </c>
       <c r="T12" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>1219</v>
-      </c>
       <c r="W12" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Y12" s="3">
         <v>844</v>
@@ -5191,7 +5213,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L13" s="3">
         <v>48</v>
@@ -5200,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O13" s="3">
         <v>1</v>
@@ -5209,22 +5231,22 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T13" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>1236</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>1237</v>
       </c>
       <c r="Y13" s="3">
         <v>1034</v>
@@ -5262,7 +5284,7 @@
         <v>123</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L14" s="3">
         <v>48</v>
@@ -5271,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
@@ -5280,22 +5302,22 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T14" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>1239</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>1240</v>
       </c>
       <c r="Y14" s="3">
         <v>844</v>
@@ -5333,7 +5355,7 @@
         <v>123</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L15" s="3">
         <v>48</v>
@@ -5342,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O15" s="3">
         <v>1</v>
@@ -5351,22 +5373,22 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T15" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>1232</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>1233</v>
       </c>
       <c r="Y15" s="3">
         <v>1034</v>
@@ -5404,7 +5426,7 @@
         <v>123</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L16" s="3">
         <v>48</v>
@@ -5413,7 +5435,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="O16" s="3">
         <v>1</v>
@@ -5422,22 +5444,22 @@
         <v>0</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T16" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="V16" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>1239</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>1240</v>
       </c>
       <c r="Y16" s="3">
         <v>844</v>
@@ -5475,7 +5497,7 @@
         <v>123</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L17" s="3">
         <v>96</v>
@@ -5484,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O17" s="3">
         <v>1</v>
@@ -5493,25 +5515,25 @@
         <v>2</v>
       </c>
       <c r="Q17" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>1193</v>
-      </c>
       <c r="T17" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>1214</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>1215</v>
       </c>
       <c r="Y17" s="3">
         <v>844</v>
@@ -5549,7 +5571,7 @@
         <v>123</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L18" s="3">
         <v>48</v>
@@ -5558,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O18" s="3">
         <v>1</v>
@@ -5567,22 +5589,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T18" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>1242</v>
-      </c>
       <c r="W18" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="Y18" s="3">
         <v>1034</v>
@@ -5620,7 +5642,7 @@
         <v>123</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L19" s="3">
         <v>48</v>
@@ -5629,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O19" s="3">
         <v>1</v>
@@ -5638,22 +5660,22 @@
         <v>0</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T19" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>1244</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>1245</v>
       </c>
       <c r="Y19" s="3">
         <v>844</v>
@@ -5691,7 +5713,7 @@
         <v>123</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L20" s="3">
         <v>48</v>
@@ -5700,7 +5722,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O20" s="3">
         <v>1</v>
@@ -5709,22 +5731,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Y20" s="3">
         <v>1034</v>
@@ -5762,7 +5784,7 @@
         <v>123</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L21" s="3">
         <v>48</v>
@@ -5771,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O21" s="3">
         <v>1</v>
@@ -5780,22 +5802,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="V21" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>1247</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>1248</v>
       </c>
       <c r="Y21" s="3">
         <v>844</v>
@@ -5833,7 +5855,7 @@
         <v>123</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L22" s="3">
         <v>96</v>
@@ -5842,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="O22" s="3">
         <v>1</v>
@@ -5851,25 +5873,25 @@
         <v>2</v>
       </c>
       <c r="Q22" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>1193</v>
-      </c>
       <c r="T22" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="V22" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>1209</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>1210</v>
       </c>
       <c r="Y22" s="3">
         <v>844</v>
@@ -5907,7 +5929,7 @@
         <v>123</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L23" s="3">
         <v>48</v>
@@ -5916,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="O23" s="3">
         <v>1</v>
@@ -5925,22 +5947,22 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Y23" s="3">
         <v>1034</v>
@@ -5978,7 +6000,7 @@
         <v>123</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L24" s="3">
         <v>48</v>
@@ -5987,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="O24" s="3">
         <v>1</v>
@@ -5996,22 +6018,22 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="Y24" s="3">
         <v>844</v>
@@ -6049,7 +6071,7 @@
         <v>123</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L25" s="3">
         <v>48</v>
@@ -6058,7 +6080,7 @@
         <v>2</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="O25" s="3">
         <v>1</v>
@@ -6067,22 +6089,22 @@
         <v>0</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Y25" s="3">
         <v>1034</v>
@@ -6120,7 +6142,7 @@
         <v>123</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L26" s="3">
         <v>48</v>
@@ -6129,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="O26" s="3">
         <v>1</v>
@@ -6138,22 +6160,22 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T26" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>1252</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>1253</v>
       </c>
       <c r="Y26" s="3">
         <v>844</v>
@@ -6191,7 +6213,7 @@
         <v>123</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L27" s="3">
         <v>96</v>
@@ -6200,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="O27" s="3">
         <v>1</v>
@@ -6209,25 +6231,25 @@
         <v>2</v>
       </c>
       <c r="Q27" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S27" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>1193</v>
-      </c>
       <c r="T27" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V27" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="W27" s="3" t="s">
         <v>1205</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>1206</v>
       </c>
       <c r="Y27" s="3">
         <v>844</v>
@@ -6265,7 +6287,7 @@
         <v>123</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L28" s="3">
         <v>48</v>
@@ -6274,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="O28" s="3">
         <v>1</v>
@@ -6283,22 +6305,22 @@
         <v>0</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Y28" s="3">
         <v>1034</v>
@@ -6336,7 +6358,7 @@
         <v>123</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L29" s="3">
         <v>48</v>
@@ -6345,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="O29" s="3">
         <v>1</v>
@@ -6354,22 +6376,22 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="V29" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>1255</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>1256</v>
       </c>
       <c r="Y29" s="3">
         <v>844</v>
@@ -6407,7 +6429,7 @@
         <v>123</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L30" s="3">
         <v>48</v>
@@ -6416,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="O30" s="3">
         <v>1</v>
@@ -6425,22 +6447,22 @@
         <v>0</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Y30" s="3">
         <v>1034</v>
@@ -6478,7 +6500,7 @@
         <v>123</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L31" s="3">
         <v>48</v>
@@ -6487,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="O31" s="3">
         <v>1</v>
@@ -6496,22 +6518,22 @@
         <v>0</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Y31" s="3">
         <v>844</v>
@@ -6549,7 +6571,7 @@
         <v>123</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L32" s="3">
         <v>96</v>
@@ -6558,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O32" s="3">
         <v>1</v>
@@ -6567,25 +6589,25 @@
         <v>2</v>
       </c>
       <c r="Q32" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>1193</v>
-      </c>
       <c r="T32" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>1203</v>
-      </c>
-      <c r="V32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>1201</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>1202</v>
       </c>
       <c r="Y32" s="3">
         <v>844</v>
@@ -6623,7 +6645,7 @@
         <v>123</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L33" s="3">
         <v>48</v>
@@ -6632,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O33" s="3">
         <v>1</v>
@@ -6641,22 +6663,22 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T33" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="V33" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>1259</v>
-      </c>
       <c r="W33" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="Y33" s="3">
         <v>1034</v>
@@ -6694,7 +6716,7 @@
         <v>123</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L34" s="3">
         <v>48</v>
@@ -6703,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O34" s="3">
         <v>1</v>
@@ -6712,22 +6734,22 @@
         <v>0</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Y34" s="3">
         <v>844</v>
@@ -6765,7 +6787,7 @@
         <v>123</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L35" s="3">
         <v>48</v>
@@ -6774,7 +6796,7 @@
         <v>2</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O35" s="3">
         <v>1</v>
@@ -6783,22 +6805,22 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="V35" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>1226</v>
-      </c>
       <c r="W35" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="Y35" s="3">
         <v>1034</v>
@@ -6836,7 +6858,7 @@
         <v>123</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L36" s="3">
         <v>48</v>
@@ -6845,7 +6867,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O36" s="3">
         <v>1</v>
@@ -6854,22 +6876,22 @@
         <v>0</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Y36" s="3">
         <v>844</v>
@@ -6907,7 +6929,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L37" s="3">
         <v>96</v>
@@ -6916,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O37" s="3">
         <v>1</v>
@@ -6925,25 +6947,25 @@
         <v>2</v>
       </c>
       <c r="Q37" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S37" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="R37" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>1193</v>
-      </c>
       <c r="T37" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="V37" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="U37" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="V37" s="3" t="s">
+      <c r="W37" s="3" t="s">
         <v>1196</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>1197</v>
       </c>
       <c r="Y37" s="3">
         <v>844</v>
@@ -6981,7 +7003,7 @@
         <v>123</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L38" s="3">
         <v>48</v>
@@ -6990,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O38" s="3">
         <v>1</v>
@@ -6999,22 +7021,22 @@
         <v>0</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="V38" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="W38" s="3" t="s">
         <v>1262</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>1263</v>
       </c>
       <c r="Y38" s="3">
         <v>1034</v>
@@ -7052,7 +7074,7 @@
         <v>123</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L39" s="3">
         <v>48</v>
@@ -7061,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O39" s="3">
         <v>1</v>
@@ -7070,22 +7092,22 @@
         <v>0</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Y39" s="3">
         <v>844</v>
@@ -7123,7 +7145,7 @@
         <v>123</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L40" s="3">
         <v>48</v>
@@ -7132,7 +7154,7 @@
         <v>2</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O40" s="3">
         <v>1</v>
@@ -7141,22 +7163,22 @@
         <v>0</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Y40" s="3">
         <v>1034</v>
@@ -7194,7 +7216,7 @@
         <v>123</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L41" s="3">
         <v>48</v>
@@ -7203,7 +7225,7 @@
         <v>2</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O41" s="3">
         <v>1</v>
@@ -7212,22 +7234,22 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="Y41" s="3">
         <v>844</v>
@@ -7265,7 +7287,7 @@
         <v>108</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7320,7 +7342,7 @@
         <v>65</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -7375,7 +7397,7 @@
         <v>8</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -7430,7 +7452,7 @@
         <v>136</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7462,7 +7484,7 @@
         <v>105</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7517,7 +7539,7 @@
         <v>8</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7546,7 +7568,7 @@
         <v>182</v>
       </c>
       <c r="AB52" s="12" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="53" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7601,7 +7623,7 @@
         <v>6</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -7630,7 +7652,7 @@
         <v>279</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7659,7 +7681,7 @@
         <v>123</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
@@ -7714,7 +7736,7 @@
         <v>123</v>
       </c>
       <c r="AB58" s="6" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="59" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7743,7 +7765,7 @@
         <v>34</v>
       </c>
       <c r="AB59" s="6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="60" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -7772,7 +7794,7 @@
         <v>123</v>
       </c>
       <c r="AB60" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7827,7 +7849,7 @@
         <v>5</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="63" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7856,7 +7878,7 @@
         <v>35</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="64" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7885,7 +7907,7 @@
         <v>7</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="65" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7914,7 +7936,7 @@
         <v>62</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="66" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7946,7 +7968,7 @@
         <v>57</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="67" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7975,7 +7997,7 @@
         <v>48</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="68" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8004,7 +8026,7 @@
         <v>118</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="69" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8033,7 +8055,7 @@
         <v>56</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="70" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8140,7 +8162,7 @@
         <v>18</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="74" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8169,7 +8191,7 @@
         <v>83</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="75" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8198,7 +8220,7 @@
         <v>135</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="76" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8253,7 +8275,7 @@
         <v>30</v>
       </c>
       <c r="AB77" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="78" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8282,7 +8304,7 @@
         <v>23</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8389,7 +8411,7 @@
         <v>64</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="83" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8418,7 +8440,7 @@
         <v>37</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8447,7 +8469,7 @@
         <v>79</v>
       </c>
       <c r="AB84" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="85" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8476,7 +8498,7 @@
         <v>23</v>
       </c>
       <c r="AB85" s="13" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="86" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8505,7 +8527,7 @@
         <v>157</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="87" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8534,7 +8556,7 @@
         <v>54</v>
       </c>
       <c r="AB87" s="8" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
@@ -8615,7 +8637,7 @@
         <v>21</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="91" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -8641,7 +8663,7 @@
         <v>282</v>
       </c>
       <c r="AB91" s="5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="92" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8667,7 +8689,7 @@
         <v>13</v>
       </c>
       <c r="AB92" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="93" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8696,7 +8718,7 @@
         <v>25</v>
       </c>
       <c r="AB93" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="94" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -8725,7 +8747,7 @@
         <v>115</v>
       </c>
       <c r="AB94" s="14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="95" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8783,7 +8805,7 @@
         <v>69</v>
       </c>
       <c r="AB96" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="97" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8812,7 +8834,7 @@
         <v>152</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="98" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8841,7 +8863,7 @@
         <v>116</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="99" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8870,7 +8892,7 @@
         <v>131</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="100" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8922,7 +8944,7 @@
         <v>12</v>
       </c>
       <c r="AB101" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
@@ -8976,7 +8998,7 @@
     </row>
     <row r="104" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>396</v>
@@ -9026,7 +9048,7 @@
         <v>24</v>
       </c>
       <c r="AB105" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -9084,7 +9106,7 @@
         <v>153</v>
       </c>
       <c r="AB107" s="15" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="108" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9139,7 +9161,7 @@
         <v>224</v>
       </c>
       <c r="AB109" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="110" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9220,7 +9242,7 @@
         <v>66</v>
       </c>
       <c r="AB112" s="14" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="113" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9249,7 +9271,7 @@
         <v>79</v>
       </c>
       <c r="AB113" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="114" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9301,7 +9323,7 @@
         <v>28</v>
       </c>
       <c r="AB115" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="116" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9353,7 +9375,7 @@
         <v>35</v>
       </c>
       <c r="AB117" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="118" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9379,7 +9401,7 @@
         <v>9</v>
       </c>
       <c r="AB118" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
@@ -9431,7 +9453,7 @@
         <v>284</v>
       </c>
       <c r="AB120" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="121" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9460,7 +9482,7 @@
         <v>329</v>
       </c>
       <c r="AB121" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="122" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -9486,7 +9508,7 @@
         <v>57</v>
       </c>
       <c r="AB122" s="16" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="123" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9512,7 +9534,7 @@
         <v>12</v>
       </c>
       <c r="AB123" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="124" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9587,7 +9609,7 @@
         <v>82</v>
       </c>
       <c r="AB126" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
@@ -9668,7 +9690,7 @@
         <v>27</v>
       </c>
       <c r="AB129" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="130" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9697,7 +9719,7 @@
         <v>174</v>
       </c>
       <c r="AB130" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.2">
@@ -9752,7 +9774,7 @@
         <v>49</v>
       </c>
       <c r="AB132" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="133" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -9778,7 +9800,7 @@
         <v>284</v>
       </c>
       <c r="AB133" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="134" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9807,7 +9829,7 @@
         <v>114</v>
       </c>
       <c r="AB134" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="135" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9836,7 +9858,7 @@
         <v>57</v>
       </c>
       <c r="AB135" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="136" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9865,7 +9887,7 @@
         <v>31</v>
       </c>
       <c r="AB136" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="137" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9894,7 +9916,7 @@
         <v>84</v>
       </c>
       <c r="AB137" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="138" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9952,7 +9974,7 @@
         <v>68</v>
       </c>
       <c r="AB139" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="140" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9984,7 +10006,7 @@
         <v>139</v>
       </c>
       <c r="AB140" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="141" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10013,7 +10035,7 @@
         <v>165</v>
       </c>
       <c r="AB141" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="142" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10042,7 +10064,7 @@
         <v>68</v>
       </c>
       <c r="AB142" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="143" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10097,7 +10119,7 @@
         <v>2</v>
       </c>
       <c r="AB144" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="145" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10126,7 +10148,7 @@
         <v>27</v>
       </c>
       <c r="AB145" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="146" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10181,7 +10203,7 @@
         <v>180</v>
       </c>
       <c r="AB147" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="148" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10210,7 +10232,7 @@
         <v>220</v>
       </c>
       <c r="AB148" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="149" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10265,7 +10287,7 @@
         <v>91</v>
       </c>
       <c r="AB150" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="151" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10349,7 +10371,7 @@
         <v>157</v>
       </c>
       <c r="AB153" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="154" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10378,7 +10400,7 @@
         <v>75</v>
       </c>
       <c r="AB154" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="155" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10404,7 +10426,7 @@
         <v>671</v>
       </c>
       <c r="AB155" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="156" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10433,7 +10455,7 @@
         <v>79</v>
       </c>
       <c r="AB156" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="157" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10462,7 +10484,7 @@
         <v>126</v>
       </c>
       <c r="AB157" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="158" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10569,7 +10591,7 @@
         <v>142</v>
       </c>
       <c r="AB161" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="162" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10598,7 +10620,7 @@
         <v>60</v>
       </c>
       <c r="AB162" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="163" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10627,715 +10649,751 @@
         <v>132</v>
       </c>
       <c r="AB163" s="2" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="2">
         <v>2017</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="AB164" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="17">
         <v>1994</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H165" s="17" t="s">
         <v>723</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="17">
         <v>47</v>
       </c>
-    </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="AB165" s="17" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="17" t="s">
         <v>726</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="17">
         <v>2010</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H166" s="17" t="s">
         <v>728</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" s="17" t="s">
         <v>729</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="17">
         <v>80</v>
       </c>
-    </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="AB166" s="17" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="8">
         <v>2008</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H167" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="168" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="2">
         <v>2018</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H168" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="J168">
+      <c r="J168" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="AB168" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="2">
         <v>2010</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H169" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I169" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="AB169" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="2">
         <v>2016</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H170" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I170" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="J170">
+      <c r="J170" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="AB170" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="2">
         <v>2016</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H171" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I171" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="J171">
+      <c r="J171" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="AB171" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="8">
         <v>2008</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H172" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="J172">
+      <c r="J172" s="8">
         <v>114</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="173" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="C173" s="8">
+        <v>2007</v>
+      </c>
+      <c r="D173" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="B173" t="s">
-        <v>761</v>
-      </c>
-      <c r="C173">
+      <c r="E173" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="J173" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C174" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="J174" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB174" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C175" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="J175" s="2">
+        <v>119</v>
+      </c>
+      <c r="AB175" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C176" s="2">
         <v>2007</v>
       </c>
-      <c r="D173" t="s">
-        <v>763</v>
-      </c>
-      <c r="E173" t="s">
-        <v>764</v>
-      </c>
-      <c r="G173" t="s">
-        <v>765</v>
-      </c>
-      <c r="H173" t="s">
-        <v>766</v>
-      </c>
-      <c r="I173" t="s">
-        <v>767</v>
-      </c>
-      <c r="J173">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>769</v>
-      </c>
-      <c r="B174" t="s">
-        <v>768</v>
-      </c>
-      <c r="C174">
+      <c r="D176" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="J176" s="2">
+        <v>124</v>
+      </c>
+      <c r="AB176" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C177" s="8">
         <v>2012</v>
       </c>
-      <c r="D174" t="s">
-        <v>770</v>
-      </c>
-      <c r="E174" t="s">
-        <v>771</v>
-      </c>
-      <c r="G174" t="s">
-        <v>772</v>
-      </c>
-      <c r="H174" t="s">
-        <v>773</v>
-      </c>
-      <c r="I174" t="s">
-        <v>774</v>
-      </c>
-      <c r="J174">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>776</v>
-      </c>
-      <c r="B175" t="s">
-        <v>775</v>
-      </c>
-      <c r="C175">
-        <v>2013</v>
-      </c>
-      <c r="D175" t="s">
-        <v>777</v>
-      </c>
-      <c r="E175" t="s">
-        <v>57</v>
-      </c>
-      <c r="H175" t="s">
-        <v>778</v>
-      </c>
-      <c r="I175" t="s">
-        <v>779</v>
-      </c>
-      <c r="J175">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>781</v>
-      </c>
-      <c r="B176" t="s">
-        <v>780</v>
-      </c>
-      <c r="C176">
-        <v>2007</v>
-      </c>
-      <c r="D176" t="s">
-        <v>782</v>
-      </c>
-      <c r="E176" t="s">
-        <v>783</v>
-      </c>
-      <c r="H176" t="s">
-        <v>784</v>
-      </c>
-      <c r="I176" t="s">
-        <v>785</v>
-      </c>
-      <c r="J176">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="D177" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="B177" t="s">
-        <v>786</v>
-      </c>
-      <c r="C177">
-        <v>2012</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="E177" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H177" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="E177" t="s">
-        <v>132</v>
-      </c>
-      <c r="H177" t="s">
+      <c r="I177" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="I177" t="s">
+      <c r="J177" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="J177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="C178" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B178" t="s">
-        <v>791</v>
-      </c>
-      <c r="C178">
+      <c r="E178" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="J178" s="2">
+        <v>585</v>
+      </c>
+      <c r="AB178" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C179" s="2">
         <v>2017</v>
       </c>
-      <c r="D178" t="s">
-        <v>793</v>
-      </c>
-      <c r="E178" t="s">
-        <v>794</v>
-      </c>
-      <c r="G178" t="s">
-        <v>795</v>
-      </c>
-      <c r="H178" t="s">
-        <v>796</v>
-      </c>
-      <c r="I178" t="s">
-        <v>797</v>
-      </c>
-      <c r="J178">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="D179" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="B179" t="s">
-        <v>798</v>
-      </c>
-      <c r="C179">
-        <v>2017</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="E179" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="E179" t="s">
-        <v>63</v>
-      </c>
-      <c r="H179" t="s">
+      <c r="I179" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="I179" t="s">
+      <c r="J179" s="2">
+        <v>123</v>
+      </c>
+      <c r="AB179" s="2" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>803</v>
+      </c>
+      <c r="B180" t="s">
         <v>802</v>
-      </c>
-      <c r="J179">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>804</v>
-      </c>
-      <c r="B180" t="s">
-        <v>803</v>
       </c>
       <c r="C180">
         <v>2009</v>
       </c>
       <c r="D180" t="s">
+        <v>804</v>
+      </c>
+      <c r="E180" t="s">
+        <v>770</v>
+      </c>
+      <c r="G180" t="s">
+        <v>771</v>
+      </c>
+      <c r="H180" t="s">
         <v>805</v>
       </c>
-      <c r="E180" t="s">
-        <v>771</v>
-      </c>
-      <c r="G180" t="s">
-        <v>772</v>
-      </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
         <v>806</v>
-      </c>
-      <c r="I180" t="s">
-        <v>807</v>
       </c>
       <c r="J180">
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B181" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C181">
         <v>2012</v>
       </c>
       <c r="D181" t="s">
+        <v>809</v>
+      </c>
+      <c r="E181" t="s">
         <v>810</v>
       </c>
-      <c r="E181" t="s">
+      <c r="G181" t="s">
         <v>811</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>812</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>813</v>
-      </c>
-      <c r="I181" t="s">
-        <v>814</v>
       </c>
       <c r="J181">
         <v>85</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B182" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C182">
         <v>2013</v>
       </c>
       <c r="D182" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E182" t="s">
         <v>132</v>
       </c>
       <c r="H182" t="s">
+        <v>817</v>
+      </c>
+      <c r="I182" t="s">
         <v>818</v>
-      </c>
-      <c r="I182" t="s">
-        <v>819</v>
       </c>
       <c r="J182">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B183" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C183">
         <v>2014</v>
       </c>
       <c r="D183" t="s">
+        <v>821</v>
+      </c>
+      <c r="E183" t="s">
         <v>822</v>
       </c>
-      <c r="E183" t="s">
+      <c r="H183" t="s">
         <v>823</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>824</v>
-      </c>
-      <c r="I183" t="s">
-        <v>825</v>
       </c>
       <c r="J183">
         <v>123</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B184" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C184">
         <v>2015</v>
       </c>
       <c r="D184" t="s">
+        <v>827</v>
+      </c>
+      <c r="E184" t="s">
         <v>828</v>
       </c>
-      <c r="E184" t="s">
+      <c r="H184" t="s">
         <v>829</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>830</v>
-      </c>
-      <c r="I184" t="s">
-        <v>831</v>
       </c>
       <c r="J184">
         <v>46</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B185" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C185">
         <v>2016</v>
       </c>
       <c r="D185" t="s">
+        <v>833</v>
+      </c>
+      <c r="E185" t="s">
+        <v>782</v>
+      </c>
+      <c r="H185" t="s">
         <v>834</v>
       </c>
-      <c r="E185" t="s">
-        <v>783</v>
-      </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>835</v>
-      </c>
-      <c r="I185" t="s">
-        <v>836</v>
       </c>
       <c r="J185">
         <v>133</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B186" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C186">
         <v>2013</v>
       </c>
       <c r="D186" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E186" t="s">
         <v>63</v>
       </c>
       <c r="H186" t="s">
+        <v>839</v>
+      </c>
+      <c r="I186" t="s">
         <v>840</v>
-      </c>
-      <c r="I186" t="s">
-        <v>841</v>
       </c>
       <c r="J186">
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B187" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C187">
         <v>2010</v>
       </c>
       <c r="D187" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E187" t="s">
         <v>35</v>
       </c>
       <c r="H187" t="s">
+        <v>844</v>
+      </c>
+      <c r="I187" t="s">
         <v>845</v>
-      </c>
-      <c r="I187" t="s">
-        <v>846</v>
       </c>
       <c r="J187">
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B188" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C188">
         <v>2016</v>
       </c>
       <c r="D188" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E188" t="s">
         <v>45</v>
       </c>
       <c r="H188" t="s">
+        <v>849</v>
+      </c>
+      <c r="I188" t="s">
         <v>850</v>
-      </c>
-      <c r="I188" t="s">
-        <v>851</v>
       </c>
       <c r="J188">
         <v>70</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B189" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C189">
         <v>1994</v>
       </c>
       <c r="D189" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E189" t="s">
         <v>342</v>
       </c>
       <c r="H189" t="s">
+        <v>854</v>
+      </c>
+      <c r="I189" t="s">
         <v>855</v>
-      </c>
-      <c r="I189" t="s">
-        <v>856</v>
       </c>
       <c r="J189">
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B190" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C190">
         <v>2015</v>
       </c>
       <c r="D190" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E190" t="s">
         <v>358</v>
@@ -11344,85 +11402,85 @@
         <v>359</v>
       </c>
       <c r="H190" t="s">
+        <v>859</v>
+      </c>
+      <c r="I190" t="s">
         <v>860</v>
-      </c>
-      <c r="I190" t="s">
-        <v>861</v>
       </c>
       <c r="J190">
         <v>69</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B191" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C191">
         <v>2009</v>
       </c>
       <c r="D191" t="s">
+        <v>863</v>
+      </c>
+      <c r="E191" t="s">
         <v>864</v>
       </c>
-      <c r="E191" t="s">
+      <c r="G191" t="s">
         <v>865</v>
       </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>866</v>
       </c>
-      <c r="H191" t="s">
+      <c r="I191" t="s">
         <v>867</v>
-      </c>
-      <c r="I191" t="s">
-        <v>868</v>
       </c>
       <c r="J191">
         <v>121</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B192" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C192">
         <v>2018</v>
       </c>
       <c r="D192" t="s">
+        <v>870</v>
+      </c>
+      <c r="E192" t="s">
         <v>871</v>
       </c>
-      <c r="E192" t="s">
+      <c r="H192" t="s">
         <v>872</v>
-      </c>
-      <c r="H192" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B193" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C193">
         <v>2016</v>
       </c>
       <c r="D193" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E193" t="s">
         <v>57</v>
       </c>
       <c r="H193" t="s">
+        <v>876</v>
+      </c>
+      <c r="I193" t="s">
         <v>877</v>
-      </c>
-      <c r="I193" t="s">
-        <v>878</v>
       </c>
       <c r="J193">
         <v>122</v>
@@ -11430,22 +11488,22 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B194" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C194">
         <v>2017</v>
       </c>
       <c r="D194" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E194" t="s">
         <v>389</v>
       </c>
       <c r="H194" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J194">
         <v>4</v>
@@ -11453,25 +11511,25 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B195" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C195">
         <v>2012</v>
       </c>
       <c r="D195" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E195" t="s">
         <v>342</v>
       </c>
       <c r="H195" t="s">
+        <v>885</v>
+      </c>
+      <c r="I195" t="s">
         <v>886</v>
-      </c>
-      <c r="I195" t="s">
-        <v>887</v>
       </c>
       <c r="J195">
         <v>23</v>
@@ -11479,25 +11537,25 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B196" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C196">
         <v>2011</v>
       </c>
       <c r="D196" t="s">
+        <v>889</v>
+      </c>
+      <c r="E196" t="s">
         <v>890</v>
       </c>
-      <c r="E196" t="s">
+      <c r="H196" t="s">
         <v>891</v>
       </c>
-      <c r="H196" t="s">
+      <c r="I196" t="s">
         <v>892</v>
-      </c>
-      <c r="I196" t="s">
-        <v>893</v>
       </c>
       <c r="J196">
         <v>89</v>
@@ -11505,51 +11563,51 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B197" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C197">
         <v>2018</v>
       </c>
       <c r="D197" t="s">
+        <v>895</v>
+      </c>
+      <c r="E197" t="s">
         <v>896</v>
       </c>
-      <c r="E197" t="s">
+      <c r="G197" t="s">
         <v>897</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>898</v>
-      </c>
-      <c r="H197" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B198" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C198">
         <v>2017</v>
       </c>
       <c r="D198" t="s">
+        <v>901</v>
+      </c>
+      <c r="E198" t="s">
         <v>902</v>
       </c>
-      <c r="E198" t="s">
+      <c r="G198" t="s">
         <v>903</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>904</v>
       </c>
-      <c r="H198" t="s">
+      <c r="I198" t="s">
         <v>905</v>
-      </c>
-      <c r="I198" t="s">
-        <v>906</v>
       </c>
       <c r="J198">
         <v>28</v>
@@ -11557,22 +11615,22 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B199" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C199">
         <v>2018</v>
       </c>
       <c r="D199" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E199" t="s">
         <v>45</v>
       </c>
       <c r="H199" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J199">
         <v>72</v>
@@ -11580,25 +11638,25 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B200" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C200">
         <v>2008</v>
       </c>
       <c r="D200" t="s">
+        <v>912</v>
+      </c>
+      <c r="E200" t="s">
         <v>913</v>
       </c>
-      <c r="E200" t="s">
+      <c r="H200" t="s">
         <v>914</v>
       </c>
-      <c r="H200" t="s">
+      <c r="I200" t="s">
         <v>915</v>
-      </c>
-      <c r="I200" t="s">
-        <v>916</v>
       </c>
       <c r="J200">
         <v>18</v>
@@ -11606,25 +11664,25 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B201" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C201">
         <v>2008</v>
       </c>
       <c r="D201" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E201" t="s">
         <v>63</v>
       </c>
       <c r="H201" t="s">
+        <v>919</v>
+      </c>
+      <c r="I201" t="s">
         <v>920</v>
-      </c>
-      <c r="I201" t="s">
-        <v>921</v>
       </c>
       <c r="J201">
         <v>75</v>
@@ -11632,25 +11690,25 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B202" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C202">
         <v>2018</v>
       </c>
       <c r="D202" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E202" t="s">
         <v>467</v>
       </c>
       <c r="H202" t="s">
+        <v>924</v>
+      </c>
+      <c r="I202" t="s">
         <v>925</v>
-      </c>
-      <c r="I202" t="s">
-        <v>926</v>
       </c>
       <c r="J202">
         <v>36</v>
@@ -11658,25 +11716,25 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B203" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C203">
         <v>2015</v>
       </c>
       <c r="D203" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E203" t="s">
         <v>63</v>
       </c>
       <c r="H203" t="s">
+        <v>929</v>
+      </c>
+      <c r="I203" t="s">
         <v>930</v>
-      </c>
-      <c r="I203" t="s">
-        <v>931</v>
       </c>
       <c r="J203">
         <v>107</v>
@@ -11684,16 +11742,16 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B204" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C204">
         <v>2016</v>
       </c>
       <c r="D204" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E204" t="s">
         <v>103</v>
@@ -11702,10 +11760,10 @@
         <v>104</v>
       </c>
       <c r="H204" t="s">
+        <v>934</v>
+      </c>
+      <c r="I204" t="s">
         <v>935</v>
-      </c>
-      <c r="I204" t="s">
-        <v>936</v>
       </c>
       <c r="J204">
         <v>165</v>
@@ -11713,25 +11771,25 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B205" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C205">
         <v>2018</v>
       </c>
       <c r="D205" t="s">
+        <v>937</v>
+      </c>
+      <c r="E205" t="s">
         <v>938</v>
       </c>
-      <c r="E205" t="s">
+      <c r="H205" t="s">
         <v>939</v>
       </c>
-      <c r="H205" t="s">
+      <c r="I205" t="s">
         <v>940</v>
-      </c>
-      <c r="I205" t="s">
-        <v>941</v>
       </c>
       <c r="J205">
         <v>99</v>
@@ -11739,25 +11797,25 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B206" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C206">
         <v>2011</v>
       </c>
       <c r="D206" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E206" t="s">
         <v>342</v>
       </c>
       <c r="H206" t="s">
+        <v>944</v>
+      </c>
+      <c r="I206" t="s">
         <v>945</v>
-      </c>
-      <c r="I206" t="s">
-        <v>946</v>
       </c>
       <c r="J206">
         <v>22</v>
@@ -11765,22 +11823,22 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B207" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C207">
         <v>2017</v>
       </c>
       <c r="D207" t="s">
+        <v>948</v>
+      </c>
+      <c r="E207" t="s">
         <v>949</v>
       </c>
-      <c r="E207" t="s">
+      <c r="H207" t="s">
         <v>950</v>
-      </c>
-      <c r="H207" t="s">
-        <v>951</v>
       </c>
       <c r="J207">
         <v>104</v>
@@ -11788,25 +11846,25 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B208" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C208">
         <v>2003</v>
       </c>
       <c r="D208" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E208" t="s">
         <v>57</v>
       </c>
       <c r="H208" t="s">
+        <v>954</v>
+      </c>
+      <c r="I208" t="s">
         <v>955</v>
-      </c>
-      <c r="I208" t="s">
-        <v>956</v>
       </c>
       <c r="J208">
         <v>109</v>
@@ -11814,25 +11872,25 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B209" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C209">
         <v>2012</v>
       </c>
       <c r="D209" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E209" t="s">
         <v>63</v>
       </c>
       <c r="H209" t="s">
+        <v>959</v>
+      </c>
+      <c r="I209" t="s">
         <v>960</v>
-      </c>
-      <c r="I209" t="s">
-        <v>961</v>
       </c>
       <c r="J209">
         <v>84</v>
@@ -11840,28 +11898,28 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B210" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C210">
         <v>2018</v>
       </c>
       <c r="D210" t="s">
+        <v>963</v>
+      </c>
+      <c r="E210" t="s">
         <v>964</v>
       </c>
-      <c r="E210" t="s">
+      <c r="G210" t="s">
         <v>965</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>966</v>
       </c>
-      <c r="H210" t="s">
+      <c r="I210" t="s">
         <v>967</v>
-      </c>
-      <c r="I210" t="s">
-        <v>968</v>
       </c>
       <c r="J210">
         <v>124</v>
@@ -11869,22 +11927,22 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B211" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C211">
         <v>2015</v>
       </c>
       <c r="D211" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E211" t="s">
         <v>337</v>
       </c>
       <c r="H211" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J211">
         <v>10</v>
@@ -11892,25 +11950,25 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B212" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C212">
         <v>2002</v>
       </c>
       <c r="D212" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E212" t="s">
         <v>126</v>
       </c>
       <c r="H212" t="s">
+        <v>975</v>
+      </c>
+      <c r="I212" t="s">
         <v>976</v>
-      </c>
-      <c r="I212" t="s">
-        <v>977</v>
       </c>
       <c r="J212">
         <v>139</v>
@@ -11918,22 +11976,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B213" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C213">
         <v>2017</v>
       </c>
       <c r="D213" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E213" t="s">
         <v>45</v>
       </c>
       <c r="H213" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J213">
         <v>71</v>
@@ -11941,25 +11999,25 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B214" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C214">
         <v>2016</v>
       </c>
       <c r="D214" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E214" t="s">
         <v>342</v>
       </c>
       <c r="H214" t="s">
+        <v>984</v>
+      </c>
+      <c r="I214" t="s">
         <v>985</v>
-      </c>
-      <c r="I214" t="s">
-        <v>986</v>
       </c>
       <c r="J214">
         <v>27</v>
@@ -11967,22 +12025,22 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B215" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C215">
         <v>2012</v>
       </c>
       <c r="D215" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E215" t="s">
         <v>337</v>
       </c>
       <c r="H215" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J215">
         <v>7</v>
@@ -11990,25 +12048,25 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B216" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C216">
         <v>2010</v>
       </c>
       <c r="D216" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E216" t="s">
         <v>63</v>
       </c>
       <c r="H216" t="s">
+        <v>993</v>
+      </c>
+      <c r="I216" t="s">
         <v>994</v>
-      </c>
-      <c r="I216" t="s">
-        <v>995</v>
       </c>
       <c r="J216">
         <v>80</v>
@@ -12016,25 +12074,25 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B217" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C217">
         <v>2017</v>
       </c>
       <c r="D217" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E217" t="s">
         <v>57</v>
       </c>
       <c r="H217" t="s">
+        <v>998</v>
+      </c>
+      <c r="I217" t="s">
         <v>999</v>
-      </c>
-      <c r="I217" t="s">
-        <v>1000</v>
       </c>
       <c r="J217">
         <v>123</v>
@@ -12042,25 +12100,25 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B218" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C218">
         <v>2015</v>
       </c>
       <c r="D218" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E218" t="s">
         <v>63</v>
       </c>
       <c r="H218" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I218" t="s">
         <v>1004</v>
-      </c>
-      <c r="I218" t="s">
-        <v>1005</v>
       </c>
       <c r="J218">
         <v>106</v>
@@ -12068,25 +12126,25 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B219" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C219">
         <v>2014</v>
       </c>
       <c r="D219" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E219" t="s">
         <v>63</v>
       </c>
       <c r="H219" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I219" t="s">
         <v>1009</v>
-      </c>
-      <c r="I219" t="s">
-        <v>1010</v>
       </c>
       <c r="J219">
         <v>89</v>
@@ -12094,25 +12152,25 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B220" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C220">
         <v>2005</v>
       </c>
       <c r="D220" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E220" t="s">
         <v>63</v>
       </c>
       <c r="H220" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I220" t="s">
         <v>1014</v>
-      </c>
-      <c r="I220" t="s">
-        <v>1015</v>
       </c>
       <c r="J220">
         <v>69</v>
@@ -12120,25 +12178,25 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B221" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C221">
         <v>2014</v>
       </c>
       <c r="D221" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E221" t="s">
         <v>295</v>
       </c>
       <c r="H221" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I221" t="s">
         <v>1019</v>
-      </c>
-      <c r="I221" t="s">
-        <v>1020</v>
       </c>
       <c r="J221">
         <v>84</v>
@@ -12146,25 +12204,25 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B222" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C222">
         <v>2017</v>
       </c>
       <c r="D222" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E222" t="s">
         <v>63</v>
       </c>
       <c r="H222" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I222" t="s">
         <v>1024</v>
-      </c>
-      <c r="I222" t="s">
-        <v>1025</v>
       </c>
       <c r="J222">
         <v>123</v>
@@ -12172,25 +12230,25 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B223" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C223">
         <v>2014</v>
       </c>
       <c r="D223" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E223" t="s">
         <v>45</v>
       </c>
       <c r="H223" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I223" t="s">
         <v>1029</v>
-      </c>
-      <c r="I223" t="s">
-        <v>1030</v>
       </c>
       <c r="J223">
         <v>68</v>
@@ -12198,25 +12256,25 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B224" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C224">
         <v>2013</v>
       </c>
       <c r="D224" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E224" t="s">
         <v>57</v>
       </c>
       <c r="H224" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I224" t="s">
         <v>1034</v>
-      </c>
-      <c r="I224" t="s">
-        <v>1035</v>
       </c>
       <c r="J224">
         <v>119</v>
@@ -12224,25 +12282,25 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B225" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C225">
         <v>2018</v>
       </c>
       <c r="D225" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E225" t="s">
         <v>264</v>
       </c>
       <c r="H225" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I225" t="s">
         <v>1039</v>
-      </c>
-      <c r="I225" t="s">
-        <v>1040</v>
       </c>
       <c r="J225">
         <v>153</v>
@@ -12250,25 +12308,25 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B226" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C226">
         <v>2011</v>
       </c>
       <c r="D226" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E226" t="s">
         <v>57</v>
       </c>
       <c r="H226" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I226" t="s">
         <v>1044</v>
-      </c>
-      <c r="I226" t="s">
-        <v>1045</v>
       </c>
       <c r="J226">
         <v>117</v>
@@ -12276,25 +12334,25 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B227" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C227">
         <v>2011</v>
       </c>
       <c r="D227" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E227" t="s">
         <v>639</v>
       </c>
       <c r="H227" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I227" t="s">
         <v>1049</v>
-      </c>
-      <c r="I227" t="s">
-        <v>1050</v>
       </c>
       <c r="J227">
         <v>89</v>
@@ -12302,22 +12360,22 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B228" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C228">
         <v>2012</v>
       </c>
       <c r="D228" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E228" t="s">
         <v>337</v>
       </c>
       <c r="H228" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J228">
         <v>7</v>
@@ -12325,25 +12383,25 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B229" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C229">
         <v>2018</v>
       </c>
       <c r="D229" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E229" t="s">
         <v>190</v>
       </c>
       <c r="H229" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I229" t="s">
         <v>1058</v>
-      </c>
-      <c r="I229" t="s">
-        <v>1059</v>
       </c>
       <c r="J229">
         <v>64</v>
@@ -12351,25 +12409,25 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B230" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C230">
         <v>2016</v>
       </c>
       <c r="D230" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E230" t="s">
         <v>63</v>
       </c>
       <c r="H230" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I230" t="s">
         <v>1063</v>
-      </c>
-      <c r="I230" t="s">
-        <v>1064</v>
       </c>
       <c r="J230">
         <v>113</v>
@@ -12377,25 +12435,25 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B231" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C231">
         <v>2013</v>
       </c>
       <c r="D231" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E231" t="s">
         <v>639</v>
       </c>
       <c r="H231" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I231" t="s">
         <v>1068</v>
-      </c>
-      <c r="I231" t="s">
-        <v>1069</v>
       </c>
       <c r="J231">
         <v>91</v>
@@ -12403,25 +12461,25 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B232" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C232">
         <v>2017</v>
       </c>
       <c r="D232" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E232" t="s">
         <v>63</v>
       </c>
       <c r="H232" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I232" t="s">
         <v>1073</v>
-      </c>
-      <c r="I232" t="s">
-        <v>1074</v>
       </c>
       <c r="J232">
         <v>124</v>
@@ -12429,25 +12487,25 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B233" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C233">
         <v>2015</v>
       </c>
       <c r="D233" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E233" t="s">
         <v>63</v>
       </c>
       <c r="H233" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I233" t="s">
         <v>1078</v>
-      </c>
-      <c r="I233" t="s">
-        <v>1079</v>
       </c>
       <c r="J233">
         <v>103</v>
@@ -12455,22 +12513,22 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B234" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C234">
         <v>1997</v>
       </c>
       <c r="D234" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E234" t="s">
         <v>628</v>
       </c>
       <c r="I234" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="J234">
         <v>200</v>
@@ -12478,25 +12536,25 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B235" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C235">
         <v>2018</v>
       </c>
       <c r="D235" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E235" t="s">
         <v>1086</v>
       </c>
-      <c r="E235" t="s">
+      <c r="H235" t="s">
         <v>1087</v>
       </c>
-      <c r="H235" t="s">
+      <c r="I235" t="s">
         <v>1088</v>
-      </c>
-      <c r="I235" t="s">
-        <v>1089</v>
       </c>
       <c r="J235">
         <v>21</v>
@@ -12504,28 +12562,28 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B236" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C236">
         <v>2017</v>
       </c>
       <c r="D236" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E236" t="s">
         <v>1092</v>
       </c>
-      <c r="E236" t="s">
+      <c r="G236" t="s">
         <v>1093</v>
       </c>
-      <c r="G236" t="s">
+      <c r="H236" t="s">
         <v>1094</v>
       </c>
-      <c r="H236" t="s">
+      <c r="I236" t="s">
         <v>1095</v>
-      </c>
-      <c r="I236" t="s">
-        <v>1096</v>
       </c>
       <c r="J236">
         <v>4</v>
@@ -12533,25 +12591,25 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B237" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C237">
         <v>2016</v>
       </c>
       <c r="D237" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E237" t="s">
         <v>45</v>
       </c>
       <c r="H237" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I237" t="s">
         <v>1100</v>
-      </c>
-      <c r="I237" t="s">
-        <v>1101</v>
       </c>
       <c r="J237">
         <v>70</v>
@@ -12559,25 +12617,25 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B238" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C238">
         <v>2017</v>
       </c>
       <c r="D238" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E238" t="s">
         <v>264</v>
       </c>
       <c r="H238" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I238" t="s">
         <v>1105</v>
-      </c>
-      <c r="I238" t="s">
-        <v>1106</v>
       </c>
       <c r="J238">
         <v>145</v>
@@ -12585,25 +12643,25 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B239" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C239">
         <v>2017</v>
       </c>
       <c r="D239" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E239" t="s">
         <v>1109</v>
       </c>
-      <c r="E239" t="s">
+      <c r="H239" t="s">
         <v>1110</v>
       </c>
-      <c r="H239" t="s">
+      <c r="I239" t="s">
         <v>1111</v>
-      </c>
-      <c r="I239" t="s">
-        <v>1112</v>
       </c>
       <c r="J239">
         <v>42</v>
@@ -12611,22 +12669,22 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B240" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C240">
         <v>2015</v>
       </c>
       <c r="D240" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E240" t="s">
         <v>1115</v>
       </c>
-      <c r="E240" t="s">
+      <c r="H240" t="s">
         <v>1116</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1117</v>
       </c>
       <c r="J240">
         <v>3</v>
@@ -12634,25 +12692,25 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B241" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C241">
         <v>2017</v>
       </c>
       <c r="D241" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E241" t="s">
         <v>51</v>
       </c>
       <c r="H241" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I241" t="s">
         <v>1121</v>
-      </c>
-      <c r="I241" t="s">
-        <v>1122</v>
       </c>
       <c r="J241">
         <v>183</v>
@@ -12660,25 +12718,25 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B242" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C242">
         <v>2018</v>
       </c>
       <c r="D242" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E242" t="s">
         <v>1125</v>
       </c>
-      <c r="E242" t="s">
+      <c r="H242" t="s">
         <v>1126</v>
       </c>
-      <c r="H242" t="s">
+      <c r="I242" t="s">
         <v>1127</v>
-      </c>
-      <c r="I242" t="s">
-        <v>1128</v>
       </c>
       <c r="J242">
         <v>305</v>
@@ -12686,25 +12744,25 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B243" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C243">
         <v>2017</v>
       </c>
       <c r="D243" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E243" t="s">
         <v>63</v>
       </c>
       <c r="H243" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I243" t="s">
         <v>1132</v>
-      </c>
-      <c r="I243" t="s">
-        <v>1133</v>
       </c>
       <c r="J243">
         <v>133</v>
@@ -12712,25 +12770,25 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B244" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C244">
         <v>2009</v>
       </c>
       <c r="D244" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E244" t="s">
         <v>342</v>
       </c>
       <c r="H244" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I244" t="s">
         <v>1137</v>
-      </c>
-      <c r="I244" t="s">
-        <v>1138</v>
       </c>
       <c r="J244">
         <v>20</v>
@@ -12738,25 +12796,25 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B245" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C245">
         <v>2018</v>
       </c>
       <c r="D245" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E245" t="s">
         <v>301</v>
       </c>
       <c r="H245" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I245" t="s">
         <v>1142</v>
-      </c>
-      <c r="I245" t="s">
-        <v>1143</v>
       </c>
       <c r="J245">
         <v>31</v>
@@ -12764,25 +12822,25 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B246" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C246">
         <v>2018</v>
       </c>
       <c r="D246" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E246" t="s">
         <v>57</v>
       </c>
       <c r="H246" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I246" t="s">
         <v>1147</v>
-      </c>
-      <c r="I246" t="s">
-        <v>1148</v>
       </c>
       <c r="J246">
         <v>124</v>
@@ -12790,25 +12848,25 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B247" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C247">
         <v>2010</v>
       </c>
       <c r="D247" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E247" t="s">
         <v>63</v>
       </c>
       <c r="H247" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I247" t="s">
         <v>1152</v>
-      </c>
-      <c r="I247" t="s">
-        <v>1153</v>
       </c>
       <c r="J247">
         <v>80</v>
@@ -12816,22 +12874,22 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B248" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C248">
         <v>2015</v>
       </c>
       <c r="D248" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E248" t="s">
         <v>501</v>
       </c>
       <c r="H248" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J248">
         <v>12</v>
@@ -12839,25 +12897,25 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B249" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C249">
         <v>2015</v>
       </c>
       <c r="D249" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E249" t="s">
         <v>35</v>
       </c>
       <c r="H249" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I249" t="s">
         <v>1161</v>
-      </c>
-      <c r="I249" t="s">
-        <v>1162</v>
       </c>
       <c r="J249">
         <v>169</v>
@@ -12865,25 +12923,25 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B250" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C250">
         <v>2016</v>
       </c>
       <c r="D250" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E250" t="s">
         <v>1165</v>
       </c>
-      <c r="E250" t="s">
+      <c r="H250" t="s">
         <v>1166</v>
       </c>
-      <c r="H250" t="s">
+      <c r="I250" t="s">
         <v>1167</v>
-      </c>
-      <c r="I250" t="s">
-        <v>1168</v>
       </c>
       <c r="J250">
         <v>113</v>
@@ -12891,16 +12949,16 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B251" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C251">
         <v>2017</v>
       </c>
       <c r="D251" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E251" t="s">
         <v>358</v>
@@ -12909,7 +12967,7 @@
         <v>359</v>
       </c>
       <c r="H251" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J251">
         <v>71</v>
@@ -12917,25 +12975,25 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B252" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C252">
         <v>2012</v>
       </c>
       <c r="D252" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E252" t="s">
         <v>63</v>
       </c>
       <c r="H252" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I252" t="s">
         <v>1176</v>
-      </c>
-      <c r="I252" t="s">
-        <v>1177</v>
       </c>
       <c r="J252">
         <v>84</v>
@@ -12946,19 +13004,19 @@
         <v>392</v>
       </c>
       <c r="B253" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C253">
         <v>2014</v>
       </c>
       <c r="D253" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E253" t="s">
         <v>1179</v>
       </c>
-      <c r="E253" t="s">
+      <c r="I253" t="s">
         <v>1180</v>
-      </c>
-      <c r="I253" t="s">
-        <v>1181</v>
       </c>
       <c r="J253">
         <v>208</v>
@@ -12985,16 +13043,16 @@
   <sheetData>
     <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="M7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.2">
@@ -13005,7 +13063,7 @@
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C10" s="11" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.2">

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34740" yWindow="1540" windowWidth="26820" windowHeight="15640"/>
+    <workbookView xWindow="36620" yWindow="2600" windowWidth="26820" windowHeight="15640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1329">
   <si>
     <t>Key</t>
   </si>
@@ -4004,6 +4004,9 @@
   </si>
   <si>
     <t>Repatability across treatments, not across time</t>
+  </si>
+  <si>
+    <t>Data available, only one repeatability reported in paper</t>
   </si>
 </sst>
 </file>
@@ -4479,9 +4482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A180" sqref="A180"/>
+      <selection pane="topRight" activeCell="X204" sqref="X204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11116,243 +11119,261 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="180" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="8">
         <v>2009</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H180" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I180" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="J180">
+      <c r="J180" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="181" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="2">
         <v>2012</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H181" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="J181">
+      <c r="J181" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="AB181" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="2">
         <v>2013</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H182" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I182" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="J182">
+      <c r="J182" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="AB182" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="2">
         <v>2014</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H183" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="AB183" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="2">
         <v>2015</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H184" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I184" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="AB184" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="2">
         <v>2016</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H185" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="2">
         <v>133</v>
       </c>
-    </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="AB185" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="8">
         <v>2013</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H186" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I186" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="8">
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="187" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="2">
         <v>2010</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H187" t="s">
+      <c r="H187" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I187" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="AB187" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="8">
         <v>2016</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H188" t="s">
+      <c r="H188" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="8">
         <v>70</v>
       </c>
     </row>
@@ -11382,238 +11403,259 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row r="190" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="2">
         <v>2015</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H190" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="J190">
+      <c r="J190" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+      <c r="AB190" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="8">
         <v>2009</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="H191" t="s">
+      <c r="H191" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="J191">
+      <c r="J191" s="8">
         <v>121</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row r="192" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="2">
         <v>2018</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="H192" t="s">
+      <c r="H192" s="2" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+      <c r="AB192" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="2">
         <v>2016</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H193" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="2">
         <v>122</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+      <c r="AB193" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="5">
         <v>2017</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="H194" t="s">
+      <c r="H194" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+      <c r="AB194" s="5" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="8">
         <v>2012</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="8" t="s">
         <v>884</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H195" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I195" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="J195">
+      <c r="J195" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="196" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="2">
         <v>2011</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H196" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I196" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="J196">
+      <c r="J196" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="AB196" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="2">
         <v>2018</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H197" s="2" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+      <c r="AB197" s="2" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="5">
         <v>2017</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="H198" t="s">
+      <c r="H198" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="J198">
+      <c r="J198" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB198" s="5" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>907</v>
       </c>
@@ -11636,7 +11678,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>911</v>
       </c>
@@ -11662,7 +11704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>917</v>
       </c>
@@ -11688,7 +11730,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>922</v>
       </c>
@@ -11714,7 +11756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>927</v>
       </c>
@@ -11740,7 +11782,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>932</v>
       </c>
@@ -11769,7 +11811,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>932</v>
       </c>
@@ -11795,7 +11837,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>942</v>
       </c>
@@ -11821,7 +11863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>947</v>
       </c>
@@ -11844,7 +11886,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>952</v>
       </c>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36620" yWindow="2600" windowWidth="26820" windowHeight="15640"/>
+    <workbookView xWindow="36500" yWindow="5100" windowWidth="26720" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1332">
   <si>
     <t>Key</t>
   </si>
@@ -2803,9 +2803,6 @@
     <t>GBYEI5C5</t>
   </si>
   <si>
-    <t>, S; erson, Jennifer L.; Stott, Iain; Young, Andrew J.; Vitikainen, Emma I. K.; Hodge, Sarah J.; Cant, Michael A.</t>
-  </si>
-  <si>
     <t>the origins of consistent individual differences in cooperation in wild banded mongooses, mungos mungo</t>
   </si>
   <si>
@@ -4007,6 +4004,18 @@
   </si>
   <si>
     <t>Data available, only one repeatability reported in paper</t>
+  </si>
+  <si>
+    <t>Bad reporting and unclear about stats, but data should in principle be there</t>
+  </si>
+  <si>
+    <t>Repeatability across lifetime, but only one repeatability reported!</t>
+  </si>
+  <si>
+    <t>Sanderson, Jennifer L.; Stott, Iain; Young, Andrew J.; Vitikainen, Emma I. K.; Hodge, Sarah J.; Cant, Michael A.</t>
+  </si>
+  <si>
+    <t>Only one repeatability measured (for each sex)</t>
   </si>
 </sst>
 </file>
@@ -4482,9 +4491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X204" sqref="X204"/>
+      <selection pane="topRight" activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4537,10 +4546,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -4640,7 +4649,7 @@
         <v>134</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L3" s="2">
         <v>22</v>
@@ -4655,15 +4664,15 @@
         <v>0</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -4684,7 +4693,7 @@
         <v>281</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="L4" s="2">
         <v>69</v>
@@ -4693,7 +4702,7 @@
         <v>2</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4722,10 +4731,10 @@
         <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -4780,7 +4789,7 @@
         <v>123</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L7" s="3">
         <v>96</v>
@@ -4789,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O7" s="3">
         <v>1</v>
@@ -4798,25 +4807,25 @@
         <v>2</v>
       </c>
       <c r="Q7" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>1192</v>
-      </c>
       <c r="T7" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>1221</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>1222</v>
       </c>
       <c r="Y7" s="3">
         <v>844</v>
@@ -4828,7 +4837,7 @@
         <v>190</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4857,7 +4866,7 @@
         <v>123</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L8" s="3">
         <v>48</v>
@@ -4866,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -4875,23 +4884,23 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>1224</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>1225</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>1226</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>1227</v>
       </c>
       <c r="Y8" s="3">
         <v>1034</v>
@@ -4929,7 +4938,7 @@
         <v>123</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L9" s="3">
         <v>48</v>
@@ -4938,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O9" s="3">
         <v>1</v>
@@ -4947,22 +4956,22 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T9" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>1229</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>1230</v>
       </c>
       <c r="Y9" s="3">
         <v>844</v>
@@ -5000,7 +5009,7 @@
         <v>123</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L10" s="3">
         <v>48</v>
@@ -5009,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
@@ -5018,22 +5027,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>1231</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>1232</v>
       </c>
       <c r="Y10" s="3">
         <v>1034</v>
@@ -5071,7 +5080,7 @@
         <v>123</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L11" s="3">
         <v>48</v>
@@ -5080,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
@@ -5089,22 +5098,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Y11" s="3">
         <v>844</v>
@@ -5142,7 +5151,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L12" s="3">
         <v>96</v>
@@ -5151,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O12" s="3">
         <v>1</v>
@@ -5160,25 +5169,25 @@
         <v>2</v>
       </c>
       <c r="Q12" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>1192</v>
-      </c>
       <c r="T12" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>1218</v>
-      </c>
       <c r="W12" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Y12" s="3">
         <v>844</v>
@@ -5216,7 +5225,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L13" s="3">
         <v>48</v>
@@ -5225,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O13" s="3">
         <v>1</v>
@@ -5234,22 +5243,22 @@
         <v>0</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T13" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>1235</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>1236</v>
       </c>
       <c r="Y13" s="3">
         <v>1034</v>
@@ -5287,7 +5296,7 @@
         <v>123</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L14" s="3">
         <v>48</v>
@@ -5296,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
@@ -5305,22 +5314,22 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T14" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>1238</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>1239</v>
       </c>
       <c r="Y14" s="3">
         <v>844</v>
@@ -5358,7 +5367,7 @@
         <v>123</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L15" s="3">
         <v>48</v>
@@ -5367,7 +5376,7 @@
         <v>2</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O15" s="3">
         <v>1</v>
@@ -5376,22 +5385,22 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T15" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>1231</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>1232</v>
       </c>
       <c r="Y15" s="3">
         <v>1034</v>
@@ -5429,7 +5438,7 @@
         <v>123</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L16" s="3">
         <v>48</v>
@@ -5438,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O16" s="3">
         <v>1</v>
@@ -5447,22 +5456,22 @@
         <v>0</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T16" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="V16" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>1238</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>1239</v>
       </c>
       <c r="Y16" s="3">
         <v>844</v>
@@ -5500,7 +5509,7 @@
         <v>123</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L17" s="3">
         <v>96</v>
@@ -5509,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O17" s="3">
         <v>1</v>
@@ -5518,25 +5527,25 @@
         <v>2</v>
       </c>
       <c r="Q17" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>1192</v>
-      </c>
       <c r="T17" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>1215</v>
-      </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>1213</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>1214</v>
       </c>
       <c r="Y17" s="3">
         <v>844</v>
@@ -5574,7 +5583,7 @@
         <v>123</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L18" s="3">
         <v>48</v>
@@ -5583,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O18" s="3">
         <v>1</v>
@@ -5592,22 +5601,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T18" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>1241</v>
-      </c>
       <c r="W18" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="Y18" s="3">
         <v>1034</v>
@@ -5645,7 +5654,7 @@
         <v>123</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L19" s="3">
         <v>48</v>
@@ -5654,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O19" s="3">
         <v>1</v>
@@ -5663,22 +5672,22 @@
         <v>0</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T19" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>1243</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>1244</v>
       </c>
       <c r="Y19" s="3">
         <v>844</v>
@@ -5716,7 +5725,7 @@
         <v>123</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L20" s="3">
         <v>48</v>
@@ -5725,7 +5734,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O20" s="3">
         <v>1</v>
@@ -5734,22 +5743,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Y20" s="3">
         <v>1034</v>
@@ -5787,7 +5796,7 @@
         <v>123</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L21" s="3">
         <v>48</v>
@@ -5796,7 +5805,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O21" s="3">
         <v>1</v>
@@ -5805,22 +5814,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="V21" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>1246</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>1247</v>
       </c>
       <c r="Y21" s="3">
         <v>844</v>
@@ -5858,7 +5867,7 @@
         <v>123</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L22" s="3">
         <v>96</v>
@@ -5867,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O22" s="3">
         <v>1</v>
@@ -5876,25 +5885,25 @@
         <v>2</v>
       </c>
       <c r="Q22" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>1192</v>
-      </c>
       <c r="T22" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="V22" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>1208</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>1209</v>
       </c>
       <c r="Y22" s="3">
         <v>844</v>
@@ -5932,7 +5941,7 @@
         <v>123</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L23" s="3">
         <v>48</v>
@@ -5941,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O23" s="3">
         <v>1</v>
@@ -5950,22 +5959,22 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Y23" s="3">
         <v>1034</v>
@@ -6003,7 +6012,7 @@
         <v>123</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L24" s="3">
         <v>48</v>
@@ -6012,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O24" s="3">
         <v>1</v>
@@ -6021,22 +6030,22 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="Y24" s="3">
         <v>844</v>
@@ -6074,7 +6083,7 @@
         <v>123</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L25" s="3">
         <v>48</v>
@@ -6083,7 +6092,7 @@
         <v>2</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O25" s="3">
         <v>1</v>
@@ -6092,22 +6101,22 @@
         <v>0</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Y25" s="3">
         <v>1034</v>
@@ -6145,7 +6154,7 @@
         <v>123</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L26" s="3">
         <v>48</v>
@@ -6154,7 +6163,7 @@
         <v>2</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O26" s="3">
         <v>1</v>
@@ -6163,22 +6172,22 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T26" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>1251</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>1252</v>
       </c>
       <c r="Y26" s="3">
         <v>844</v>
@@ -6216,7 +6225,7 @@
         <v>123</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L27" s="3">
         <v>96</v>
@@ -6225,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O27" s="3">
         <v>1</v>
@@ -6234,25 +6243,25 @@
         <v>2</v>
       </c>
       <c r="Q27" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S27" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>1192</v>
-      </c>
       <c r="T27" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="V27" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W27" s="3" t="s">
         <v>1204</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>1205</v>
       </c>
       <c r="Y27" s="3">
         <v>844</v>
@@ -6290,7 +6299,7 @@
         <v>123</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L28" s="3">
         <v>48</v>
@@ -6299,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O28" s="3">
         <v>1</v>
@@ -6308,22 +6317,22 @@
         <v>0</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Y28" s="3">
         <v>1034</v>
@@ -6361,7 +6370,7 @@
         <v>123</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L29" s="3">
         <v>48</v>
@@ -6370,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O29" s="3">
         <v>1</v>
@@ -6379,22 +6388,22 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="V29" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>1254</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>1255</v>
       </c>
       <c r="Y29" s="3">
         <v>844</v>
@@ -6432,7 +6441,7 @@
         <v>123</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L30" s="3">
         <v>48</v>
@@ -6441,7 +6450,7 @@
         <v>2</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O30" s="3">
         <v>1</v>
@@ -6450,22 +6459,22 @@
         <v>0</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="Y30" s="3">
         <v>1034</v>
@@ -6503,7 +6512,7 @@
         <v>123</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L31" s="3">
         <v>48</v>
@@ -6512,7 +6521,7 @@
         <v>2</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O31" s="3">
         <v>1</v>
@@ -6521,22 +6530,22 @@
         <v>0</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="Y31" s="3">
         <v>844</v>
@@ -6574,7 +6583,7 @@
         <v>123</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L32" s="3">
         <v>96</v>
@@ -6583,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O32" s="3">
         <v>1</v>
@@ -6592,25 +6601,25 @@
         <v>2</v>
       </c>
       <c r="Q32" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>1192</v>
-      </c>
       <c r="T32" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="V32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>1200</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>1201</v>
       </c>
       <c r="Y32" s="3">
         <v>844</v>
@@ -6648,7 +6657,7 @@
         <v>123</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L33" s="3">
         <v>48</v>
@@ -6657,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O33" s="3">
         <v>1</v>
@@ -6666,22 +6675,22 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T33" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="V33" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>1258</v>
-      </c>
       <c r="W33" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Y33" s="3">
         <v>1034</v>
@@ -6719,7 +6728,7 @@
         <v>123</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L34" s="3">
         <v>48</v>
@@ -6728,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O34" s="3">
         <v>1</v>
@@ -6737,22 +6746,22 @@
         <v>0</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Y34" s="3">
         <v>844</v>
@@ -6790,7 +6799,7 @@
         <v>123</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L35" s="3">
         <v>48</v>
@@ -6799,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O35" s="3">
         <v>1</v>
@@ -6808,22 +6817,22 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="V35" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>1192</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>1225</v>
-      </c>
       <c r="W35" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Y35" s="3">
         <v>1034</v>
@@ -6861,7 +6870,7 @@
         <v>123</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L36" s="3">
         <v>48</v>
@@ -6870,7 +6879,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O36" s="3">
         <v>1</v>
@@ -6879,22 +6888,22 @@
         <v>0</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Y36" s="3">
         <v>844</v>
@@ -6932,7 +6941,7 @@
         <v>123</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L37" s="3">
         <v>96</v>
@@ -6941,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O37" s="3">
         <v>1</v>
@@ -6950,25 +6959,25 @@
         <v>2</v>
       </c>
       <c r="Q37" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="S37" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="R37" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>1192</v>
-      </c>
       <c r="T37" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="V37" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="U37" s="3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="V37" s="3" t="s">
+      <c r="W37" s="3" t="s">
         <v>1195</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>1196</v>
       </c>
       <c r="Y37" s="3">
         <v>844</v>
@@ -7006,7 +7015,7 @@
         <v>123</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L38" s="3">
         <v>48</v>
@@ -7015,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O38" s="3">
         <v>1</v>
@@ -7024,22 +7033,22 @@
         <v>0</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="V38" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="W38" s="3" t="s">
         <v>1261</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>1262</v>
       </c>
       <c r="Y38" s="3">
         <v>1034</v>
@@ -7077,7 +7086,7 @@
         <v>123</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L39" s="3">
         <v>48</v>
@@ -7086,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O39" s="3">
         <v>1</v>
@@ -7095,22 +7104,22 @@
         <v>0</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Y39" s="3">
         <v>844</v>
@@ -7148,7 +7157,7 @@
         <v>123</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L40" s="3">
         <v>48</v>
@@ -7157,7 +7166,7 @@
         <v>2</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O40" s="3">
         <v>1</v>
@@ -7166,22 +7175,22 @@
         <v>0</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="Y40" s="3">
         <v>1034</v>
@@ -7219,7 +7228,7 @@
         <v>123</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L41" s="3">
         <v>48</v>
@@ -7228,7 +7237,7 @@
         <v>2</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O41" s="3">
         <v>1</v>
@@ -7237,22 +7246,22 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Y41" s="3">
         <v>844</v>
@@ -7290,7 +7299,7 @@
         <v>108</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7345,7 +7354,7 @@
         <v>65</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -7400,7 +7409,7 @@
         <v>8</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -7455,7 +7464,7 @@
         <v>136</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7487,7 +7496,7 @@
         <v>105</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7542,7 +7551,7 @@
         <v>8</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7571,7 +7580,7 @@
         <v>182</v>
       </c>
       <c r="AB52" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="53" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7626,7 +7635,7 @@
         <v>6</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -7655,7 +7664,7 @@
         <v>279</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7684,7 +7693,7 @@
         <v>123</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
@@ -7739,7 +7748,7 @@
         <v>123</v>
       </c>
       <c r="AB58" s="6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="59" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7768,7 +7777,7 @@
         <v>34</v>
       </c>
       <c r="AB59" s="6" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="60" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -7797,7 +7806,7 @@
         <v>123</v>
       </c>
       <c r="AB60" s="8" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7852,7 +7861,7 @@
         <v>5</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="63" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7881,7 +7890,7 @@
         <v>35</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="64" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7910,7 +7919,7 @@
         <v>7</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="65" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7939,7 +7948,7 @@
         <v>62</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="66" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -7971,7 +7980,7 @@
         <v>57</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="67" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8000,7 +8009,7 @@
         <v>48</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="68" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8029,7 +8038,7 @@
         <v>118</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="69" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8058,7 +8067,7 @@
         <v>56</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="70" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8165,7 +8174,7 @@
         <v>18</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="74" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8194,7 +8203,7 @@
         <v>83</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="75" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8223,7 +8232,7 @@
         <v>135</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="76" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8278,7 +8287,7 @@
         <v>30</v>
       </c>
       <c r="AB77" s="5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="78" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8307,7 +8316,7 @@
         <v>23</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8414,7 +8423,7 @@
         <v>64</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="83" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8443,7 +8452,7 @@
         <v>37</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8472,7 +8481,7 @@
         <v>79</v>
       </c>
       <c r="AB84" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="85" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8501,7 +8510,7 @@
         <v>23</v>
       </c>
       <c r="AB85" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="86" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8530,7 +8539,7 @@
         <v>157</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="87" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8559,7 +8568,7 @@
         <v>54</v>
       </c>
       <c r="AB87" s="8" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
@@ -8640,7 +8649,7 @@
         <v>21</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="91" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -8666,7 +8675,7 @@
         <v>282</v>
       </c>
       <c r="AB91" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="92" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8692,7 +8701,7 @@
         <v>13</v>
       </c>
       <c r="AB92" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="93" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8721,7 +8730,7 @@
         <v>25</v>
       </c>
       <c r="AB93" s="13" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="94" spans="1:28" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -8750,7 +8759,7 @@
         <v>115</v>
       </c>
       <c r="AB94" s="14" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="95" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8808,7 +8817,7 @@
         <v>69</v>
       </c>
       <c r="AB96" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="97" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8837,7 +8846,7 @@
         <v>152</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="98" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8866,7 +8875,7 @@
         <v>116</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="99" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8895,7 +8904,7 @@
         <v>131</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="100" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -8947,7 +8956,7 @@
         <v>12</v>
       </c>
       <c r="AB101" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
@@ -9001,7 +9010,7 @@
     </row>
     <row r="104" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>396</v>
@@ -9051,7 +9060,7 @@
         <v>24</v>
       </c>
       <c r="AB105" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -9109,7 +9118,7 @@
         <v>153</v>
       </c>
       <c r="AB107" s="15" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="108" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9164,7 +9173,7 @@
         <v>224</v>
       </c>
       <c r="AB109" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="110" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9245,7 +9254,7 @@
         <v>66</v>
       </c>
       <c r="AB112" s="14" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="113" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9274,7 +9283,7 @@
         <v>79</v>
       </c>
       <c r="AB113" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="114" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9326,7 +9335,7 @@
         <v>28</v>
       </c>
       <c r="AB115" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="116" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9378,7 +9387,7 @@
         <v>35</v>
       </c>
       <c r="AB117" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="118" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9404,7 +9413,7 @@
         <v>9</v>
       </c>
       <c r="AB118" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
@@ -9456,7 +9465,7 @@
         <v>284</v>
       </c>
       <c r="AB120" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="121" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9485,7 +9494,7 @@
         <v>329</v>
       </c>
       <c r="AB121" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="122" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -9511,7 +9520,7 @@
         <v>57</v>
       </c>
       <c r="AB122" s="16" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="123" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9537,7 +9546,7 @@
         <v>12</v>
       </c>
       <c r="AB123" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="124" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9612,7 +9621,7 @@
         <v>82</v>
       </c>
       <c r="AB126" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
@@ -9693,7 +9702,7 @@
         <v>27</v>
       </c>
       <c r="AB129" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="130" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9722,7 +9731,7 @@
         <v>174</v>
       </c>
       <c r="AB130" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.2">
@@ -9777,7 +9786,7 @@
         <v>49</v>
       </c>
       <c r="AB132" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="133" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -9803,7 +9812,7 @@
         <v>284</v>
       </c>
       <c r="AB133" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="134" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9832,7 +9841,7 @@
         <v>114</v>
       </c>
       <c r="AB134" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="135" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9861,7 +9870,7 @@
         <v>57</v>
       </c>
       <c r="AB135" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="136" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9890,7 +9899,7 @@
         <v>31</v>
       </c>
       <c r="AB136" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="137" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9919,7 +9928,7 @@
         <v>84</v>
       </c>
       <c r="AB137" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="138" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -9977,7 +9986,7 @@
         <v>68</v>
       </c>
       <c r="AB139" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="140" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10009,7 +10018,7 @@
         <v>139</v>
       </c>
       <c r="AB140" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="141" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10038,7 +10047,7 @@
         <v>165</v>
       </c>
       <c r="AB141" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="142" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10067,7 +10076,7 @@
         <v>68</v>
       </c>
       <c r="AB142" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="143" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10122,7 +10131,7 @@
         <v>2</v>
       </c>
       <c r="AB144" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="145" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10151,7 +10160,7 @@
         <v>27</v>
       </c>
       <c r="AB145" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="146" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10206,7 +10215,7 @@
         <v>180</v>
       </c>
       <c r="AB147" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="148" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10235,7 +10244,7 @@
         <v>220</v>
       </c>
       <c r="AB148" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="149" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10290,7 +10299,7 @@
         <v>91</v>
       </c>
       <c r="AB150" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="151" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10374,7 +10383,7 @@
         <v>157</v>
       </c>
       <c r="AB153" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="154" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10403,7 +10412,7 @@
         <v>75</v>
       </c>
       <c r="AB154" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="155" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10429,7 +10438,7 @@
         <v>671</v>
       </c>
       <c r="AB155" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="156" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10458,7 +10467,7 @@
         <v>79</v>
       </c>
       <c r="AB156" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="157" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10487,7 +10496,7 @@
         <v>126</v>
       </c>
       <c r="AB157" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="158" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10594,7 +10603,7 @@
         <v>142</v>
       </c>
       <c r="AB161" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="162" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10623,7 +10632,7 @@
         <v>60</v>
       </c>
       <c r="AB162" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="163" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10652,7 +10661,7 @@
         <v>132</v>
       </c>
       <c r="AB163" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="164" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10678,7 +10687,7 @@
         <v>12</v>
       </c>
       <c r="AB164" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="165" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -10710,7 +10719,7 @@
         <v>47</v>
       </c>
       <c r="AB165" s="17" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="166" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -10739,7 +10748,7 @@
         <v>80</v>
       </c>
       <c r="AB166" s="17" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="167" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10797,7 +10806,7 @@
         <v>36</v>
       </c>
       <c r="AB168" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="169" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10826,7 +10835,7 @@
         <v>52</v>
       </c>
       <c r="AB169" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="170" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10855,7 +10864,7 @@
         <v>27</v>
       </c>
       <c r="AB170" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="171" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10884,7 +10893,7 @@
         <v>70</v>
       </c>
       <c r="AB171" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="172" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -10915,7 +10924,7 @@
     </row>
     <row r="173" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>761</v>
@@ -10971,7 +10980,7 @@
         <v>26</v>
       </c>
       <c r="AB174" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="175" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11000,7 +11009,7 @@
         <v>119</v>
       </c>
       <c r="AB175" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="176" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11029,7 +11038,7 @@
         <v>124</v>
       </c>
       <c r="AB176" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="177" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -11087,7 +11096,7 @@
         <v>585</v>
       </c>
       <c r="AB178" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="179" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11116,7 +11125,7 @@
         <v>123</v>
       </c>
       <c r="AB179" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="180" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -11177,7 +11186,7 @@
         <v>85</v>
       </c>
       <c r="AB181" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="182" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11206,7 +11215,7 @@
         <v>3</v>
       </c>
       <c r="AB182" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="183" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11235,7 +11244,7 @@
         <v>123</v>
       </c>
       <c r="AB183" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="184" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11264,7 +11273,7 @@
         <v>46</v>
       </c>
       <c r="AB184" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="185" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11293,7 +11302,7 @@
         <v>133</v>
       </c>
       <c r="AB185" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="186" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -11348,7 +11357,7 @@
         <v>126</v>
       </c>
       <c r="AB187" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="188" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -11432,7 +11441,7 @@
         <v>69</v>
       </c>
       <c r="AB190" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="191" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -11484,7 +11493,7 @@
         <v>872</v>
       </c>
       <c r="AB192" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="193" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11513,7 +11522,7 @@
         <v>122</v>
       </c>
       <c r="AB193" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="194" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -11539,7 +11548,7 @@
         <v>4</v>
       </c>
       <c r="AB194" s="5" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="195" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -11594,7 +11603,7 @@
         <v>89</v>
       </c>
       <c r="AB196" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="197" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11620,7 +11629,7 @@
         <v>898</v>
       </c>
       <c r="AB197" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="198" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -11652,287 +11661,311 @@
         <v>28</v>
       </c>
       <c r="AB198" s="5" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="C199" s="16">
+        <v>2018</v>
+      </c>
+      <c r="D199" s="16" t="s">
+        <v>908</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H199" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="J199" s="16">
+        <v>72</v>
+      </c>
+      <c r="AB199" s="16" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>907</v>
-      </c>
-      <c r="B199" t="s">
-        <v>906</v>
-      </c>
-      <c r="C199">
+    <row r="200" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="J200" s="2">
+        <v>18</v>
+      </c>
+      <c r="AB200" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C201" s="2">
+        <v>2008</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="J201" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB201" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="C202" s="8">
         <v>2018</v>
       </c>
-      <c r="D199" t="s">
-        <v>908</v>
-      </c>
-      <c r="E199" t="s">
-        <v>45</v>
-      </c>
-      <c r="H199" t="s">
-        <v>909</v>
-      </c>
-      <c r="J199">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>911</v>
-      </c>
-      <c r="B200" t="s">
-        <v>910</v>
-      </c>
-      <c r="C200">
-        <v>2008</v>
-      </c>
-      <c r="D200" t="s">
-        <v>912</v>
-      </c>
-      <c r="E200" t="s">
-        <v>913</v>
-      </c>
-      <c r="H200" t="s">
-        <v>914</v>
-      </c>
-      <c r="I200" t="s">
-        <v>915</v>
-      </c>
-      <c r="J200">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>917</v>
-      </c>
-      <c r="B201" t="s">
-        <v>916</v>
-      </c>
-      <c r="C201">
-        <v>2008</v>
-      </c>
-      <c r="D201" t="s">
-        <v>918</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="D202" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="H202" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="I202" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="J202" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C203" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H201" t="s">
-        <v>919</v>
-      </c>
-      <c r="I201" t="s">
-        <v>920</v>
-      </c>
-      <c r="J201">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>922</v>
-      </c>
-      <c r="B202" t="s">
-        <v>921</v>
-      </c>
-      <c r="C202">
+      <c r="H203" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="J203" s="2">
+        <v>107</v>
+      </c>
+      <c r="AB203" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C204" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="J204" s="2">
+        <v>165</v>
+      </c>
+      <c r="AB204" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C205" s="2">
         <v>2018</v>
       </c>
-      <c r="D202" t="s">
-        <v>923</v>
-      </c>
-      <c r="E202" t="s">
-        <v>467</v>
-      </c>
-      <c r="H202" t="s">
-        <v>924</v>
-      </c>
-      <c r="I202" t="s">
-        <v>925</v>
-      </c>
-      <c r="J202">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>927</v>
-      </c>
-      <c r="B203" t="s">
-        <v>926</v>
-      </c>
-      <c r="C203">
-        <v>2015</v>
-      </c>
-      <c r="D203" t="s">
-        <v>928</v>
-      </c>
-      <c r="E203" t="s">
-        <v>63</v>
-      </c>
-      <c r="H203" t="s">
-        <v>929</v>
-      </c>
-      <c r="I203" t="s">
-        <v>930</v>
-      </c>
-      <c r="J203">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>932</v>
-      </c>
-      <c r="B204" t="s">
-        <v>931</v>
-      </c>
-      <c r="C204">
-        <v>2016</v>
-      </c>
-      <c r="D204" t="s">
-        <v>933</v>
-      </c>
-      <c r="E204" t="s">
-        <v>103</v>
-      </c>
-      <c r="G204" t="s">
+      <c r="D205" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="J205" s="2">
+        <v>99</v>
+      </c>
+      <c r="AB205" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C206" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="J206" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB206" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="C207" s="8">
+        <v>2017</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="H207" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="J207" s="8">
         <v>104</v>
       </c>
-      <c r="H204" t="s">
-        <v>934</v>
-      </c>
-      <c r="I204" t="s">
-        <v>935</v>
-      </c>
-      <c r="J204">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>932</v>
-      </c>
-      <c r="B205" t="s">
-        <v>936</v>
-      </c>
-      <c r="C205">
-        <v>2018</v>
-      </c>
-      <c r="D205" t="s">
-        <v>937</v>
-      </c>
-      <c r="E205" t="s">
-        <v>938</v>
-      </c>
-      <c r="H205" t="s">
-        <v>939</v>
-      </c>
-      <c r="I205" t="s">
-        <v>940</v>
-      </c>
-      <c r="J205">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>942</v>
-      </c>
-      <c r="B206" t="s">
-        <v>941</v>
-      </c>
-      <c r="C206">
-        <v>2011</v>
-      </c>
-      <c r="D206" t="s">
-        <v>943</v>
-      </c>
-      <c r="E206" t="s">
-        <v>342</v>
-      </c>
-      <c r="H206" t="s">
-        <v>944</v>
-      </c>
-      <c r="I206" t="s">
-        <v>945</v>
-      </c>
-      <c r="J206">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>947</v>
-      </c>
-      <c r="B207" t="s">
-        <v>946</v>
-      </c>
-      <c r="C207">
-        <v>2017</v>
-      </c>
-      <c r="D207" t="s">
-        <v>948</v>
-      </c>
-      <c r="E207" t="s">
-        <v>949</v>
-      </c>
-      <c r="H207" t="s">
+    </row>
+    <row r="208" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="J207">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="C208" s="2">
+        <v>2003</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="B208" t="s">
-        <v>951</v>
-      </c>
-      <c r="C208">
-        <v>2003</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="E208" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H208" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="E208" t="s">
-        <v>57</v>
-      </c>
-      <c r="H208" t="s">
+      <c r="I208" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="I208" t="s">
-        <v>955</v>
-      </c>
-      <c r="J208">
+      <c r="J208" s="2">
         <v>109</v>
+      </c>
+      <c r="AB208" s="2" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B209" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C209">
         <v>2012</v>
       </c>
       <c r="D209" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E209" t="s">
         <v>63</v>
       </c>
       <c r="H209" t="s">
+        <v>958</v>
+      </c>
+      <c r="I209" t="s">
         <v>959</v>
-      </c>
-      <c r="I209" t="s">
-        <v>960</v>
       </c>
       <c r="J209">
         <v>84</v>
@@ -11940,28 +11973,28 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B210" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C210">
         <v>2018</v>
       </c>
       <c r="D210" t="s">
+        <v>962</v>
+      </c>
+      <c r="E210" t="s">
         <v>963</v>
       </c>
-      <c r="E210" t="s">
+      <c r="G210" t="s">
         <v>964</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>965</v>
       </c>
-      <c r="H210" t="s">
+      <c r="I210" t="s">
         <v>966</v>
-      </c>
-      <c r="I210" t="s">
-        <v>967</v>
       </c>
       <c r="J210">
         <v>124</v>
@@ -11969,22 +12002,22 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B211" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C211">
         <v>2015</v>
       </c>
       <c r="D211" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E211" t="s">
         <v>337</v>
       </c>
       <c r="H211" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J211">
         <v>10</v>
@@ -11992,25 +12025,25 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B212" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C212">
         <v>2002</v>
       </c>
       <c r="D212" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E212" t="s">
         <v>126</v>
       </c>
       <c r="H212" t="s">
+        <v>974</v>
+      </c>
+      <c r="I212" t="s">
         <v>975</v>
-      </c>
-      <c r="I212" t="s">
-        <v>976</v>
       </c>
       <c r="J212">
         <v>139</v>
@@ -12018,22 +12051,22 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B213" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C213">
         <v>2017</v>
       </c>
       <c r="D213" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E213" t="s">
         <v>45</v>
       </c>
       <c r="H213" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J213">
         <v>71</v>
@@ -12041,25 +12074,25 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B214" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C214">
         <v>2016</v>
       </c>
       <c r="D214" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E214" t="s">
         <v>342</v>
       </c>
       <c r="H214" t="s">
+        <v>983</v>
+      </c>
+      <c r="I214" t="s">
         <v>984</v>
-      </c>
-      <c r="I214" t="s">
-        <v>985</v>
       </c>
       <c r="J214">
         <v>27</v>
@@ -12067,22 +12100,22 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B215" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C215">
         <v>2012</v>
       </c>
       <c r="D215" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E215" t="s">
         <v>337</v>
       </c>
       <c r="H215" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J215">
         <v>7</v>
@@ -12090,25 +12123,25 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B216" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C216">
         <v>2010</v>
       </c>
       <c r="D216" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E216" t="s">
         <v>63</v>
       </c>
       <c r="H216" t="s">
+        <v>992</v>
+      </c>
+      <c r="I216" t="s">
         <v>993</v>
-      </c>
-      <c r="I216" t="s">
-        <v>994</v>
       </c>
       <c r="J216">
         <v>80</v>
@@ -12116,25 +12149,25 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B217" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C217">
         <v>2017</v>
       </c>
       <c r="D217" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E217" t="s">
         <v>57</v>
       </c>
       <c r="H217" t="s">
+        <v>997</v>
+      </c>
+      <c r="I217" t="s">
         <v>998</v>
-      </c>
-      <c r="I217" t="s">
-        <v>999</v>
       </c>
       <c r="J217">
         <v>123</v>
@@ -12142,25 +12175,25 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B218" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C218">
         <v>2015</v>
       </c>
       <c r="D218" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E218" t="s">
         <v>63</v>
       </c>
       <c r="H218" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I218" t="s">
         <v>1003</v>
-      </c>
-      <c r="I218" t="s">
-        <v>1004</v>
       </c>
       <c r="J218">
         <v>106</v>
@@ -12168,25 +12201,25 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B219" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C219">
         <v>2014</v>
       </c>
       <c r="D219" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E219" t="s">
         <v>63</v>
       </c>
       <c r="H219" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I219" t="s">
         <v>1008</v>
-      </c>
-      <c r="I219" t="s">
-        <v>1009</v>
       </c>
       <c r="J219">
         <v>89</v>
@@ -12194,25 +12227,25 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B220" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C220">
         <v>2005</v>
       </c>
       <c r="D220" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E220" t="s">
         <v>63</v>
       </c>
       <c r="H220" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I220" t="s">
         <v>1013</v>
-      </c>
-      <c r="I220" t="s">
-        <v>1014</v>
       </c>
       <c r="J220">
         <v>69</v>
@@ -12220,25 +12253,25 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B221" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C221">
         <v>2014</v>
       </c>
       <c r="D221" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E221" t="s">
         <v>295</v>
       </c>
       <c r="H221" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I221" t="s">
         <v>1018</v>
-      </c>
-      <c r="I221" t="s">
-        <v>1019</v>
       </c>
       <c r="J221">
         <v>84</v>
@@ -12246,25 +12279,25 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B222" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C222">
         <v>2017</v>
       </c>
       <c r="D222" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E222" t="s">
         <v>63</v>
       </c>
       <c r="H222" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I222" t="s">
         <v>1023</v>
-      </c>
-      <c r="I222" t="s">
-        <v>1024</v>
       </c>
       <c r="J222">
         <v>123</v>
@@ -12272,25 +12305,25 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B223" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C223">
         <v>2014</v>
       </c>
       <c r="D223" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E223" t="s">
         <v>45</v>
       </c>
       <c r="H223" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I223" t="s">
         <v>1028</v>
-      </c>
-      <c r="I223" t="s">
-        <v>1029</v>
       </c>
       <c r="J223">
         <v>68</v>
@@ -12298,25 +12331,25 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B224" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C224">
         <v>2013</v>
       </c>
       <c r="D224" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E224" t="s">
         <v>57</v>
       </c>
       <c r="H224" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I224" t="s">
         <v>1033</v>
-      </c>
-      <c r="I224" t="s">
-        <v>1034</v>
       </c>
       <c r="J224">
         <v>119</v>
@@ -12324,25 +12357,25 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B225" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C225">
         <v>2018</v>
       </c>
       <c r="D225" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E225" t="s">
         <v>264</v>
       </c>
       <c r="H225" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I225" t="s">
         <v>1038</v>
-      </c>
-      <c r="I225" t="s">
-        <v>1039</v>
       </c>
       <c r="J225">
         <v>153</v>
@@ -12350,25 +12383,25 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B226" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C226">
         <v>2011</v>
       </c>
       <c r="D226" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E226" t="s">
         <v>57</v>
       </c>
       <c r="H226" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I226" t="s">
         <v>1043</v>
-      </c>
-      <c r="I226" t="s">
-        <v>1044</v>
       </c>
       <c r="J226">
         <v>117</v>
@@ -12376,25 +12409,25 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B227" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C227">
         <v>2011</v>
       </c>
       <c r="D227" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E227" t="s">
         <v>639</v>
       </c>
       <c r="H227" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I227" t="s">
         <v>1048</v>
-      </c>
-      <c r="I227" t="s">
-        <v>1049</v>
       </c>
       <c r="J227">
         <v>89</v>
@@ -12402,22 +12435,22 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B228" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C228">
         <v>2012</v>
       </c>
       <c r="D228" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E228" t="s">
         <v>337</v>
       </c>
       <c r="H228" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J228">
         <v>7</v>
@@ -12425,25 +12458,25 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B229" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C229">
         <v>2018</v>
       </c>
       <c r="D229" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E229" t="s">
         <v>190</v>
       </c>
       <c r="H229" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I229" t="s">
         <v>1057</v>
-      </c>
-      <c r="I229" t="s">
-        <v>1058</v>
       </c>
       <c r="J229">
         <v>64</v>
@@ -12451,25 +12484,25 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B230" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C230">
         <v>2016</v>
       </c>
       <c r="D230" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E230" t="s">
         <v>63</v>
       </c>
       <c r="H230" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I230" t="s">
         <v>1062</v>
-      </c>
-      <c r="I230" t="s">
-        <v>1063</v>
       </c>
       <c r="J230">
         <v>113</v>
@@ -12477,25 +12510,25 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B231" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C231">
         <v>2013</v>
       </c>
       <c r="D231" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E231" t="s">
         <v>639</v>
       </c>
       <c r="H231" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I231" t="s">
         <v>1067</v>
-      </c>
-      <c r="I231" t="s">
-        <v>1068</v>
       </c>
       <c r="J231">
         <v>91</v>
@@ -12503,25 +12536,25 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B232" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C232">
         <v>2017</v>
       </c>
       <c r="D232" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E232" t="s">
         <v>63</v>
       </c>
       <c r="H232" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I232" t="s">
         <v>1072</v>
-      </c>
-      <c r="I232" t="s">
-        <v>1073</v>
       </c>
       <c r="J232">
         <v>124</v>
@@ -12529,25 +12562,25 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B233" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C233">
         <v>2015</v>
       </c>
       <c r="D233" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E233" t="s">
         <v>63</v>
       </c>
       <c r="H233" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I233" t="s">
         <v>1077</v>
-      </c>
-      <c r="I233" t="s">
-        <v>1078</v>
       </c>
       <c r="J233">
         <v>103</v>
@@ -12555,22 +12588,22 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B234" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C234">
         <v>1997</v>
       </c>
       <c r="D234" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E234" t="s">
         <v>628</v>
       </c>
       <c r="I234" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="J234">
         <v>200</v>
@@ -12578,25 +12611,25 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B235" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C235">
         <v>2018</v>
       </c>
       <c r="D235" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E235" t="s">
         <v>1085</v>
       </c>
-      <c r="E235" t="s">
+      <c r="H235" t="s">
         <v>1086</v>
       </c>
-      <c r="H235" t="s">
+      <c r="I235" t="s">
         <v>1087</v>
-      </c>
-      <c r="I235" t="s">
-        <v>1088</v>
       </c>
       <c r="J235">
         <v>21</v>
@@ -12604,28 +12637,28 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B236" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C236">
         <v>2017</v>
       </c>
       <c r="D236" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E236" t="s">
         <v>1091</v>
       </c>
-      <c r="E236" t="s">
+      <c r="G236" t="s">
         <v>1092</v>
       </c>
-      <c r="G236" t="s">
+      <c r="H236" t="s">
         <v>1093</v>
       </c>
-      <c r="H236" t="s">
+      <c r="I236" t="s">
         <v>1094</v>
-      </c>
-      <c r="I236" t="s">
-        <v>1095</v>
       </c>
       <c r="J236">
         <v>4</v>
@@ -12633,25 +12666,25 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B237" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C237">
         <v>2016</v>
       </c>
       <c r="D237" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E237" t="s">
         <v>45</v>
       </c>
       <c r="H237" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I237" t="s">
         <v>1099</v>
-      </c>
-      <c r="I237" t="s">
-        <v>1100</v>
       </c>
       <c r="J237">
         <v>70</v>
@@ -12659,25 +12692,25 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B238" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C238">
         <v>2017</v>
       </c>
       <c r="D238" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E238" t="s">
         <v>264</v>
       </c>
       <c r="H238" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I238" t="s">
         <v>1104</v>
-      </c>
-      <c r="I238" t="s">
-        <v>1105</v>
       </c>
       <c r="J238">
         <v>145</v>
@@ -12685,25 +12718,25 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B239" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C239">
         <v>2017</v>
       </c>
       <c r="D239" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E239" t="s">
         <v>1108</v>
       </c>
-      <c r="E239" t="s">
+      <c r="H239" t="s">
         <v>1109</v>
       </c>
-      <c r="H239" t="s">
+      <c r="I239" t="s">
         <v>1110</v>
-      </c>
-      <c r="I239" t="s">
-        <v>1111</v>
       </c>
       <c r="J239">
         <v>42</v>
@@ -12711,22 +12744,22 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B240" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C240">
         <v>2015</v>
       </c>
       <c r="D240" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E240" t="s">
         <v>1114</v>
       </c>
-      <c r="E240" t="s">
+      <c r="H240" t="s">
         <v>1115</v>
-      </c>
-      <c r="H240" t="s">
-        <v>1116</v>
       </c>
       <c r="J240">
         <v>3</v>
@@ -12734,25 +12767,25 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B241" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C241">
         <v>2017</v>
       </c>
       <c r="D241" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E241" t="s">
         <v>51</v>
       </c>
       <c r="H241" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I241" t="s">
         <v>1120</v>
-      </c>
-      <c r="I241" t="s">
-        <v>1121</v>
       </c>
       <c r="J241">
         <v>183</v>
@@ -12760,25 +12793,25 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B242" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C242">
         <v>2018</v>
       </c>
       <c r="D242" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E242" t="s">
         <v>1124</v>
       </c>
-      <c r="E242" t="s">
+      <c r="H242" t="s">
         <v>1125</v>
       </c>
-      <c r="H242" t="s">
+      <c r="I242" t="s">
         <v>1126</v>
-      </c>
-      <c r="I242" t="s">
-        <v>1127</v>
       </c>
       <c r="J242">
         <v>305</v>
@@ -12786,25 +12819,25 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B243" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C243">
         <v>2017</v>
       </c>
       <c r="D243" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E243" t="s">
         <v>63</v>
       </c>
       <c r="H243" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I243" t="s">
         <v>1131</v>
-      </c>
-      <c r="I243" t="s">
-        <v>1132</v>
       </c>
       <c r="J243">
         <v>133</v>
@@ -12812,25 +12845,25 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B244" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C244">
         <v>2009</v>
       </c>
       <c r="D244" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E244" t="s">
         <v>342</v>
       </c>
       <c r="H244" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I244" t="s">
         <v>1136</v>
-      </c>
-      <c r="I244" t="s">
-        <v>1137</v>
       </c>
       <c r="J244">
         <v>20</v>
@@ -12838,25 +12871,25 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B245" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C245">
         <v>2018</v>
       </c>
       <c r="D245" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E245" t="s">
         <v>301</v>
       </c>
       <c r="H245" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I245" t="s">
         <v>1141</v>
-      </c>
-      <c r="I245" t="s">
-        <v>1142</v>
       </c>
       <c r="J245">
         <v>31</v>
@@ -12864,25 +12897,25 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B246" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C246">
         <v>2018</v>
       </c>
       <c r="D246" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E246" t="s">
         <v>57</v>
       </c>
       <c r="H246" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I246" t="s">
         <v>1146</v>
-      </c>
-      <c r="I246" t="s">
-        <v>1147</v>
       </c>
       <c r="J246">
         <v>124</v>
@@ -12890,25 +12923,25 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B247" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C247">
         <v>2010</v>
       </c>
       <c r="D247" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E247" t="s">
         <v>63</v>
       </c>
       <c r="H247" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I247" t="s">
         <v>1151</v>
-      </c>
-      <c r="I247" t="s">
-        <v>1152</v>
       </c>
       <c r="J247">
         <v>80</v>
@@ -12916,22 +12949,22 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B248" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C248">
         <v>2015</v>
       </c>
       <c r="D248" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E248" t="s">
         <v>501</v>
       </c>
       <c r="H248" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J248">
         <v>12</v>
@@ -12939,25 +12972,25 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B249" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C249">
         <v>2015</v>
       </c>
       <c r="D249" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E249" t="s">
         <v>35</v>
       </c>
       <c r="H249" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I249" t="s">
         <v>1160</v>
-      </c>
-      <c r="I249" t="s">
-        <v>1161</v>
       </c>
       <c r="J249">
         <v>169</v>
@@ -12965,25 +12998,25 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B250" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C250">
         <v>2016</v>
       </c>
       <c r="D250" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E250" t="s">
         <v>1164</v>
       </c>
-      <c r="E250" t="s">
+      <c r="H250" t="s">
         <v>1165</v>
       </c>
-      <c r="H250" t="s">
+      <c r="I250" t="s">
         <v>1166</v>
-      </c>
-      <c r="I250" t="s">
-        <v>1167</v>
       </c>
       <c r="J250">
         <v>113</v>
@@ -12991,16 +13024,16 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B251" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C251">
         <v>2017</v>
       </c>
       <c r="D251" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E251" t="s">
         <v>358</v>
@@ -13009,7 +13042,7 @@
         <v>359</v>
       </c>
       <c r="H251" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J251">
         <v>71</v>
@@ -13017,25 +13050,25 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B252" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C252">
         <v>2012</v>
       </c>
       <c r="D252" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E252" t="s">
         <v>63</v>
       </c>
       <c r="H252" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I252" t="s">
         <v>1175</v>
-      </c>
-      <c r="I252" t="s">
-        <v>1176</v>
       </c>
       <c r="J252">
         <v>84</v>
@@ -13046,19 +13079,19 @@
         <v>392</v>
       </c>
       <c r="B253" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C253">
         <v>2014</v>
       </c>
       <c r="D253" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E253" t="s">
         <v>1178</v>
       </c>
-      <c r="E253" t="s">
+      <c r="I253" t="s">
         <v>1179</v>
-      </c>
-      <c r="I253" t="s">
-        <v>1180</v>
       </c>
       <c r="J253">
         <v>208</v>
@@ -13085,16 +13118,16 @@
   <sheetData>
     <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="J7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="M7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.2">
@@ -13105,7 +13138,7 @@
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C10" s="11" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.2">

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36500" yWindow="5100" windowWidth="26720" windowHeight="14900"/>
+    <workbookView xWindow="33700" yWindow="1220" windowWidth="26720" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1337">
   <si>
     <t>Key</t>
   </si>
@@ -4016,6 +4016,21 @@
   </si>
   <si>
     <t>Only one repeatability measured (for each sex)</t>
+  </si>
+  <si>
+    <t>Probably not important, compares spring to autumn migration across two year</t>
+  </si>
+  <si>
+    <t>Maybe Holger has more specific data, only one repeatability reported so far</t>
+  </si>
+  <si>
+    <t>Only one repeatability in time measured (but different treatment groups)</t>
+  </si>
+  <si>
+    <t>Cattle exit speed across days</t>
+  </si>
+  <si>
+    <t>Long term but only one repeatability reported</t>
   </si>
 </sst>
 </file>
@@ -4125,7 +4140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4146,6 +4161,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4491,9 +4507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B209" sqref="B209"/>
+      <selection pane="topRight" activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11945,85 +11961,91 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="209" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="8">
         <v>2012</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="8" t="s">
         <v>957</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H209" t="s">
+      <c r="H209" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I209" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="J209">
+      <c r="J209" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+    <row r="210" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="2">
         <v>2018</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="H210" t="s">
+      <c r="H210" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I210" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="J210">
+      <c r="J210" s="2">
         <v>124</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+      <c r="AB210" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="2">
         <v>2015</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H211" t="s">
+      <c r="H211" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB211" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>972</v>
       </c>
@@ -12049,440 +12071,479 @@
         <v>139</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="213" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="8">
         <v>2017</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H213" t="s">
+      <c r="H213" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="J213">
+      <c r="J213" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row r="214" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="2">
         <v>2016</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H214" t="s">
+      <c r="H214" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I214" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="J214">
+      <c r="J214" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+      <c r="AB214" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="215" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="18" t="s">
         <v>985</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="18">
         <v>2012</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="18" t="s">
         <v>987</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H215" s="18" t="s">
         <v>988</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="18">
         <v>7</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="AB215" s="18" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="216" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="5">
         <v>2010</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H216" t="s">
+      <c r="H216" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="I216" t="s">
+      <c r="I216" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="J216">
+      <c r="J216" s="5">
         <v>80</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="AB216" s="5" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="217" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="2">
         <v>2017</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H217" t="s">
+      <c r="H217" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="I217" t="s">
+      <c r="I217" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="J217">
+      <c r="J217" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+      <c r="AB217" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="218" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="2">
         <v>2015</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H218" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="I218" t="s">
+      <c r="I218" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="J218">
+      <c r="J218" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+      <c r="AB218" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="219" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="2">
         <v>2014</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H219" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="I219" t="s">
+      <c r="I219" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+      <c r="AB219" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="220" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="8">
         <v>2005</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H220" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I220" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="J220">
+      <c r="J220" s="8">
         <v>69</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+    <row r="221" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="2">
         <v>2014</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H221" t="s">
+      <c r="H221" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="I221" t="s">
+      <c r="I221" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+      <c r="AB221" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="222" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="8">
         <v>2017</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H222" t="s">
+      <c r="H222" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="I222" t="s">
+      <c r="I222" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="8">
         <v>123</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    <row r="223" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="2">
         <v>2014</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H223" t="s">
+      <c r="H223" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="I223" t="s">
+      <c r="I223" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="J223">
+      <c r="J223" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="AB223" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="224" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="2">
         <v>2013</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H224" t="s">
+      <c r="H224" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="I224" t="s">
+      <c r="I224" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="J224">
+      <c r="J224" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+      <c r="AB224" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="225" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="2">
         <v>2018</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H225" t="s">
+      <c r="H225" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="I225" t="s">
+      <c r="I225" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="J225">
+      <c r="J225" s="2">
         <v>153</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+      <c r="AB225" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="226" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="2">
         <v>2011</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H226" t="s">
+      <c r="H226" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="I226" t="s">
+      <c r="I226" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="J226">
+      <c r="J226" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+      <c r="AB226" s="2" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="227" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="2">
         <v>2011</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="H227" t="s">
+      <c r="H227" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="I227" t="s">
+      <c r="I227" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="J227">
+      <c r="J227" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+      <c r="AB227" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="228" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="8">
         <v>2012</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="H228" t="s">
+      <c r="H228" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="J228">
+      <c r="J228" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="229" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="2">
         <v>2018</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H229" t="s">
+      <c r="H229" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="I229" t="s">
+      <c r="I229" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="J229">
+      <c r="J229" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB229" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1059</v>
       </c>
@@ -12508,7 +12569,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1064</v>
       </c>
@@ -12533,34 +12594,40 @@
       <c r="J231">
         <v>91</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+      <c r="AB231" s="11" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="232" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="2">
         <v>2017</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H232" t="s">
+      <c r="H232" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="I232" t="s">
+      <c r="I232" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="J232">
+      <c r="J232" s="2">
         <v>124</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB232" s="2" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1074</v>
       </c>
@@ -12586,7 +12653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1079</v>
       </c>
@@ -12609,7 +12676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1083</v>
       </c>
@@ -12635,7 +12702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1089</v>
       </c>
@@ -12664,7 +12731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1096</v>
       </c>
@@ -12690,7 +12757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1101</v>
       </c>
@@ -12716,7 +12783,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1106</v>
       </c>
@@ -12742,7 +12809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1112</v>
       </c>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33700" yWindow="1220" windowWidth="26720" windowHeight="14900"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1343">
   <si>
     <t>Key</t>
   </si>
@@ -4031,6 +4031,24 @@
   </si>
   <si>
     <t>Long term but only one repeatability reported</t>
+  </si>
+  <si>
+    <t>Only one repeatability measured (but long term study!)</t>
+  </si>
+  <si>
+    <t>This is a data descriptor, potentially analysable"</t>
+  </si>
+  <si>
+    <t>Only ICC over treatments, could have a second look here</t>
+  </si>
+  <si>
+    <t>Maybe double check</t>
+  </si>
+  <si>
+    <t>check with holger</t>
+  </si>
+  <si>
+    <t>Krause Schielzeth checken</t>
   </si>
 </sst>
 </file>
@@ -4505,11 +4523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB253"/>
+  <dimension ref="A1:AB260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B233" sqref="B233"/>
+      <selection pane="topRight" activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11880,33 +11898,33 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="206" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
+    <row r="206" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="11">
         <v>2011</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="11" t="s">
         <v>942</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="H206" s="2" t="s">
+      <c r="H206" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="I206" s="2" t="s">
+      <c r="I206" s="11" t="s">
         <v>944</v>
       </c>
-      <c r="J206" s="2">
+      <c r="J206" s="11">
         <v>22</v>
       </c>
-      <c r="AB206" s="2" t="s">
-        <v>1320</v>
+      <c r="AB206" s="11" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="207" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -12627,238 +12645,253 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    <row r="233" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="8" t="s">
         <v>1074</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="8" t="s">
         <v>1073</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="8">
         <v>2015</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H233" t="s">
+      <c r="H233" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="I233" t="s">
+      <c r="I233" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="J233">
+      <c r="J233" s="8">
         <v>103</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row r="234" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="8" t="s">
         <v>1079</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="8" t="s">
         <v>1078</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="8">
         <v>1997</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="8" t="s">
         <v>1080</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="I234" t="s">
+      <c r="I234" s="8" t="s">
         <v>1081</v>
       </c>
-      <c r="J234">
+      <c r="J234" s="8">
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row r="235" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="2">
         <v>2018</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="H235" t="s">
+      <c r="H235" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="I235" t="s">
+      <c r="I235" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="J235">
+      <c r="J235" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+      <c r="AB235" s="2" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="236" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="5">
         <v>2017</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H236" s="5" t="s">
         <v>1093</v>
       </c>
-      <c r="I236" t="s">
+      <c r="I236" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="J236">
+      <c r="J236" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+      <c r="AB236" s="5" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="237" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
         <v>1096</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="8">
         <v>2016</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H237" t="s">
+      <c r="H237" s="8" t="s">
         <v>1098</v>
       </c>
-      <c r="I237" t="s">
+      <c r="I237" s="8" t="s">
         <v>1099</v>
       </c>
-      <c r="J237">
+      <c r="J237" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    <row r="238" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="16" t="s">
         <v>1101</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="16" t="s">
         <v>1100</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="16">
         <v>2017</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="16" t="s">
         <v>1102</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H238" t="s">
+      <c r="H238" s="16" t="s">
         <v>1103</v>
       </c>
-      <c r="I238" t="s">
+      <c r="I238" s="16" t="s">
         <v>1104</v>
       </c>
-      <c r="J238">
+      <c r="J238" s="16">
         <v>145</v>
       </c>
-    </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+      <c r="AB238" s="16" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="239" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="2">
         <v>2017</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="H239" t="s">
+      <c r="H239" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="I239" t="s">
+      <c r="I239" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="J239">
+      <c r="J239" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+      <c r="AB239" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="240" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="8">
         <v>2015</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="8" t="s">
         <v>1114</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H240" s="8" t="s">
         <v>1115</v>
       </c>
-      <c r="J240">
+      <c r="J240" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row r="241" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="8" t="s">
         <v>1117</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="8">
         <v>2017</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H241" t="s">
+      <c r="H241" s="8" t="s">
         <v>1119</v>
       </c>
-      <c r="I241" t="s">
+      <c r="I241" s="8" t="s">
         <v>1120</v>
       </c>
-      <c r="J241">
+      <c r="J241" s="8">
         <v>183</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="AB241" s="8" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="242" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1122</v>
       </c>
@@ -12884,7 +12917,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1128</v>
       </c>
@@ -12910,7 +12943,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1133</v>
       </c>
@@ -12936,7 +12969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1138</v>
       </c>
@@ -12962,7 +12995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1143</v>
       </c>
@@ -12988,7 +13021,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1148</v>
       </c>
@@ -13014,7 +13047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1153</v>
       </c>
@@ -13037,7 +13070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1157</v>
       </c>
@@ -13063,7 +13096,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1162</v>
       </c>
@@ -13089,7 +13122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1168</v>
       </c>
@@ -13115,7 +13148,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1172</v>
       </c>
@@ -13141,7 +13174,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>392</v>
       </c>
@@ -13162,6 +13195,11 @@
       </c>
       <c r="J253">
         <v>208</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>

--- a/data/meta_table_filled.xlsx
+++ b/data/meta_table_filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520"/>
+    <workbookView xWindow="33060" yWindow="600" windowWidth="28800" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1348">
   <si>
     <t>Key</t>
   </si>
@@ -4049,6 +4049,21 @@
   </si>
   <si>
     <t>Krause Schielzeth checken</t>
+  </si>
+  <si>
+    <t>Only one repeatability (between years)</t>
+  </si>
+  <si>
+    <t>Only one repeatability (but calculated with different intervals)</t>
+  </si>
+  <si>
+    <t>Across contexts, not time</t>
+  </si>
+  <si>
+    <t>Spearman correlations, no pval or ci</t>
+  </si>
+  <si>
+    <t>Physiology</t>
   </si>
 </sst>
 </file>
@@ -4525,9 +4540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B260" sqref="B260"/>
+      <selection pane="topRight" activeCell="AC253" sqref="AC253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12891,182 +12906,197 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row r="242" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="2">
         <v>2018</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="H242" t="s">
+      <c r="H242" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="I242" t="s">
+      <c r="I242" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="J242">
+      <c r="J242" s="2">
         <v>305</v>
       </c>
-    </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+      <c r="AB242" s="2" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="243" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="2">
         <v>2017</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H243" t="s">
+      <c r="H243" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="I243" t="s">
+      <c r="I243" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="J243">
+      <c r="J243" s="2">
         <v>133</v>
       </c>
-    </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+      <c r="AB243" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="244" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="2">
         <v>2009</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H244" t="s">
+      <c r="H244" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="I244" t="s">
+      <c r="I244" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="J244">
+      <c r="J244" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+      <c r="AB244" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="245" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="8" t="s">
         <v>1137</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="8">
         <v>2018</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="H245" t="s">
+      <c r="H245" s="8" t="s">
         <v>1140</v>
       </c>
-      <c r="I245" t="s">
+      <c r="I245" s="8" t="s">
         <v>1141</v>
       </c>
-      <c r="J245">
+      <c r="J245" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    <row r="246" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="2">
         <v>2018</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H246" t="s">
+      <c r="H246" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="I246" t="s">
+      <c r="I246" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="J246">
+      <c r="J246" s="2">
         <v>124</v>
       </c>
-    </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+      <c r="AB246" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="247" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="2">
         <v>2010</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H247" t="s">
+      <c r="H247" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="I247" t="s">
+      <c r="I247" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="J247">
+      <c r="J247" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+      <c r="AB247" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="248" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="8" t="s">
         <v>1152</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="8">
         <v>2015</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="H248" t="s">
+      <c r="H248" s="8" t="s">
         <v>1155</v>
       </c>
-      <c r="J248">
+      <c r="J248" s="8">
         <v>12</v>
       </c>
     </row>
@@ -13095,106 +13125,115 @@
       <c r="J249">
         <v>169</v>
       </c>
-    </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+      <c r="AB249" s="2" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="250" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="2">
         <v>2016</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H250" t="s">
+      <c r="H250" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I250" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="J250">
+      <c r="J250" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+      <c r="AB250" s="2" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="251" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="8" t="s">
         <v>1168</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="8" t="s">
         <v>1167</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="8">
         <v>2017</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="8" t="s">
         <v>1169</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="H251" t="s">
+      <c r="H251" s="8" t="s">
         <v>1170</v>
       </c>
-      <c r="J251">
+      <c r="J251" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="252" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="2">
         <v>2012</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H252" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="I252" t="s">
+      <c r="I252" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="J252">
+      <c r="J252" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row r="253" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="2">
         <v>2014</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="I253" t="s">
+      <c r="I253" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="J253">
+      <c r="J253" s="2">
         <v>208</v>
+      </c>
+      <c r="AB253" s="2" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
